--- a/Data/exp1-consolidated.xlsx
+++ b/Data/exp1-consolidated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3252" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="240">
   <si>
     <t>Participant</t>
   </si>
@@ -734,6 +734,9 @@
   <si>
     <t>P7</t>
   </si>
+  <si>
+    <t>P8</t>
+  </si>
 </sst>
 </file>
 
@@ -1073,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1513"/>
+  <dimension ref="A1:L1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58572,6 +58575,8214 @@
         <v>0</v>
       </c>
       <c r="L1513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1514" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1514" s="1">
+        <v>41522.479849537034</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1514">
+        <v>2</v>
+      </c>
+      <c r="E1514">
+        <v>1</v>
+      </c>
+      <c r="F1514">
+        <v>1</v>
+      </c>
+      <c r="G1514">
+        <v>0</v>
+      </c>
+      <c r="H1514">
+        <v>25130.035199999998</v>
+      </c>
+      <c r="I1514">
+        <v>18430.025799999999</v>
+      </c>
+      <c r="J1514">
+        <v>16905.023700000002</v>
+      </c>
+      <c r="K1514">
+        <v>2</v>
+      </c>
+      <c r="L1514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1515" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1515" s="1">
+        <v>41522.479953703703</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1515">
+        <v>2</v>
+      </c>
+      <c r="E1515">
+        <v>1</v>
+      </c>
+      <c r="F1515">
+        <v>2</v>
+      </c>
+      <c r="G1515">
+        <v>0</v>
+      </c>
+      <c r="H1515">
+        <v>8960.0125000000007</v>
+      </c>
+      <c r="I1515">
+        <v>7500.0105000000003</v>
+      </c>
+      <c r="J1515">
+        <v>7500.0105000000003</v>
+      </c>
+      <c r="K1515">
+        <v>0</v>
+      </c>
+      <c r="L1515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1516" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1516" s="1">
+        <v>41522.48027777778</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1516">
+        <v>2</v>
+      </c>
+      <c r="E1516">
+        <v>1</v>
+      </c>
+      <c r="F1516">
+        <v>3</v>
+      </c>
+      <c r="G1516">
+        <v>0</v>
+      </c>
+      <c r="H1516">
+        <v>27575.0386</v>
+      </c>
+      <c r="I1516">
+        <v>25975.0363</v>
+      </c>
+      <c r="J1516">
+        <v>25975.0363</v>
+      </c>
+      <c r="K1516">
+        <v>3</v>
+      </c>
+      <c r="L1516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1517" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1517" s="1">
+        <v>41522.480416666665</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1517">
+        <v>2</v>
+      </c>
+      <c r="E1517">
+        <v>2</v>
+      </c>
+      <c r="F1517">
+        <v>1</v>
+      </c>
+      <c r="G1517">
+        <v>1</v>
+      </c>
+      <c r="H1517">
+        <v>12325.0173</v>
+      </c>
+      <c r="I1517">
+        <v>9900.0138999999999</v>
+      </c>
+      <c r="J1517">
+        <v>7470.0105000000003</v>
+      </c>
+      <c r="K1517">
+        <v>0</v>
+      </c>
+      <c r="L1517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1518" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1518" s="1">
+        <v>41522.480844907404</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1518">
+        <v>2</v>
+      </c>
+      <c r="E1518">
+        <v>2</v>
+      </c>
+      <c r="F1518">
+        <v>2</v>
+      </c>
+      <c r="G1518">
+        <v>3</v>
+      </c>
+      <c r="H1518">
+        <v>37430.0524</v>
+      </c>
+      <c r="I1518">
+        <v>35430.049599999998</v>
+      </c>
+      <c r="J1518">
+        <v>35430.049599999998</v>
+      </c>
+      <c r="K1518">
+        <v>1</v>
+      </c>
+      <c r="L1518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1519" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1519" s="1">
+        <v>41522.481111111112</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1519">
+        <v>2</v>
+      </c>
+      <c r="E1519">
+        <v>2</v>
+      </c>
+      <c r="F1519">
+        <v>3</v>
+      </c>
+      <c r="G1519">
+        <v>1</v>
+      </c>
+      <c r="H1519">
+        <v>22200.0311</v>
+      </c>
+      <c r="I1519">
+        <v>20535.0288</v>
+      </c>
+      <c r="J1519">
+        <v>20535.0288</v>
+      </c>
+      <c r="K1519">
+        <v>1</v>
+      </c>
+      <c r="L1519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1520" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1520" s="1">
+        <v>41522.481249999997</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1520">
+        <v>2</v>
+      </c>
+      <c r="E1520">
+        <v>3</v>
+      </c>
+      <c r="F1520">
+        <v>1</v>
+      </c>
+      <c r="G1520">
+        <v>0</v>
+      </c>
+      <c r="H1520">
+        <v>12360.0173</v>
+      </c>
+      <c r="I1520">
+        <v>10900.015299999999</v>
+      </c>
+      <c r="J1520">
+        <v>9535.0133999999998</v>
+      </c>
+      <c r="K1520">
+        <v>0</v>
+      </c>
+      <c r="L1520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1521" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1521" s="1">
+        <v>41522.481516203705</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1521">
+        <v>2</v>
+      </c>
+      <c r="E1521">
+        <v>3</v>
+      </c>
+      <c r="F1521">
+        <v>2</v>
+      </c>
+      <c r="G1521">
+        <v>2</v>
+      </c>
+      <c r="H1521">
+        <v>23330.032599999999</v>
+      </c>
+      <c r="I1521">
+        <v>16530.023099999999</v>
+      </c>
+      <c r="J1521">
+        <v>16530.023099999999</v>
+      </c>
+      <c r="K1521">
+        <v>1</v>
+      </c>
+      <c r="L1521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1522" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1522" s="1">
+        <v>41522.481736111113</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1522">
+        <v>2</v>
+      </c>
+      <c r="E1522">
+        <v>3</v>
+      </c>
+      <c r="F1522">
+        <v>3</v>
+      </c>
+      <c r="G1522">
+        <v>2</v>
+      </c>
+      <c r="H1522">
+        <v>18745.026300000001</v>
+      </c>
+      <c r="I1522">
+        <v>12775.017900000001</v>
+      </c>
+      <c r="J1522">
+        <v>12775.017900000001</v>
+      </c>
+      <c r="K1522">
+        <v>0</v>
+      </c>
+      <c r="L1522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1523" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1523" s="1">
+        <v>41522.484988425924</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1523">
+        <v>2</v>
+      </c>
+      <c r="E1523">
+        <v>4</v>
+      </c>
+      <c r="F1523">
+        <v>1</v>
+      </c>
+      <c r="G1523">
+        <v>3</v>
+      </c>
+      <c r="H1523">
+        <v>281279.4755</v>
+      </c>
+      <c r="I1523">
+        <v>272559.4633</v>
+      </c>
+      <c r="J1523">
+        <v>6230.0087000000003</v>
+      </c>
+      <c r="K1523">
+        <v>2</v>
+      </c>
+      <c r="L1523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1524" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1524" s="1">
+        <v>41522.485543981478</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1524">
+        <v>2</v>
+      </c>
+      <c r="E1524">
+        <v>4</v>
+      </c>
+      <c r="F1524">
+        <v>2</v>
+      </c>
+      <c r="G1524">
+        <v>1</v>
+      </c>
+      <c r="H1524">
+        <v>47745.066800000001</v>
+      </c>
+      <c r="I1524">
+        <v>43400.060700000002</v>
+      </c>
+      <c r="J1524">
+        <v>43400.060700000002</v>
+      </c>
+      <c r="K1524">
+        <v>2</v>
+      </c>
+      <c r="L1524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1525" s="1">
+        <v>41522.48574074074</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1525">
+        <v>2</v>
+      </c>
+      <c r="E1525">
+        <v>4</v>
+      </c>
+      <c r="F1525">
+        <v>3</v>
+      </c>
+      <c r="G1525">
+        <v>1</v>
+      </c>
+      <c r="H1525">
+        <v>16685.023399999998</v>
+      </c>
+      <c r="I1525">
+        <v>15085.0211</v>
+      </c>
+      <c r="J1525">
+        <v>15085.0211</v>
+      </c>
+      <c r="K1525">
+        <v>0</v>
+      </c>
+      <c r="L1525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1526" s="1">
+        <v>41522.485902777778</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1526">
+        <v>2</v>
+      </c>
+      <c r="E1526">
+        <v>5</v>
+      </c>
+      <c r="F1526">
+        <v>1</v>
+      </c>
+      <c r="G1526">
+        <v>0</v>
+      </c>
+      <c r="H1526">
+        <v>14630.020500000001</v>
+      </c>
+      <c r="I1526">
+        <v>9620.0134999999991</v>
+      </c>
+      <c r="J1526">
+        <v>7675.0108</v>
+      </c>
+      <c r="K1526">
+        <v>0</v>
+      </c>
+      <c r="L1526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1527" s="1">
+        <v>41522.486087962963</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1527">
+        <v>2</v>
+      </c>
+      <c r="E1527">
+        <v>5</v>
+      </c>
+      <c r="F1527">
+        <v>2</v>
+      </c>
+      <c r="G1527">
+        <v>0</v>
+      </c>
+      <c r="H1527">
+        <v>15750.022000000001</v>
+      </c>
+      <c r="I1527">
+        <v>10370.014499999999</v>
+      </c>
+      <c r="J1527">
+        <v>10370.014499999999</v>
+      </c>
+      <c r="K1527">
+        <v>0</v>
+      </c>
+      <c r="L1527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1528" s="1">
+        <v>41522.486307870371</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1528">
+        <v>2</v>
+      </c>
+      <c r="E1528">
+        <v>5</v>
+      </c>
+      <c r="F1528">
+        <v>3</v>
+      </c>
+      <c r="G1528">
+        <v>1</v>
+      </c>
+      <c r="H1528">
+        <v>19350.027099999999</v>
+      </c>
+      <c r="I1528">
+        <v>18020.0252</v>
+      </c>
+      <c r="J1528">
+        <v>18020.0252</v>
+      </c>
+      <c r="K1528">
+        <v>1</v>
+      </c>
+      <c r="L1528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1529" s="1">
+        <v>41522.486851851849</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1529">
+        <v>2</v>
+      </c>
+      <c r="E1529">
+        <v>6</v>
+      </c>
+      <c r="F1529">
+        <v>1</v>
+      </c>
+      <c r="G1529">
+        <v>3</v>
+      </c>
+      <c r="H1529">
+        <v>46715.065399999999</v>
+      </c>
+      <c r="I1529">
+        <v>43840.061399999999</v>
+      </c>
+      <c r="J1529">
+        <v>11470.016</v>
+      </c>
+      <c r="K1529">
+        <v>1</v>
+      </c>
+      <c r="L1529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1530" s="1">
+        <v>41522.486956018518</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1530">
+        <v>2</v>
+      </c>
+      <c r="E1530">
+        <v>6</v>
+      </c>
+      <c r="F1530">
+        <v>2</v>
+      </c>
+      <c r="G1530">
+        <v>3</v>
+      </c>
+      <c r="H1530">
+        <v>9115.0128000000004</v>
+      </c>
+      <c r="I1530">
+        <v>7455.0105000000003</v>
+      </c>
+      <c r="J1530">
+        <v>7455.0105000000003</v>
+      </c>
+      <c r="K1530">
+        <v>0</v>
+      </c>
+      <c r="L1530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1531" s="1">
+        <v>41522.487060185187</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1531">
+        <v>2</v>
+      </c>
+      <c r="E1531">
+        <v>6</v>
+      </c>
+      <c r="F1531">
+        <v>3</v>
+      </c>
+      <c r="G1531">
+        <v>3</v>
+      </c>
+      <c r="H1531">
+        <v>9150.0128000000004</v>
+      </c>
+      <c r="I1531">
+        <v>7005.0097999999998</v>
+      </c>
+      <c r="J1531">
+        <v>7005.0097999999998</v>
+      </c>
+      <c r="K1531">
+        <v>0</v>
+      </c>
+      <c r="L1531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1532" s="1">
+        <v>41522.487453703703</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1532">
+        <v>3</v>
+      </c>
+      <c r="E1532">
+        <v>1</v>
+      </c>
+      <c r="F1532">
+        <v>1</v>
+      </c>
+      <c r="G1532">
+        <v>3</v>
+      </c>
+      <c r="H1532">
+        <v>21375.03</v>
+      </c>
+      <c r="I1532">
+        <v>32385.045399999999</v>
+      </c>
+      <c r="J1532">
+        <v>7355.0102999999999</v>
+      </c>
+      <c r="K1532">
+        <v>1</v>
+      </c>
+      <c r="L1532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1533" s="1">
+        <v>41522.487662037034</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1533">
+        <v>3</v>
+      </c>
+      <c r="E1533">
+        <v>1</v>
+      </c>
+      <c r="F1533">
+        <v>2</v>
+      </c>
+      <c r="G1533">
+        <v>0</v>
+      </c>
+      <c r="H1533">
+        <v>17460.024399999998</v>
+      </c>
+      <c r="I1533">
+        <v>16245.0227</v>
+      </c>
+      <c r="J1533">
+        <v>16245.0227</v>
+      </c>
+      <c r="K1533">
+        <v>1</v>
+      </c>
+      <c r="L1533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1534" s="1">
+        <v>41522.487928240742</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1534">
+        <v>3</v>
+      </c>
+      <c r="E1534">
+        <v>1</v>
+      </c>
+      <c r="F1534">
+        <v>3</v>
+      </c>
+      <c r="G1534">
+        <v>3</v>
+      </c>
+      <c r="H1534">
+        <v>23645.033100000001</v>
+      </c>
+      <c r="I1534">
+        <v>22390.031299999999</v>
+      </c>
+      <c r="J1534">
+        <v>22390.031299999999</v>
+      </c>
+      <c r="K1534">
+        <v>1</v>
+      </c>
+      <c r="L1534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1535" s="1">
+        <v>41522.488032407404</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1535">
+        <v>3</v>
+      </c>
+      <c r="E1535">
+        <v>2</v>
+      </c>
+      <c r="F1535">
+        <v>1</v>
+      </c>
+      <c r="G1535">
+        <v>0</v>
+      </c>
+      <c r="H1535">
+        <v>8810.0123000000003</v>
+      </c>
+      <c r="I1535">
+        <v>7500.0105000000003</v>
+      </c>
+      <c r="J1535">
+        <v>6170.0086000000001</v>
+      </c>
+      <c r="K1535">
+        <v>0</v>
+      </c>
+      <c r="L1535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1536" s="1">
+        <v>41522.488206018519</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1536">
+        <v>3</v>
+      </c>
+      <c r="E1536">
+        <v>2</v>
+      </c>
+      <c r="F1536">
+        <v>2</v>
+      </c>
+      <c r="G1536">
+        <v>2</v>
+      </c>
+      <c r="H1536">
+        <v>15145.0213</v>
+      </c>
+      <c r="I1536">
+        <v>13945.0196</v>
+      </c>
+      <c r="J1536">
+        <v>13945.0196</v>
+      </c>
+      <c r="K1536">
+        <v>1</v>
+      </c>
+      <c r="L1536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1537" s="1">
+        <v>41522.48841435185</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1537">
+        <v>3</v>
+      </c>
+      <c r="E1537">
+        <v>2</v>
+      </c>
+      <c r="F1537">
+        <v>3</v>
+      </c>
+      <c r="G1537">
+        <v>3</v>
+      </c>
+      <c r="H1537">
+        <v>17905.025000000001</v>
+      </c>
+      <c r="I1537">
+        <v>16750.023399999998</v>
+      </c>
+      <c r="J1537">
+        <v>16750.023399999998</v>
+      </c>
+      <c r="K1537">
+        <v>1</v>
+      </c>
+      <c r="L1537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1538" s="1">
+        <v>41522.488657407404</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1538">
+        <v>3</v>
+      </c>
+      <c r="E1538">
+        <v>3</v>
+      </c>
+      <c r="F1538">
+        <v>1</v>
+      </c>
+      <c r="G1538">
+        <v>1</v>
+      </c>
+      <c r="H1538">
+        <v>20675.028999999999</v>
+      </c>
+      <c r="I1538">
+        <v>19430.0272</v>
+      </c>
+      <c r="J1538">
+        <v>10485.0147</v>
+      </c>
+      <c r="K1538">
+        <v>0</v>
+      </c>
+      <c r="L1538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1539" s="1">
+        <v>41522.488738425927</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1539">
+        <v>3</v>
+      </c>
+      <c r="E1539">
+        <v>3</v>
+      </c>
+      <c r="F1539">
+        <v>2</v>
+      </c>
+      <c r="G1539">
+        <v>1</v>
+      </c>
+      <c r="H1539">
+        <v>7140.01</v>
+      </c>
+      <c r="I1539">
+        <v>5270.0074000000004</v>
+      </c>
+      <c r="J1539">
+        <v>5270.0074000000004</v>
+      </c>
+      <c r="K1539">
+        <v>0</v>
+      </c>
+      <c r="L1539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1540" s="1">
+        <v>41522.488946759258</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1540">
+        <v>3</v>
+      </c>
+      <c r="E1540">
+        <v>3</v>
+      </c>
+      <c r="F1540">
+        <v>3</v>
+      </c>
+      <c r="G1540">
+        <v>3</v>
+      </c>
+      <c r="H1540">
+        <v>17925.025099999999</v>
+      </c>
+      <c r="I1540">
+        <v>16795.0236</v>
+      </c>
+      <c r="J1540">
+        <v>16795.0236</v>
+      </c>
+      <c r="K1540">
+        <v>1</v>
+      </c>
+      <c r="L1540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1541" s="1">
+        <v>41522.489155092589</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1541">
+        <v>3</v>
+      </c>
+      <c r="E1541">
+        <v>4</v>
+      </c>
+      <c r="F1541">
+        <v>1</v>
+      </c>
+      <c r="G1541">
+        <v>3</v>
+      </c>
+      <c r="H1541">
+        <v>17835.0249</v>
+      </c>
+      <c r="I1541">
+        <v>16435.023000000001</v>
+      </c>
+      <c r="J1541">
+        <v>9520.0133000000005</v>
+      </c>
+      <c r="K1541">
+        <v>0</v>
+      </c>
+      <c r="L1541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1542" s="1">
+        <v>41522.489305555559</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1542">
+        <v>3</v>
+      </c>
+      <c r="E1542">
+        <v>4</v>
+      </c>
+      <c r="F1542">
+        <v>2</v>
+      </c>
+      <c r="G1542">
+        <v>3</v>
+      </c>
+      <c r="H1542">
+        <v>13230.018599999999</v>
+      </c>
+      <c r="I1542">
+        <v>11365.016</v>
+      </c>
+      <c r="J1542">
+        <v>11365.016</v>
+      </c>
+      <c r="K1542">
+        <v>0</v>
+      </c>
+      <c r="L1542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1543" s="1">
+        <v>41522.489560185182</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1543">
+        <v>3</v>
+      </c>
+      <c r="E1543">
+        <v>4</v>
+      </c>
+      <c r="F1543">
+        <v>3</v>
+      </c>
+      <c r="G1543">
+        <v>2</v>
+      </c>
+      <c r="H1543">
+        <v>21735.0304</v>
+      </c>
+      <c r="I1543">
+        <v>20200.028300000002</v>
+      </c>
+      <c r="J1543">
+        <v>20200.028300000002</v>
+      </c>
+      <c r="K1543">
+        <v>1</v>
+      </c>
+      <c r="L1543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1544" s="1">
+        <v>41522.489849537036</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1544">
+        <v>3</v>
+      </c>
+      <c r="E1544">
+        <v>5</v>
+      </c>
+      <c r="F1544">
+        <v>1</v>
+      </c>
+      <c r="G1544">
+        <v>0</v>
+      </c>
+      <c r="H1544">
+        <v>24810.0347</v>
+      </c>
+      <c r="I1544">
+        <v>15415.0216</v>
+      </c>
+      <c r="J1544">
+        <v>14135.0198</v>
+      </c>
+      <c r="K1544">
+        <v>0</v>
+      </c>
+      <c r="L1544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1545" s="1">
+        <v>41522.490057870367</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1545">
+        <v>3</v>
+      </c>
+      <c r="E1545">
+        <v>5</v>
+      </c>
+      <c r="F1545">
+        <v>2</v>
+      </c>
+      <c r="G1545">
+        <v>2</v>
+      </c>
+      <c r="H1545">
+        <v>18200.0255</v>
+      </c>
+      <c r="I1545">
+        <v>16615.023300000001</v>
+      </c>
+      <c r="J1545">
+        <v>16615.023300000001</v>
+      </c>
+      <c r="K1545">
+        <v>1</v>
+      </c>
+      <c r="L1545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1546" s="1">
+        <v>41522.490243055552</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1546">
+        <v>3</v>
+      </c>
+      <c r="E1546">
+        <v>5</v>
+      </c>
+      <c r="F1546">
+        <v>3</v>
+      </c>
+      <c r="G1546">
+        <v>3</v>
+      </c>
+      <c r="H1546">
+        <v>15925.022300000001</v>
+      </c>
+      <c r="I1546">
+        <v>14740.0206</v>
+      </c>
+      <c r="J1546">
+        <v>14740.0206</v>
+      </c>
+      <c r="K1546">
+        <v>1</v>
+      </c>
+      <c r="L1546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1547" s="1">
+        <v>41522.490370370368</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1547">
+        <v>3</v>
+      </c>
+      <c r="E1547">
+        <v>6</v>
+      </c>
+      <c r="F1547">
+        <v>1</v>
+      </c>
+      <c r="G1547">
+        <v>0</v>
+      </c>
+      <c r="H1547">
+        <v>10890.015299999999</v>
+      </c>
+      <c r="I1547">
+        <v>9535.0133999999998</v>
+      </c>
+      <c r="J1547">
+        <v>6070.0084999999999</v>
+      </c>
+      <c r="K1547">
+        <v>0</v>
+      </c>
+      <c r="L1547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1548" s="1">
+        <v>41522.490486111114</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1548">
+        <v>3</v>
+      </c>
+      <c r="E1548">
+        <v>6</v>
+      </c>
+      <c r="F1548">
+        <v>2</v>
+      </c>
+      <c r="G1548">
+        <v>0</v>
+      </c>
+      <c r="H1548">
+        <v>10260.014300000001</v>
+      </c>
+      <c r="I1548">
+        <v>8595.0120000000006</v>
+      </c>
+      <c r="J1548">
+        <v>8595.0120000000006</v>
+      </c>
+      <c r="K1548">
+        <v>0</v>
+      </c>
+      <c r="L1548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1549" s="1">
+        <v>41522.490659722222</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1549">
+        <v>3</v>
+      </c>
+      <c r="E1549">
+        <v>6</v>
+      </c>
+      <c r="F1549">
+        <v>3</v>
+      </c>
+      <c r="G1549">
+        <v>0</v>
+      </c>
+      <c r="H1549">
+        <v>14920.0209</v>
+      </c>
+      <c r="I1549">
+        <v>13715.019200000001</v>
+      </c>
+      <c r="J1549">
+        <v>13715.019200000001</v>
+      </c>
+      <c r="K1549">
+        <v>3</v>
+      </c>
+      <c r="L1549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1550" s="1">
+        <v>41522.490949074076</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1550">
+        <v>1</v>
+      </c>
+      <c r="E1550">
+        <v>1</v>
+      </c>
+      <c r="F1550">
+        <v>1</v>
+      </c>
+      <c r="G1550">
+        <v>1</v>
+      </c>
+      <c r="H1550">
+        <v>18960.0265</v>
+      </c>
+      <c r="I1550">
+        <v>23630.033100000001</v>
+      </c>
+      <c r="J1550">
+        <v>4740.0065999999997</v>
+      </c>
+      <c r="K1550">
+        <v>1</v>
+      </c>
+      <c r="L1550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>41522.491030092591</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1551">
+        <v>1</v>
+      </c>
+      <c r="E1551">
+        <v>1</v>
+      </c>
+      <c r="F1551">
+        <v>2</v>
+      </c>
+      <c r="G1551">
+        <v>1</v>
+      </c>
+      <c r="H1551">
+        <v>7415.0104000000001</v>
+      </c>
+      <c r="I1551">
+        <v>5945.0083000000004</v>
+      </c>
+      <c r="J1551">
+        <v>5945.0083000000004</v>
+      </c>
+      <c r="K1551">
+        <v>0</v>
+      </c>
+      <c r="L1551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>41522.49113425926</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1552">
+        <v>1</v>
+      </c>
+      <c r="E1552">
+        <v>1</v>
+      </c>
+      <c r="F1552">
+        <v>3</v>
+      </c>
+      <c r="G1552">
+        <v>1</v>
+      </c>
+      <c r="H1552">
+        <v>8945.0125000000007</v>
+      </c>
+      <c r="I1552">
+        <v>7690.0106999999998</v>
+      </c>
+      <c r="J1552">
+        <v>7690.0106999999998</v>
+      </c>
+      <c r="K1552">
+        <v>0</v>
+      </c>
+      <c r="L1552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>41522.491273148145</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1553">
+        <v>1</v>
+      </c>
+      <c r="E1553">
+        <v>2</v>
+      </c>
+      <c r="F1553">
+        <v>1</v>
+      </c>
+      <c r="G1553">
+        <v>1</v>
+      </c>
+      <c r="H1553">
+        <v>11495.016100000001</v>
+      </c>
+      <c r="I1553">
+        <v>10185.0142</v>
+      </c>
+      <c r="J1553">
+        <v>6410.0088999999998</v>
+      </c>
+      <c r="K1553">
+        <v>0</v>
+      </c>
+      <c r="L1553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>41522.491377314815</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1554">
+        <v>1</v>
+      </c>
+      <c r="E1554">
+        <v>2</v>
+      </c>
+      <c r="F1554">
+        <v>2</v>
+      </c>
+      <c r="G1554">
+        <v>1</v>
+      </c>
+      <c r="H1554">
+        <v>9635.0134999999991</v>
+      </c>
+      <c r="I1554">
+        <v>8120.0114000000003</v>
+      </c>
+      <c r="J1554">
+        <v>8120.0114000000003</v>
+      </c>
+      <c r="K1554">
+        <v>0</v>
+      </c>
+      <c r="L1554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>41522.491469907407</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1555">
+        <v>1</v>
+      </c>
+      <c r="E1555">
+        <v>2</v>
+      </c>
+      <c r="F1555">
+        <v>3</v>
+      </c>
+      <c r="G1555">
+        <v>1</v>
+      </c>
+      <c r="H1555">
+        <v>7275.0101999999997</v>
+      </c>
+      <c r="I1555">
+        <v>5795.0081</v>
+      </c>
+      <c r="J1555">
+        <v>5795.0081</v>
+      </c>
+      <c r="K1555">
+        <v>0</v>
+      </c>
+      <c r="L1555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>41522.491585648146</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1556">
+        <v>1</v>
+      </c>
+      <c r="E1556">
+        <v>3</v>
+      </c>
+      <c r="F1556">
+        <v>1</v>
+      </c>
+      <c r="G1556">
+        <v>0</v>
+      </c>
+      <c r="H1556">
+        <v>9955.0138999999999</v>
+      </c>
+      <c r="I1556">
+        <v>8855.0123999999996</v>
+      </c>
+      <c r="J1556">
+        <v>7570.0105999999996</v>
+      </c>
+      <c r="K1556">
+        <v>0</v>
+      </c>
+      <c r="L1556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>41522.491666666669</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1557">
+        <v>1</v>
+      </c>
+      <c r="E1557">
+        <v>3</v>
+      </c>
+      <c r="F1557">
+        <v>2</v>
+      </c>
+      <c r="G1557">
+        <v>0</v>
+      </c>
+      <c r="H1557">
+        <v>6985.0097999999998</v>
+      </c>
+      <c r="I1557">
+        <v>5140.0072</v>
+      </c>
+      <c r="J1557">
+        <v>5140.0072</v>
+      </c>
+      <c r="K1557">
+        <v>0</v>
+      </c>
+      <c r="L1557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>41522.491782407407</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1558">
+        <v>1</v>
+      </c>
+      <c r="E1558">
+        <v>3</v>
+      </c>
+      <c r="F1558">
+        <v>3</v>
+      </c>
+      <c r="G1558">
+        <v>0</v>
+      </c>
+      <c r="H1558">
+        <v>9990.0139999999992</v>
+      </c>
+      <c r="I1558">
+        <v>8930.0125000000007</v>
+      </c>
+      <c r="J1558">
+        <v>8930.0125000000007</v>
+      </c>
+      <c r="K1558">
+        <v>0</v>
+      </c>
+      <c r="L1558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>41522.491932870369</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1559">
+        <v>1</v>
+      </c>
+      <c r="E1559">
+        <v>4</v>
+      </c>
+      <c r="F1559">
+        <v>1</v>
+      </c>
+      <c r="G1559">
+        <v>1</v>
+      </c>
+      <c r="H1559">
+        <v>13225.0185</v>
+      </c>
+      <c r="I1559">
+        <v>11955.0167</v>
+      </c>
+      <c r="J1559">
+        <v>5930.0083000000004</v>
+      </c>
+      <c r="K1559">
+        <v>0</v>
+      </c>
+      <c r="L1559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>41522.492013888892</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1560">
+        <v>1</v>
+      </c>
+      <c r="E1560">
+        <v>4</v>
+      </c>
+      <c r="F1560">
+        <v>2</v>
+      </c>
+      <c r="G1560">
+        <v>1</v>
+      </c>
+      <c r="H1560">
+        <v>6955.0097999999998</v>
+      </c>
+      <c r="I1560">
+        <v>5610.0078999999996</v>
+      </c>
+      <c r="J1560">
+        <v>5610.0078999999996</v>
+      </c>
+      <c r="K1560">
+        <v>0</v>
+      </c>
+      <c r="L1560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>41522.492094907408</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1561">
+        <v>1</v>
+      </c>
+      <c r="E1561">
+        <v>4</v>
+      </c>
+      <c r="F1561">
+        <v>3</v>
+      </c>
+      <c r="G1561">
+        <v>1</v>
+      </c>
+      <c r="H1561">
+        <v>7110.0099</v>
+      </c>
+      <c r="I1561">
+        <v>5820.0081</v>
+      </c>
+      <c r="J1561">
+        <v>5820.0081</v>
+      </c>
+      <c r="K1561">
+        <v>0</v>
+      </c>
+      <c r="L1561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>41522.492210648146</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1562">
+        <v>1</v>
+      </c>
+      <c r="E1562">
+        <v>5</v>
+      </c>
+      <c r="F1562">
+        <v>1</v>
+      </c>
+      <c r="G1562">
+        <v>1</v>
+      </c>
+      <c r="H1562">
+        <v>9720.0136000000002</v>
+      </c>
+      <c r="I1562">
+        <v>8645.0120999999999</v>
+      </c>
+      <c r="J1562">
+        <v>5785.0081</v>
+      </c>
+      <c r="K1562">
+        <v>0</v>
+      </c>
+      <c r="L1562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>41522.492291666669</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1563">
+        <v>1</v>
+      </c>
+      <c r="E1563">
+        <v>5</v>
+      </c>
+      <c r="F1563">
+        <v>2</v>
+      </c>
+      <c r="G1563">
+        <v>1</v>
+      </c>
+      <c r="H1563">
+        <v>7145.01</v>
+      </c>
+      <c r="I1563">
+        <v>5990.0083999999997</v>
+      </c>
+      <c r="J1563">
+        <v>5990.0083999999997</v>
+      </c>
+      <c r="K1563">
+        <v>0</v>
+      </c>
+      <c r="L1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>41522.492372685185</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1564">
+        <v>1</v>
+      </c>
+      <c r="E1564">
+        <v>5</v>
+      </c>
+      <c r="F1564">
+        <v>3</v>
+      </c>
+      <c r="G1564">
+        <v>1</v>
+      </c>
+      <c r="H1564">
+        <v>7370.0104000000001</v>
+      </c>
+      <c r="I1564">
+        <v>5660.0079999999998</v>
+      </c>
+      <c r="J1564">
+        <v>5660.0079999999998</v>
+      </c>
+      <c r="K1564">
+        <v>0</v>
+      </c>
+      <c r="L1564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>41522.492476851854</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1565">
+        <v>1</v>
+      </c>
+      <c r="E1565">
+        <v>6</v>
+      </c>
+      <c r="F1565">
+        <v>1</v>
+      </c>
+      <c r="G1565">
+        <v>0</v>
+      </c>
+      <c r="H1565">
+        <v>8630.0120000000006</v>
+      </c>
+      <c r="I1565">
+        <v>7395.0102999999999</v>
+      </c>
+      <c r="J1565">
+        <v>6235.0087000000003</v>
+      </c>
+      <c r="K1565">
+        <v>0</v>
+      </c>
+      <c r="L1565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>41522.492581018516</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1566">
+        <v>1</v>
+      </c>
+      <c r="E1566">
+        <v>6</v>
+      </c>
+      <c r="F1566">
+        <v>2</v>
+      </c>
+      <c r="G1566">
+        <v>0</v>
+      </c>
+      <c r="H1566">
+        <v>9530.0133999999998</v>
+      </c>
+      <c r="I1566">
+        <v>5425.0075999999999</v>
+      </c>
+      <c r="J1566">
+        <v>5425.0075999999999</v>
+      </c>
+      <c r="K1566">
+        <v>0</v>
+      </c>
+      <c r="L1566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>41522.492673611108</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1567">
+        <v>1</v>
+      </c>
+      <c r="E1567">
+        <v>6</v>
+      </c>
+      <c r="F1567">
+        <v>3</v>
+      </c>
+      <c r="G1567">
+        <v>0</v>
+      </c>
+      <c r="H1567">
+        <v>7410.0104000000001</v>
+      </c>
+      <c r="I1567">
+        <v>5835.0082000000002</v>
+      </c>
+      <c r="J1567">
+        <v>5835.0082000000002</v>
+      </c>
+      <c r="K1567">
+        <v>0</v>
+      </c>
+      <c r="L1567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>41522.493067129632</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1568">
+        <v>1</v>
+      </c>
+      <c r="E1568">
+        <v>1</v>
+      </c>
+      <c r="F1568">
+        <v>1</v>
+      </c>
+      <c r="G1568">
+        <v>2</v>
+      </c>
+      <c r="H1568">
+        <v>19465.0272</v>
+      </c>
+      <c r="I1568">
+        <v>32965.0461</v>
+      </c>
+      <c r="J1568">
+        <v>4135.0057999999999</v>
+      </c>
+      <c r="K1568">
+        <v>1</v>
+      </c>
+      <c r="L1568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>41522.493113425924</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1569">
+        <v>1</v>
+      </c>
+      <c r="E1569">
+        <v>1</v>
+      </c>
+      <c r="F1569">
+        <v>2</v>
+      </c>
+      <c r="G1569">
+        <v>2</v>
+      </c>
+      <c r="H1569">
+        <v>4235.0059000000001</v>
+      </c>
+      <c r="I1569">
+        <v>2600.0036</v>
+      </c>
+      <c r="J1569">
+        <v>2600.0036</v>
+      </c>
+      <c r="K1569">
+        <v>0</v>
+      </c>
+      <c r="L1569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>41522.49318287037</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1570">
+        <v>1</v>
+      </c>
+      <c r="E1570">
+        <v>1</v>
+      </c>
+      <c r="F1570">
+        <v>3</v>
+      </c>
+      <c r="G1570">
+        <v>2</v>
+      </c>
+      <c r="H1570">
+        <v>5485.0077000000001</v>
+      </c>
+      <c r="I1570">
+        <v>3885.0054</v>
+      </c>
+      <c r="J1570">
+        <v>3885.0054</v>
+      </c>
+      <c r="K1570">
+        <v>0</v>
+      </c>
+      <c r="L1570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>41522.493472222224</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1571">
+        <v>1</v>
+      </c>
+      <c r="E1571">
+        <v>2</v>
+      </c>
+      <c r="F1571">
+        <v>1</v>
+      </c>
+      <c r="G1571">
+        <v>3</v>
+      </c>
+      <c r="H1571">
+        <v>25255.035400000001</v>
+      </c>
+      <c r="I1571">
+        <v>24045.0337</v>
+      </c>
+      <c r="J1571">
+        <v>2450.0034000000001</v>
+      </c>
+      <c r="K1571">
+        <v>1</v>
+      </c>
+      <c r="L1571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>41522.493518518517</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1572">
+        <v>1</v>
+      </c>
+      <c r="E1572">
+        <v>2</v>
+      </c>
+      <c r="F1572">
+        <v>2</v>
+      </c>
+      <c r="G1572">
+        <v>3</v>
+      </c>
+      <c r="H1572">
+        <v>3515.0048999999999</v>
+      </c>
+      <c r="I1572">
+        <v>1960.0027</v>
+      </c>
+      <c r="J1572">
+        <v>1960.0027</v>
+      </c>
+      <c r="K1572">
+        <v>0</v>
+      </c>
+      <c r="L1572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>41522.49355324074</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1573">
+        <v>1</v>
+      </c>
+      <c r="E1573">
+        <v>2</v>
+      </c>
+      <c r="F1573">
+        <v>3</v>
+      </c>
+      <c r="G1573">
+        <v>3</v>
+      </c>
+      <c r="H1573">
+        <v>3365.0047</v>
+      </c>
+      <c r="I1573">
+        <v>2125.0030000000002</v>
+      </c>
+      <c r="J1573">
+        <v>2125.0030000000002</v>
+      </c>
+      <c r="K1573">
+        <v>0</v>
+      </c>
+      <c r="L1573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>41522.493645833332</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1574">
+        <v>1</v>
+      </c>
+      <c r="E1574">
+        <v>3</v>
+      </c>
+      <c r="F1574">
+        <v>1</v>
+      </c>
+      <c r="G1574">
+        <v>2</v>
+      </c>
+      <c r="H1574">
+        <v>8090.0114000000003</v>
+      </c>
+      <c r="I1574">
+        <v>6920.0096999999996</v>
+      </c>
+      <c r="J1574">
+        <v>2865.0041000000001</v>
+      </c>
+      <c r="K1574">
+        <v>0</v>
+      </c>
+      <c r="L1574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>41522.493680555555</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1575">
+        <v>1</v>
+      </c>
+      <c r="E1575">
+        <v>3</v>
+      </c>
+      <c r="F1575">
+        <v>2</v>
+      </c>
+      <c r="G1575">
+        <v>2</v>
+      </c>
+      <c r="H1575">
+        <v>3300.0046000000002</v>
+      </c>
+      <c r="I1575">
+        <v>2220.0030999999999</v>
+      </c>
+      <c r="J1575">
+        <v>2220.0030999999999</v>
+      </c>
+      <c r="K1575">
+        <v>0</v>
+      </c>
+      <c r="L1575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>41522.493726851855</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1576">
+        <v>1</v>
+      </c>
+      <c r="E1576">
+        <v>3</v>
+      </c>
+      <c r="F1576">
+        <v>3</v>
+      </c>
+      <c r="G1576">
+        <v>2</v>
+      </c>
+      <c r="H1576">
+        <v>3370.0047</v>
+      </c>
+      <c r="I1576">
+        <v>1990.0028</v>
+      </c>
+      <c r="J1576">
+        <v>1990.0028</v>
+      </c>
+      <c r="K1576">
+        <v>0</v>
+      </c>
+      <c r="L1576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>41522.493784722225</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1577">
+        <v>1</v>
+      </c>
+      <c r="E1577">
+        <v>4</v>
+      </c>
+      <c r="F1577">
+        <v>1</v>
+      </c>
+      <c r="G1577">
+        <v>0</v>
+      </c>
+      <c r="H1577">
+        <v>5315.0074000000004</v>
+      </c>
+      <c r="I1577">
+        <v>4405.0060999999996</v>
+      </c>
+      <c r="J1577">
+        <v>2455.0034000000001</v>
+      </c>
+      <c r="K1577">
+        <v>0</v>
+      </c>
+      <c r="L1577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>41522.493854166663</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1578">
+        <v>1</v>
+      </c>
+      <c r="E1578">
+        <v>4</v>
+      </c>
+      <c r="F1578">
+        <v>2</v>
+      </c>
+      <c r="G1578">
+        <v>0</v>
+      </c>
+      <c r="H1578">
+        <v>5990.0083999999997</v>
+      </c>
+      <c r="I1578">
+        <v>4995.0069999999996</v>
+      </c>
+      <c r="J1578">
+        <v>4995.0069999999996</v>
+      </c>
+      <c r="K1578">
+        <v>0</v>
+      </c>
+      <c r="L1578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>41522.493900462963</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1579">
+        <v>1</v>
+      </c>
+      <c r="E1579">
+        <v>4</v>
+      </c>
+      <c r="F1579">
+        <v>3</v>
+      </c>
+      <c r="G1579">
+        <v>0</v>
+      </c>
+      <c r="H1579">
+        <v>4220.0059000000001</v>
+      </c>
+      <c r="I1579">
+        <v>2915.0039999999999</v>
+      </c>
+      <c r="J1579">
+        <v>2915.0039999999999</v>
+      </c>
+      <c r="K1579">
+        <v>0</v>
+      </c>
+      <c r="L1579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>41522.49417824074</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1580">
+        <v>1</v>
+      </c>
+      <c r="E1580">
+        <v>5</v>
+      </c>
+      <c r="F1580">
+        <v>1</v>
+      </c>
+      <c r="G1580">
+        <v>3</v>
+      </c>
+      <c r="H1580">
+        <v>23915.033500000001</v>
+      </c>
+      <c r="I1580">
+        <v>22730.031800000001</v>
+      </c>
+      <c r="J1580">
+        <v>2880.0039999999999</v>
+      </c>
+      <c r="K1580">
+        <v>1</v>
+      </c>
+      <c r="L1580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>41522.49422453704</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1581">
+        <v>1</v>
+      </c>
+      <c r="E1581">
+        <v>5</v>
+      </c>
+      <c r="F1581">
+        <v>2</v>
+      </c>
+      <c r="G1581">
+        <v>3</v>
+      </c>
+      <c r="H1581">
+        <v>3825.0054</v>
+      </c>
+      <c r="I1581">
+        <v>2855.0039999999999</v>
+      </c>
+      <c r="J1581">
+        <v>2855.0039999999999</v>
+      </c>
+      <c r="K1581">
+        <v>0</v>
+      </c>
+      <c r="L1581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>41522.494305555556</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1582">
+        <v>1</v>
+      </c>
+      <c r="E1582">
+        <v>5</v>
+      </c>
+      <c r="F1582">
+        <v>3</v>
+      </c>
+      <c r="G1582">
+        <v>3</v>
+      </c>
+      <c r="H1582">
+        <v>6890.0096000000003</v>
+      </c>
+      <c r="I1582">
+        <v>3945.0055000000002</v>
+      </c>
+      <c r="J1582">
+        <v>3945.0055000000002</v>
+      </c>
+      <c r="K1582">
+        <v>0</v>
+      </c>
+      <c r="L1582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>41522.494409722225</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1583">
+        <v>1</v>
+      </c>
+      <c r="E1583">
+        <v>6</v>
+      </c>
+      <c r="F1583">
+        <v>1</v>
+      </c>
+      <c r="G1583">
+        <v>3</v>
+      </c>
+      <c r="H1583">
+        <v>9340.0131000000001</v>
+      </c>
+      <c r="I1583">
+        <v>7190.0101000000004</v>
+      </c>
+      <c r="J1583">
+        <v>2285.0032000000001</v>
+      </c>
+      <c r="K1583">
+        <v>0</v>
+      </c>
+      <c r="L1583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>41522.494467592594</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1584">
+        <v>1</v>
+      </c>
+      <c r="E1584">
+        <v>6</v>
+      </c>
+      <c r="F1584">
+        <v>2</v>
+      </c>
+      <c r="G1584">
+        <v>3</v>
+      </c>
+      <c r="H1584">
+        <v>4915.0069000000003</v>
+      </c>
+      <c r="I1584">
+        <v>3105.0043999999998</v>
+      </c>
+      <c r="J1584">
+        <v>3105.0043999999998</v>
+      </c>
+      <c r="K1584">
+        <v>0</v>
+      </c>
+      <c r="L1584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>41522.494513888887</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1585">
+        <v>1</v>
+      </c>
+      <c r="E1585">
+        <v>6</v>
+      </c>
+      <c r="F1585">
+        <v>3</v>
+      </c>
+      <c r="G1585">
+        <v>3</v>
+      </c>
+      <c r="H1585">
+        <v>3585.0050000000001</v>
+      </c>
+      <c r="I1585">
+        <v>2190.0030999999999</v>
+      </c>
+      <c r="J1585">
+        <v>2190.0030999999999</v>
+      </c>
+      <c r="K1585">
+        <v>0</v>
+      </c>
+      <c r="L1585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>41522.495069444441</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1586">
+        <v>3</v>
+      </c>
+      <c r="E1586">
+        <v>1</v>
+      </c>
+      <c r="F1586">
+        <v>1</v>
+      </c>
+      <c r="G1586">
+        <v>1</v>
+      </c>
+      <c r="H1586">
+        <v>33890.047500000001</v>
+      </c>
+      <c r="I1586">
+        <v>20560.0288</v>
+      </c>
+      <c r="J1586">
+        <v>17375.024399999998</v>
+      </c>
+      <c r="K1586">
+        <v>1</v>
+      </c>
+      <c r="L1586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>41522.495254629626</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1587">
+        <v>3</v>
+      </c>
+      <c r="E1587">
+        <v>1</v>
+      </c>
+      <c r="F1587">
+        <v>2</v>
+      </c>
+      <c r="G1587">
+        <v>0</v>
+      </c>
+      <c r="H1587">
+        <v>16610.0232</v>
+      </c>
+      <c r="I1587">
+        <v>14070.019700000001</v>
+      </c>
+      <c r="J1587">
+        <v>12675.0177</v>
+      </c>
+      <c r="K1587">
+        <v>0</v>
+      </c>
+      <c r="L1587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>41522.495428240742</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1588">
+        <v>3</v>
+      </c>
+      <c r="E1588">
+        <v>1</v>
+      </c>
+      <c r="F1588">
+        <v>3</v>
+      </c>
+      <c r="G1588">
+        <v>3</v>
+      </c>
+      <c r="H1588">
+        <v>14870.0208</v>
+      </c>
+      <c r="I1588">
+        <v>12940.018099999999</v>
+      </c>
+      <c r="J1588">
+        <v>8230.0115000000005</v>
+      </c>
+      <c r="K1588">
+        <v>0</v>
+      </c>
+      <c r="L1588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>41522.49560185185</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1589">
+        <v>3</v>
+      </c>
+      <c r="E1589">
+        <v>2</v>
+      </c>
+      <c r="F1589">
+        <v>1</v>
+      </c>
+      <c r="G1589">
+        <v>2</v>
+      </c>
+      <c r="H1589">
+        <v>14975.021000000001</v>
+      </c>
+      <c r="I1589">
+        <v>12515.0175</v>
+      </c>
+      <c r="J1589">
+        <v>8515.0118999999995</v>
+      </c>
+      <c r="K1589">
+        <v>0</v>
+      </c>
+      <c r="L1589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>41522.495729166665</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1590">
+        <v>3</v>
+      </c>
+      <c r="E1590">
+        <v>2</v>
+      </c>
+      <c r="F1590">
+        <v>2</v>
+      </c>
+      <c r="G1590">
+        <v>2</v>
+      </c>
+      <c r="H1590">
+        <v>10405.0146</v>
+      </c>
+      <c r="I1590">
+        <v>8720.0121999999992</v>
+      </c>
+      <c r="J1590">
+        <v>6000.0083999999997</v>
+      </c>
+      <c r="K1590">
+        <v>0</v>
+      </c>
+      <c r="L1590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>41522.495844907404</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1591">
+        <v>3</v>
+      </c>
+      <c r="E1591">
+        <v>2</v>
+      </c>
+      <c r="F1591">
+        <v>3</v>
+      </c>
+      <c r="G1591">
+        <v>2</v>
+      </c>
+      <c r="H1591">
+        <v>10435.0146</v>
+      </c>
+      <c r="I1591">
+        <v>8660.0120999999999</v>
+      </c>
+      <c r="J1591">
+        <v>7890.0110999999997</v>
+      </c>
+      <c r="K1591">
+        <v>0</v>
+      </c>
+      <c r="L1591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>41522.495972222219</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1592">
+        <v>3</v>
+      </c>
+      <c r="E1592">
+        <v>3</v>
+      </c>
+      <c r="F1592">
+        <v>1</v>
+      </c>
+      <c r="G1592">
+        <v>3</v>
+      </c>
+      <c r="H1592">
+        <v>10815.015100000001</v>
+      </c>
+      <c r="I1592">
+        <v>9375.0131000000001</v>
+      </c>
+      <c r="J1592">
+        <v>6455.009</v>
+      </c>
+      <c r="K1592">
+        <v>0</v>
+      </c>
+      <c r="L1592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>41522.49622685185</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1593">
+        <v>3</v>
+      </c>
+      <c r="E1593">
+        <v>3</v>
+      </c>
+      <c r="F1593">
+        <v>2</v>
+      </c>
+      <c r="G1593">
+        <v>3</v>
+      </c>
+      <c r="H1593">
+        <v>22720.031800000001</v>
+      </c>
+      <c r="I1593">
+        <v>20995.029399999999</v>
+      </c>
+      <c r="J1593">
+        <v>7005.0097999999998</v>
+      </c>
+      <c r="K1593">
+        <v>1</v>
+      </c>
+      <c r="L1593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>41522.496331018519</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1594">
+        <v>3</v>
+      </c>
+      <c r="E1594">
+        <v>3</v>
+      </c>
+      <c r="F1594">
+        <v>3</v>
+      </c>
+      <c r="G1594">
+        <v>3</v>
+      </c>
+      <c r="H1594">
+        <v>9005.0126</v>
+      </c>
+      <c r="I1594">
+        <v>7400.0102999999999</v>
+      </c>
+      <c r="J1594">
+        <v>6605.0092000000004</v>
+      </c>
+      <c r="K1594">
+        <v>0</v>
+      </c>
+      <c r="L1594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>41522.496435185189</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1595">
+        <v>3</v>
+      </c>
+      <c r="E1595">
+        <v>4</v>
+      </c>
+      <c r="F1595">
+        <v>1</v>
+      </c>
+      <c r="G1595">
+        <v>0</v>
+      </c>
+      <c r="H1595">
+        <v>8675.0121999999992</v>
+      </c>
+      <c r="I1595">
+        <v>7275.0101999999997</v>
+      </c>
+      <c r="J1595">
+        <v>6295.0087999999996</v>
+      </c>
+      <c r="K1595">
+        <v>0</v>
+      </c>
+      <c r="L1595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>41522.496539351851</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1596">
+        <v>3</v>
+      </c>
+      <c r="E1596">
+        <v>4</v>
+      </c>
+      <c r="F1596">
+        <v>2</v>
+      </c>
+      <c r="G1596">
+        <v>0</v>
+      </c>
+      <c r="H1596">
+        <v>8740.0121999999992</v>
+      </c>
+      <c r="I1596">
+        <v>7115.0099</v>
+      </c>
+      <c r="J1596">
+        <v>6435.009</v>
+      </c>
+      <c r="K1596">
+        <v>0</v>
+      </c>
+      <c r="L1596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>41522.496655092589</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1597">
+        <v>3</v>
+      </c>
+      <c r="E1597">
+        <v>4</v>
+      </c>
+      <c r="F1597">
+        <v>3</v>
+      </c>
+      <c r="G1597">
+        <v>1</v>
+      </c>
+      <c r="H1597">
+        <v>10375.014499999999</v>
+      </c>
+      <c r="I1597">
+        <v>8990.0125000000007</v>
+      </c>
+      <c r="J1597">
+        <v>6760.0093999999999</v>
+      </c>
+      <c r="K1597">
+        <v>0</v>
+      </c>
+      <c r="L1597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>41522.496759259258</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1598">
+        <v>3</v>
+      </c>
+      <c r="E1598">
+        <v>5</v>
+      </c>
+      <c r="F1598">
+        <v>1</v>
+      </c>
+      <c r="G1598">
+        <v>1</v>
+      </c>
+      <c r="H1598">
+        <v>9050.0126999999993</v>
+      </c>
+      <c r="I1598">
+        <v>7635.0106999999998</v>
+      </c>
+      <c r="J1598">
+        <v>5435.0075999999999</v>
+      </c>
+      <c r="K1598">
+        <v>0</v>
+      </c>
+      <c r="L1598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>41522.496851851851</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1599">
+        <v>3</v>
+      </c>
+      <c r="E1599">
+        <v>5</v>
+      </c>
+      <c r="F1599">
+        <v>2</v>
+      </c>
+      <c r="G1599">
+        <v>1</v>
+      </c>
+      <c r="H1599">
+        <v>7560.0105999999996</v>
+      </c>
+      <c r="I1599">
+        <v>5995.0083999999997</v>
+      </c>
+      <c r="J1599">
+        <v>5310.0074000000004</v>
+      </c>
+      <c r="K1599">
+        <v>0</v>
+      </c>
+      <c r="L1599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>41522.496944444443</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1600">
+        <v>3</v>
+      </c>
+      <c r="E1600">
+        <v>5</v>
+      </c>
+      <c r="F1600">
+        <v>3</v>
+      </c>
+      <c r="G1600">
+        <v>2</v>
+      </c>
+      <c r="H1600">
+        <v>7780.0109000000002</v>
+      </c>
+      <c r="I1600">
+        <v>6575.0092000000004</v>
+      </c>
+      <c r="J1600">
+        <v>4395.0061999999998</v>
+      </c>
+      <c r="K1600">
+        <v>0</v>
+      </c>
+      <c r="L1600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>41522.497037037036</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1601">
+        <v>3</v>
+      </c>
+      <c r="E1601">
+        <v>6</v>
+      </c>
+      <c r="F1601">
+        <v>1</v>
+      </c>
+      <c r="G1601">
+        <v>1</v>
+      </c>
+      <c r="H1601">
+        <v>8495.0118999999995</v>
+      </c>
+      <c r="I1601">
+        <v>7270.0101999999997</v>
+      </c>
+      <c r="J1601">
+        <v>5215.0073000000002</v>
+      </c>
+      <c r="K1601">
+        <v>0</v>
+      </c>
+      <c r="L1601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>41522.497141203705</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1602">
+        <v>3</v>
+      </c>
+      <c r="E1602">
+        <v>6</v>
+      </c>
+      <c r="F1602">
+        <v>2</v>
+      </c>
+      <c r="G1602">
+        <v>1</v>
+      </c>
+      <c r="H1602">
+        <v>9070.0126999999993</v>
+      </c>
+      <c r="I1602">
+        <v>7740.0109000000002</v>
+      </c>
+      <c r="J1602">
+        <v>6140.0086000000001</v>
+      </c>
+      <c r="K1602">
+        <v>0</v>
+      </c>
+      <c r="L1602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>41522.497233796297</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1603">
+        <v>3</v>
+      </c>
+      <c r="E1603">
+        <v>6</v>
+      </c>
+      <c r="F1603">
+        <v>3</v>
+      </c>
+      <c r="G1603">
+        <v>1</v>
+      </c>
+      <c r="H1603">
+        <v>7530.0105000000003</v>
+      </c>
+      <c r="I1603">
+        <v>5870.0082000000002</v>
+      </c>
+      <c r="J1603">
+        <v>5270.0074000000004</v>
+      </c>
+      <c r="K1603">
+        <v>0</v>
+      </c>
+      <c r="L1603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>41522.497662037036</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1604">
+        <v>2</v>
+      </c>
+      <c r="E1604">
+        <v>1</v>
+      </c>
+      <c r="F1604">
+        <v>1</v>
+      </c>
+      <c r="G1604">
+        <v>2</v>
+      </c>
+      <c r="H1604">
+        <v>21040.029399999999</v>
+      </c>
+      <c r="I1604">
+        <v>19600.027399999999</v>
+      </c>
+      <c r="J1604">
+        <v>4655.0065000000004</v>
+      </c>
+      <c r="K1604">
+        <v>1</v>
+      </c>
+      <c r="L1604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>41522.497777777775</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1605">
+        <v>2</v>
+      </c>
+      <c r="E1605">
+        <v>1</v>
+      </c>
+      <c r="F1605">
+        <v>2</v>
+      </c>
+      <c r="G1605">
+        <v>1</v>
+      </c>
+      <c r="H1605">
+        <v>10150.0142</v>
+      </c>
+      <c r="I1605">
+        <v>6450.009</v>
+      </c>
+      <c r="J1605">
+        <v>6450.009</v>
+      </c>
+      <c r="K1605">
+        <v>1</v>
+      </c>
+      <c r="L1605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>41522.49795138889</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1606">
+        <v>2</v>
+      </c>
+      <c r="E1606">
+        <v>1</v>
+      </c>
+      <c r="F1606">
+        <v>3</v>
+      </c>
+      <c r="G1606">
+        <v>2</v>
+      </c>
+      <c r="H1606">
+        <v>14590.020399999999</v>
+      </c>
+      <c r="I1606">
+        <v>13040.0182</v>
+      </c>
+      <c r="J1606">
+        <v>13040.0182</v>
+      </c>
+      <c r="K1606">
+        <v>1</v>
+      </c>
+      <c r="L1606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>41522.498078703706</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1607">
+        <v>2</v>
+      </c>
+      <c r="E1607">
+        <v>2</v>
+      </c>
+      <c r="F1607">
+        <v>1</v>
+      </c>
+      <c r="G1607">
+        <v>0</v>
+      </c>
+      <c r="H1607">
+        <v>11760.0164</v>
+      </c>
+      <c r="I1607">
+        <v>10405.0146</v>
+      </c>
+      <c r="J1607">
+        <v>4560.0064000000002</v>
+      </c>
+      <c r="K1607">
+        <v>0</v>
+      </c>
+      <c r="L1607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>41522.498240740744</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1608">
+        <v>2</v>
+      </c>
+      <c r="E1608">
+        <v>2</v>
+      </c>
+      <c r="F1608">
+        <v>2</v>
+      </c>
+      <c r="G1608">
+        <v>0</v>
+      </c>
+      <c r="H1608">
+        <v>13845.019399999999</v>
+      </c>
+      <c r="I1608">
+        <v>12650.0177</v>
+      </c>
+      <c r="J1608">
+        <v>12650.0177</v>
+      </c>
+      <c r="K1608">
+        <v>1</v>
+      </c>
+      <c r="L1608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>41522.498356481483</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1609">
+        <v>2</v>
+      </c>
+      <c r="E1609">
+        <v>2</v>
+      </c>
+      <c r="F1609">
+        <v>3</v>
+      </c>
+      <c r="G1609">
+        <v>0</v>
+      </c>
+      <c r="H1609">
+        <v>9310.0130000000008</v>
+      </c>
+      <c r="I1609">
+        <v>8045.0111999999999</v>
+      </c>
+      <c r="J1609">
+        <v>8045.0111999999999</v>
+      </c>
+      <c r="K1609">
+        <v>1</v>
+      </c>
+      <c r="L1609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>41522.498425925929</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1610">
+        <v>2</v>
+      </c>
+      <c r="E1610">
+        <v>3</v>
+      </c>
+      <c r="F1610">
+        <v>1</v>
+      </c>
+      <c r="G1610">
+        <v>0</v>
+      </c>
+      <c r="H1610">
+        <v>6045.0084999999999</v>
+      </c>
+      <c r="I1610">
+        <v>4590.0064000000002</v>
+      </c>
+      <c r="J1610">
+        <v>2360.0032999999999</v>
+      </c>
+      <c r="K1610">
+        <v>0</v>
+      </c>
+      <c r="L1610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>41522.498622685183</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1611">
+        <v>2</v>
+      </c>
+      <c r="E1611">
+        <v>3</v>
+      </c>
+      <c r="F1611">
+        <v>2</v>
+      </c>
+      <c r="G1611">
+        <v>2</v>
+      </c>
+      <c r="H1611">
+        <v>17320.0242</v>
+      </c>
+      <c r="I1611">
+        <v>12910.018</v>
+      </c>
+      <c r="J1611">
+        <v>12910.018</v>
+      </c>
+      <c r="K1611">
+        <v>1</v>
+      </c>
+      <c r="L1611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>41522.498692129629</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1612">
+        <v>2</v>
+      </c>
+      <c r="E1612">
+        <v>3</v>
+      </c>
+      <c r="F1612">
+        <v>3</v>
+      </c>
+      <c r="G1612">
+        <v>0</v>
+      </c>
+      <c r="H1612">
+        <v>6245.0087999999996</v>
+      </c>
+      <c r="I1612">
+        <v>5055.0070999999998</v>
+      </c>
+      <c r="J1612">
+        <v>5055.0070999999998</v>
+      </c>
+      <c r="K1612">
+        <v>1</v>
+      </c>
+      <c r="L1612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1613" s="1">
+        <v>41522.498773148145</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1613">
+        <v>2</v>
+      </c>
+      <c r="E1613">
+        <v>4</v>
+      </c>
+      <c r="F1613">
+        <v>1</v>
+      </c>
+      <c r="G1613">
+        <v>1</v>
+      </c>
+      <c r="H1613">
+        <v>7150.01</v>
+      </c>
+      <c r="I1613">
+        <v>5905.0083000000004</v>
+      </c>
+      <c r="J1613">
+        <v>2655.0037000000002</v>
+      </c>
+      <c r="K1613">
+        <v>0</v>
+      </c>
+      <c r="L1613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1614" s="1">
+        <v>41522.498831018522</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1614">
+        <v>2</v>
+      </c>
+      <c r="E1614">
+        <v>4</v>
+      </c>
+      <c r="F1614">
+        <v>2</v>
+      </c>
+      <c r="G1614">
+        <v>1</v>
+      </c>
+      <c r="H1614">
+        <v>4700.0065999999997</v>
+      </c>
+      <c r="I1614">
+        <v>3105.0043999999998</v>
+      </c>
+      <c r="J1614">
+        <v>3105.0043999999998</v>
+      </c>
+      <c r="K1614">
+        <v>0</v>
+      </c>
+      <c r="L1614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1615" s="1">
+        <v>41522.498969907407</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1615">
+        <v>2</v>
+      </c>
+      <c r="E1615">
+        <v>4</v>
+      </c>
+      <c r="F1615">
+        <v>3</v>
+      </c>
+      <c r="G1615">
+        <v>2</v>
+      </c>
+      <c r="H1615">
+        <v>12010.016799999999</v>
+      </c>
+      <c r="I1615">
+        <v>10915.015299999999</v>
+      </c>
+      <c r="J1615">
+        <v>10915.015299999999</v>
+      </c>
+      <c r="K1615">
+        <v>1</v>
+      </c>
+      <c r="L1615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1616" s="1">
+        <v>41522.499062499999</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1616">
+        <v>2</v>
+      </c>
+      <c r="E1616">
+        <v>5</v>
+      </c>
+      <c r="F1616">
+        <v>1</v>
+      </c>
+      <c r="G1616">
+        <v>2</v>
+      </c>
+      <c r="H1616">
+        <v>7600.0105999999996</v>
+      </c>
+      <c r="I1616">
+        <v>6320.0087999999996</v>
+      </c>
+      <c r="J1616">
+        <v>2450.0034000000001</v>
+      </c>
+      <c r="K1616">
+        <v>0</v>
+      </c>
+      <c r="L1616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1617" s="1">
+        <v>41522.499143518522</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1617">
+        <v>2</v>
+      </c>
+      <c r="E1617">
+        <v>5</v>
+      </c>
+      <c r="F1617">
+        <v>2</v>
+      </c>
+      <c r="G1617">
+        <v>0</v>
+      </c>
+      <c r="H1617">
+        <v>6890.0096999999996</v>
+      </c>
+      <c r="I1617">
+        <v>5710.0079999999998</v>
+      </c>
+      <c r="J1617">
+        <v>5710.0079999999998</v>
+      </c>
+      <c r="K1617">
+        <v>1</v>
+      </c>
+      <c r="L1617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1618" s="1">
+        <v>41522.499189814815</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1618">
+        <v>2</v>
+      </c>
+      <c r="E1618">
+        <v>5</v>
+      </c>
+      <c r="F1618">
+        <v>3</v>
+      </c>
+      <c r="G1618">
+        <v>0</v>
+      </c>
+      <c r="H1618">
+        <v>4850.0068000000001</v>
+      </c>
+      <c r="I1618">
+        <v>2860.0039999999999</v>
+      </c>
+      <c r="J1618">
+        <v>2860.0039999999999</v>
+      </c>
+      <c r="K1618">
+        <v>0</v>
+      </c>
+      <c r="L1618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1619" s="1">
+        <v>41522.499305555553</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1619">
+        <v>2</v>
+      </c>
+      <c r="E1619">
+        <v>6</v>
+      </c>
+      <c r="F1619">
+        <v>1</v>
+      </c>
+      <c r="G1619">
+        <v>2</v>
+      </c>
+      <c r="H1619">
+        <v>9505.0133000000005</v>
+      </c>
+      <c r="I1619">
+        <v>8565.0120000000006</v>
+      </c>
+      <c r="J1619">
+        <v>2750.0039000000002</v>
+      </c>
+      <c r="K1619">
+        <v>0</v>
+      </c>
+      <c r="L1619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1620" s="1">
+        <v>41522.499351851853</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1620">
+        <v>2</v>
+      </c>
+      <c r="E1620">
+        <v>6</v>
+      </c>
+      <c r="F1620">
+        <v>2</v>
+      </c>
+      <c r="G1620">
+        <v>2</v>
+      </c>
+      <c r="H1620">
+        <v>4065.0057000000002</v>
+      </c>
+      <c r="I1620">
+        <v>2330.0032999999999</v>
+      </c>
+      <c r="J1620">
+        <v>2330.0032999999999</v>
+      </c>
+      <c r="K1620">
+        <v>0</v>
+      </c>
+      <c r="L1620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1621" s="1">
+        <v>41522.499386574076</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1621">
+        <v>2</v>
+      </c>
+      <c r="E1621">
+        <v>6</v>
+      </c>
+      <c r="F1621">
+        <v>3</v>
+      </c>
+      <c r="G1621">
+        <v>2</v>
+      </c>
+      <c r="H1621">
+        <v>3380.0047</v>
+      </c>
+      <c r="I1621">
+        <v>2510.0034999999998</v>
+      </c>
+      <c r="J1621">
+        <v>2510.0034999999998</v>
+      </c>
+      <c r="K1621">
+        <v>0</v>
+      </c>
+      <c r="L1621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1622" s="1">
+        <v>41522.499641203707</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1622">
+        <v>2</v>
+      </c>
+      <c r="E1622">
+        <v>1</v>
+      </c>
+      <c r="F1622">
+        <v>1</v>
+      </c>
+      <c r="G1622">
+        <v>0</v>
+      </c>
+      <c r="H1622">
+        <v>15405.0216</v>
+      </c>
+      <c r="I1622">
+        <v>63513979169612.898</v>
+      </c>
+      <c r="J1622">
+        <v>8670.0120999999999</v>
+      </c>
+      <c r="K1622">
+        <v>0</v>
+      </c>
+      <c r="L1622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1623" s="1">
+        <v>41522.499768518515</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1623">
+        <v>2</v>
+      </c>
+      <c r="E1623">
+        <v>1</v>
+      </c>
+      <c r="F1623">
+        <v>2</v>
+      </c>
+      <c r="G1623">
+        <v>2</v>
+      </c>
+      <c r="H1623">
+        <v>11100.015600000001</v>
+      </c>
+      <c r="I1623">
+        <v>9505.0133999999998</v>
+      </c>
+      <c r="J1623">
+        <v>7130.01</v>
+      </c>
+      <c r="K1623">
+        <v>0</v>
+      </c>
+      <c r="L1623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1624" s="1">
+        <v>41522.499861111108</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1624">
+        <v>2</v>
+      </c>
+      <c r="E1624">
+        <v>1</v>
+      </c>
+      <c r="F1624">
+        <v>3</v>
+      </c>
+      <c r="G1624">
+        <v>2</v>
+      </c>
+      <c r="H1624">
+        <v>8255.0115000000005</v>
+      </c>
+      <c r="I1624">
+        <v>5760.0081</v>
+      </c>
+      <c r="J1624">
+        <v>5195.0073000000002</v>
+      </c>
+      <c r="K1624">
+        <v>0</v>
+      </c>
+      <c r="L1624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>41522.499976851854</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1625">
+        <v>2</v>
+      </c>
+      <c r="E1625">
+        <v>2</v>
+      </c>
+      <c r="F1625">
+        <v>1</v>
+      </c>
+      <c r="G1625">
+        <v>3</v>
+      </c>
+      <c r="H1625">
+        <v>9060.0126999999993</v>
+      </c>
+      <c r="I1625">
+        <v>7720.0108</v>
+      </c>
+      <c r="J1625">
+        <v>5730.0079999999998</v>
+      </c>
+      <c r="K1625">
+        <v>0</v>
+      </c>
+      <c r="L1625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>41522.5000462963</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1626">
+        <v>2</v>
+      </c>
+      <c r="E1626">
+        <v>2</v>
+      </c>
+      <c r="F1626">
+        <v>2</v>
+      </c>
+      <c r="G1626">
+        <v>3</v>
+      </c>
+      <c r="H1626">
+        <v>6795.0095000000001</v>
+      </c>
+      <c r="I1626">
+        <v>5315.0074000000004</v>
+      </c>
+      <c r="J1626">
+        <v>4755.0065999999997</v>
+      </c>
+      <c r="K1626">
+        <v>0</v>
+      </c>
+      <c r="L1626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>41522.500138888892</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1627">
+        <v>2</v>
+      </c>
+      <c r="E1627">
+        <v>2</v>
+      </c>
+      <c r="F1627">
+        <v>3</v>
+      </c>
+      <c r="G1627">
+        <v>1</v>
+      </c>
+      <c r="H1627">
+        <v>7650.0106999999998</v>
+      </c>
+      <c r="I1627">
+        <v>6465.009</v>
+      </c>
+      <c r="J1627">
+        <v>4920.0069000000003</v>
+      </c>
+      <c r="K1627">
+        <v>0</v>
+      </c>
+      <c r="L1627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>41522.500243055554</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1628">
+        <v>2</v>
+      </c>
+      <c r="E1628">
+        <v>3</v>
+      </c>
+      <c r="F1628">
+        <v>1</v>
+      </c>
+      <c r="G1628">
+        <v>3</v>
+      </c>
+      <c r="H1628">
+        <v>9270.0130000000008</v>
+      </c>
+      <c r="I1628">
+        <v>8135.0114000000003</v>
+      </c>
+      <c r="J1628">
+        <v>4710.0065999999997</v>
+      </c>
+      <c r="K1628">
+        <v>0</v>
+      </c>
+      <c r="L1628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>41522.500347222223</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1629">
+        <v>2</v>
+      </c>
+      <c r="E1629">
+        <v>3</v>
+      </c>
+      <c r="F1629">
+        <v>2</v>
+      </c>
+      <c r="G1629">
+        <v>2</v>
+      </c>
+      <c r="H1629">
+        <v>8270.0115999999998</v>
+      </c>
+      <c r="I1629">
+        <v>7205.0101000000004</v>
+      </c>
+      <c r="J1629">
+        <v>4585.0064000000002</v>
+      </c>
+      <c r="K1629">
+        <v>0</v>
+      </c>
+      <c r="L1629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>41522.500428240739</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1630">
+        <v>2</v>
+      </c>
+      <c r="E1630">
+        <v>3</v>
+      </c>
+      <c r="F1630">
+        <v>3</v>
+      </c>
+      <c r="G1630">
+        <v>3</v>
+      </c>
+      <c r="H1630">
+        <v>7560.0105999999996</v>
+      </c>
+      <c r="I1630">
+        <v>5965.0083999999997</v>
+      </c>
+      <c r="J1630">
+        <v>5400.0075999999999</v>
+      </c>
+      <c r="K1630">
+        <v>0</v>
+      </c>
+      <c r="L1630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>41522.500509259262</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1631">
+        <v>2</v>
+      </c>
+      <c r="E1631">
+        <v>4</v>
+      </c>
+      <c r="F1631">
+        <v>1</v>
+      </c>
+      <c r="G1631">
+        <v>3</v>
+      </c>
+      <c r="H1631">
+        <v>7365.0102999999999</v>
+      </c>
+      <c r="I1631">
+        <v>6335.0088999999998</v>
+      </c>
+      <c r="J1631">
+        <v>4305.0060000000003</v>
+      </c>
+      <c r="K1631">
+        <v>0</v>
+      </c>
+      <c r="L1631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>41522.500590277778</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1632">
+        <v>2</v>
+      </c>
+      <c r="E1632">
+        <v>4</v>
+      </c>
+      <c r="F1632">
+        <v>2</v>
+      </c>
+      <c r="G1632">
+        <v>3</v>
+      </c>
+      <c r="H1632">
+        <v>6650.0092999999997</v>
+      </c>
+      <c r="I1632">
+        <v>5585.0078000000003</v>
+      </c>
+      <c r="J1632">
+        <v>5145.0072</v>
+      </c>
+      <c r="K1632">
+        <v>0</v>
+      </c>
+      <c r="L1632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>41522.500671296293</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1633">
+        <v>2</v>
+      </c>
+      <c r="E1633">
+        <v>4</v>
+      </c>
+      <c r="F1633">
+        <v>3</v>
+      </c>
+      <c r="G1633">
+        <v>3</v>
+      </c>
+      <c r="H1633">
+        <v>6945.0096999999996</v>
+      </c>
+      <c r="I1633">
+        <v>5730.0079999999998</v>
+      </c>
+      <c r="J1633">
+        <v>5235.0073000000002</v>
+      </c>
+      <c r="K1633">
+        <v>0</v>
+      </c>
+      <c r="L1633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>41522.500763888886</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1634">
+        <v>2</v>
+      </c>
+      <c r="E1634">
+        <v>5</v>
+      </c>
+      <c r="F1634">
+        <v>1</v>
+      </c>
+      <c r="G1634">
+        <v>2</v>
+      </c>
+      <c r="H1634">
+        <v>7575.0105999999996</v>
+      </c>
+      <c r="I1634">
+        <v>6405.009</v>
+      </c>
+      <c r="J1634">
+        <v>4665.0065000000004</v>
+      </c>
+      <c r="K1634">
+        <v>0</v>
+      </c>
+      <c r="L1634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>41522.500833333332</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1635">
+        <v>2</v>
+      </c>
+      <c r="E1635">
+        <v>5</v>
+      </c>
+      <c r="F1635">
+        <v>2</v>
+      </c>
+      <c r="G1635">
+        <v>0</v>
+      </c>
+      <c r="H1635">
+        <v>6740.0095000000001</v>
+      </c>
+      <c r="I1635">
+        <v>5645.0079999999998</v>
+      </c>
+      <c r="J1635">
+        <v>4995.0069999999996</v>
+      </c>
+      <c r="K1635">
+        <v>0</v>
+      </c>
+      <c r="L1635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>41522.500902777778</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1636">
+        <v>2</v>
+      </c>
+      <c r="E1636">
+        <v>5</v>
+      </c>
+      <c r="F1636">
+        <v>3</v>
+      </c>
+      <c r="G1636">
+        <v>0</v>
+      </c>
+      <c r="H1636">
+        <v>6070.0084999999999</v>
+      </c>
+      <c r="I1636">
+        <v>4915.0069000000003</v>
+      </c>
+      <c r="J1636">
+        <v>4430.0063</v>
+      </c>
+      <c r="K1636">
+        <v>0</v>
+      </c>
+      <c r="L1636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>41522.50099537037</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1637">
+        <v>2</v>
+      </c>
+      <c r="E1637">
+        <v>6</v>
+      </c>
+      <c r="F1637">
+        <v>1</v>
+      </c>
+      <c r="G1637">
+        <v>3</v>
+      </c>
+      <c r="H1637">
+        <v>7955.0110999999997</v>
+      </c>
+      <c r="I1637">
+        <v>6870.0096000000003</v>
+      </c>
+      <c r="J1637">
+        <v>4315.0060999999996</v>
+      </c>
+      <c r="K1637">
+        <v>0</v>
+      </c>
+      <c r="L1637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>41522.501064814816</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1638">
+        <v>2</v>
+      </c>
+      <c r="E1638">
+        <v>6</v>
+      </c>
+      <c r="F1638">
+        <v>2</v>
+      </c>
+      <c r="G1638">
+        <v>3</v>
+      </c>
+      <c r="H1638">
+        <v>6070.0084999999999</v>
+      </c>
+      <c r="I1638">
+        <v>4740.0066999999999</v>
+      </c>
+      <c r="J1638">
+        <v>4270.0060000000003</v>
+      </c>
+      <c r="K1638">
+        <v>0</v>
+      </c>
+      <c r="L1638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>41522.501145833332</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1639">
+        <v>2</v>
+      </c>
+      <c r="E1639">
+        <v>6</v>
+      </c>
+      <c r="F1639">
+        <v>3</v>
+      </c>
+      <c r="G1639">
+        <v>3</v>
+      </c>
+      <c r="H1639">
+        <v>6385.0088999999998</v>
+      </c>
+      <c r="I1639">
+        <v>5425.0075999999999</v>
+      </c>
+      <c r="J1639">
+        <v>5010.0069999999996</v>
+      </c>
+      <c r="K1639">
+        <v>0</v>
+      </c>
+      <c r="L1639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>41522.501655092594</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1640">
+        <v>3</v>
+      </c>
+      <c r="E1640">
+        <v>1</v>
+      </c>
+      <c r="F1640">
+        <v>1</v>
+      </c>
+      <c r="G1640">
+        <v>0</v>
+      </c>
+      <c r="H1640">
+        <v>35385.049599999998</v>
+      </c>
+      <c r="I1640">
+        <v>30060.042099999999</v>
+      </c>
+      <c r="J1640">
+        <v>6445.0091000000002</v>
+      </c>
+      <c r="K1640">
+        <v>2</v>
+      </c>
+      <c r="L1640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>41522.501840277779</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1641">
+        <v>3</v>
+      </c>
+      <c r="E1641">
+        <v>1</v>
+      </c>
+      <c r="F1641">
+        <v>2</v>
+      </c>
+      <c r="G1641">
+        <v>3</v>
+      </c>
+      <c r="H1641">
+        <v>15980.022300000001</v>
+      </c>
+      <c r="I1641">
+        <v>14640.020500000001</v>
+      </c>
+      <c r="J1641">
+        <v>14640.020500000001</v>
+      </c>
+      <c r="K1641">
+        <v>1</v>
+      </c>
+      <c r="L1641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>41522.501909722225</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1642">
+        <v>3</v>
+      </c>
+      <c r="E1642">
+        <v>1</v>
+      </c>
+      <c r="F1642">
+        <v>3</v>
+      </c>
+      <c r="G1642">
+        <v>0</v>
+      </c>
+      <c r="H1642">
+        <v>6675.0093999999999</v>
+      </c>
+      <c r="I1642">
+        <v>5515.0078000000003</v>
+      </c>
+      <c r="J1642">
+        <v>5515.0078000000003</v>
+      </c>
+      <c r="K1642">
+        <v>1</v>
+      </c>
+      <c r="L1642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>41522.502013888887</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1643">
+        <v>3</v>
+      </c>
+      <c r="E1643">
+        <v>2</v>
+      </c>
+      <c r="F1643">
+        <v>1</v>
+      </c>
+      <c r="G1643">
+        <v>3</v>
+      </c>
+      <c r="H1643">
+        <v>8980.0125000000007</v>
+      </c>
+      <c r="I1643">
+        <v>7795.0109000000002</v>
+      </c>
+      <c r="J1643">
+        <v>2335.0032000000001</v>
+      </c>
+      <c r="K1643">
+        <v>0</v>
+      </c>
+      <c r="L1643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>41522.502060185187</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1644">
+        <v>3</v>
+      </c>
+      <c r="E1644">
+        <v>2</v>
+      </c>
+      <c r="F1644">
+        <v>2</v>
+      </c>
+      <c r="G1644">
+        <v>3</v>
+      </c>
+      <c r="H1644">
+        <v>3530.0050000000001</v>
+      </c>
+      <c r="I1644">
+        <v>2525.0036</v>
+      </c>
+      <c r="J1644">
+        <v>2525.0036</v>
+      </c>
+      <c r="K1644">
+        <v>0</v>
+      </c>
+      <c r="L1644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>41522.502141203702</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1645">
+        <v>3</v>
+      </c>
+      <c r="E1645">
+        <v>2</v>
+      </c>
+      <c r="F1645">
+        <v>3</v>
+      </c>
+      <c r="G1645">
+        <v>1</v>
+      </c>
+      <c r="H1645">
+        <v>7575.0105999999996</v>
+      </c>
+      <c r="I1645">
+        <v>6700.0093999999999</v>
+      </c>
+      <c r="J1645">
+        <v>6700.0093999999999</v>
+      </c>
+      <c r="K1645">
+        <v>1</v>
+      </c>
+      <c r="L1645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1646" s="1">
+        <v>41522.502245370371</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1646">
+        <v>3</v>
+      </c>
+      <c r="E1646">
+        <v>3</v>
+      </c>
+      <c r="F1646">
+        <v>1</v>
+      </c>
+      <c r="G1646">
+        <v>1</v>
+      </c>
+      <c r="H1646">
+        <v>9160.0128000000004</v>
+      </c>
+      <c r="I1646">
+        <v>8060.0113000000001</v>
+      </c>
+      <c r="J1646">
+        <v>2400.0032999999999</v>
+      </c>
+      <c r="K1646">
+        <v>0</v>
+      </c>
+      <c r="L1646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1647" s="1">
+        <v>41522.502291666664</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1647">
+        <v>3</v>
+      </c>
+      <c r="E1647">
+        <v>3</v>
+      </c>
+      <c r="F1647">
+        <v>2</v>
+      </c>
+      <c r="G1647">
+        <v>1</v>
+      </c>
+      <c r="H1647">
+        <v>3170.0045</v>
+      </c>
+      <c r="I1647">
+        <v>2130.0030000000002</v>
+      </c>
+      <c r="J1647">
+        <v>2130.0030000000002</v>
+      </c>
+      <c r="K1647">
+        <v>0</v>
+      </c>
+      <c r="L1647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1648" s="1">
+        <v>41522.502372685187</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1648">
+        <v>3</v>
+      </c>
+      <c r="E1648">
+        <v>3</v>
+      </c>
+      <c r="F1648">
+        <v>3</v>
+      </c>
+      <c r="G1648">
+        <v>1</v>
+      </c>
+      <c r="H1648">
+        <v>7210.01</v>
+      </c>
+      <c r="I1648">
+        <v>6340.0087999999996</v>
+      </c>
+      <c r="J1648">
+        <v>6340.0087999999996</v>
+      </c>
+      <c r="K1648">
+        <v>1</v>
+      </c>
+      <c r="L1648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1649" s="1">
+        <v>41522.502418981479</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1649">
+        <v>3</v>
+      </c>
+      <c r="E1649">
+        <v>4</v>
+      </c>
+      <c r="F1649">
+        <v>1</v>
+      </c>
+      <c r="G1649">
+        <v>0</v>
+      </c>
+      <c r="H1649">
+        <v>4130.0056999999997</v>
+      </c>
+      <c r="I1649">
+        <v>3075.0043000000001</v>
+      </c>
+      <c r="J1649">
+        <v>2200.0030000000002</v>
+      </c>
+      <c r="K1649">
+        <v>0</v>
+      </c>
+      <c r="L1649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1650" s="1">
+        <v>41522.502534722225</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1650">
+        <v>3</v>
+      </c>
+      <c r="E1650">
+        <v>4</v>
+      </c>
+      <c r="F1650">
+        <v>2</v>
+      </c>
+      <c r="G1650">
+        <v>3</v>
+      </c>
+      <c r="H1650">
+        <v>10140.0142</v>
+      </c>
+      <c r="I1650">
+        <v>9220.0128999999997</v>
+      </c>
+      <c r="J1650">
+        <v>9220.0128999999997</v>
+      </c>
+      <c r="K1650">
+        <v>2</v>
+      </c>
+      <c r="L1650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1651" s="1">
+        <v>41522.502604166664</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1651">
+        <v>3</v>
+      </c>
+      <c r="E1651">
+        <v>4</v>
+      </c>
+      <c r="F1651">
+        <v>3</v>
+      </c>
+      <c r="G1651">
+        <v>0</v>
+      </c>
+      <c r="H1651">
+        <v>5625.0078999999996</v>
+      </c>
+      <c r="I1651">
+        <v>4745.0065999999997</v>
+      </c>
+      <c r="J1651">
+        <v>4745.0065999999997</v>
+      </c>
+      <c r="K1651">
+        <v>1</v>
+      </c>
+      <c r="L1651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1652" s="1">
+        <v>41522.502696759257</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1652">
+        <v>3</v>
+      </c>
+      <c r="E1652">
+        <v>5</v>
+      </c>
+      <c r="F1652">
+        <v>1</v>
+      </c>
+      <c r="G1652">
+        <v>1</v>
+      </c>
+      <c r="H1652">
+        <v>8440.0118000000002</v>
+      </c>
+      <c r="I1652">
+        <v>7485.0105000000003</v>
+      </c>
+      <c r="J1652">
+        <v>2710.0038</v>
+      </c>
+      <c r="K1652">
+        <v>0</v>
+      </c>
+      <c r="L1652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1653" s="1">
+        <v>41522.50277777778</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1653">
+        <v>3</v>
+      </c>
+      <c r="E1653">
+        <v>5</v>
+      </c>
+      <c r="F1653">
+        <v>2</v>
+      </c>
+      <c r="G1653">
+        <v>1</v>
+      </c>
+      <c r="H1653">
+        <v>6560.0092000000004</v>
+      </c>
+      <c r="I1653">
+        <v>5445.0075999999999</v>
+      </c>
+      <c r="J1653">
+        <v>5445.0075999999999</v>
+      </c>
+      <c r="K1653">
+        <v>1</v>
+      </c>
+      <c r="L1653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1654" s="1">
+        <v>41522.502847222226</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1654">
+        <v>3</v>
+      </c>
+      <c r="E1654">
+        <v>5</v>
+      </c>
+      <c r="F1654">
+        <v>3</v>
+      </c>
+      <c r="G1654">
+        <v>1</v>
+      </c>
+      <c r="H1654">
+        <v>6630.0092999999997</v>
+      </c>
+      <c r="I1654">
+        <v>2375.0032999999999</v>
+      </c>
+      <c r="J1654">
+        <v>2375.0032999999999</v>
+      </c>
+      <c r="K1654">
+        <v>0</v>
+      </c>
+      <c r="L1654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1655" s="1">
+        <v>41522.502928240741</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1655">
+        <v>3</v>
+      </c>
+      <c r="E1655">
+        <v>6</v>
+      </c>
+      <c r="F1655">
+        <v>1</v>
+      </c>
+      <c r="G1655">
+        <v>2</v>
+      </c>
+      <c r="H1655">
+        <v>6395.009</v>
+      </c>
+      <c r="I1655">
+        <v>5175.0073000000002</v>
+      </c>
+      <c r="J1655">
+        <v>2520.0036</v>
+      </c>
+      <c r="K1655">
+        <v>0</v>
+      </c>
+      <c r="L1655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1656" s="1">
+        <v>41522.503020833334</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1656">
+        <v>3</v>
+      </c>
+      <c r="E1656">
+        <v>6</v>
+      </c>
+      <c r="F1656">
+        <v>2</v>
+      </c>
+      <c r="G1656">
+        <v>1</v>
+      </c>
+      <c r="H1656">
+        <v>8485.0118000000002</v>
+      </c>
+      <c r="I1656">
+        <v>7355.0102999999999</v>
+      </c>
+      <c r="J1656">
+        <v>7355.0102999999999</v>
+      </c>
+      <c r="K1656">
+        <v>1</v>
+      </c>
+      <c r="L1656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1657" s="1">
+        <v>41522.503125000003</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1657">
+        <v>3</v>
+      </c>
+      <c r="E1657">
+        <v>6</v>
+      </c>
+      <c r="F1657">
+        <v>3</v>
+      </c>
+      <c r="G1657">
+        <v>2</v>
+      </c>
+      <c r="H1657">
+        <v>8870.0125000000007</v>
+      </c>
+      <c r="I1657">
+        <v>7725.0109000000002</v>
+      </c>
+      <c r="J1657">
+        <v>7725.0109000000002</v>
+      </c>
+      <c r="K1657">
+        <v>1</v>
+      </c>
+      <c r="L1657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>41522.503344907411</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1658">
+        <v>1</v>
+      </c>
+      <c r="E1658">
+        <v>1</v>
+      </c>
+      <c r="F1658">
+        <v>1</v>
+      </c>
+      <c r="G1658">
+        <v>0</v>
+      </c>
+      <c r="H1658">
+        <v>11520.016100000001</v>
+      </c>
+      <c r="I1658">
+        <v>63513979489518.297</v>
+      </c>
+      <c r="J1658">
+        <v>5835.0082000000002</v>
+      </c>
+      <c r="K1658">
+        <v>0</v>
+      </c>
+      <c r="L1658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>41522.503425925926</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1659">
+        <v>1</v>
+      </c>
+      <c r="E1659">
+        <v>1</v>
+      </c>
+      <c r="F1659">
+        <v>2</v>
+      </c>
+      <c r="G1659">
+        <v>0</v>
+      </c>
+      <c r="H1659">
+        <v>7025.0097999999998</v>
+      </c>
+      <c r="I1659">
+        <v>5130.0072</v>
+      </c>
+      <c r="J1659">
+        <v>4440.0061999999998</v>
+      </c>
+      <c r="K1659">
+        <v>0</v>
+      </c>
+      <c r="L1659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>41522.503518518519</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1660">
+        <v>1</v>
+      </c>
+      <c r="E1660">
+        <v>1</v>
+      </c>
+      <c r="F1660">
+        <v>3</v>
+      </c>
+      <c r="G1660">
+        <v>0</v>
+      </c>
+      <c r="H1660">
+        <v>7505.0105000000003</v>
+      </c>
+      <c r="I1660">
+        <v>6535.0091000000002</v>
+      </c>
+      <c r="J1660">
+        <v>6050.0083999999997</v>
+      </c>
+      <c r="K1660">
+        <v>0</v>
+      </c>
+      <c r="L1660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>41522.503599537034</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1661">
+        <v>1</v>
+      </c>
+      <c r="E1661">
+        <v>2</v>
+      </c>
+      <c r="F1661">
+        <v>1</v>
+      </c>
+      <c r="G1661">
+        <v>1</v>
+      </c>
+      <c r="H1661">
+        <v>7280.0101999999997</v>
+      </c>
+      <c r="I1661">
+        <v>6215.0087000000003</v>
+      </c>
+      <c r="J1661">
+        <v>4770.0066999999999</v>
+      </c>
+      <c r="K1661">
+        <v>0</v>
+      </c>
+      <c r="L1661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>41522.503692129627</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1662">
+        <v>1</v>
+      </c>
+      <c r="E1662">
+        <v>2</v>
+      </c>
+      <c r="F1662">
+        <v>2</v>
+      </c>
+      <c r="G1662">
+        <v>1</v>
+      </c>
+      <c r="H1662">
+        <v>8620.0120999999999</v>
+      </c>
+      <c r="I1662">
+        <v>7630.0106999999998</v>
+      </c>
+      <c r="J1662">
+        <v>6210.0087000000003</v>
+      </c>
+      <c r="K1662">
+        <v>0</v>
+      </c>
+      <c r="L1662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>41522.50377314815</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1663">
+        <v>1</v>
+      </c>
+      <c r="E1663">
+        <v>2</v>
+      </c>
+      <c r="F1663">
+        <v>3</v>
+      </c>
+      <c r="G1663">
+        <v>1</v>
+      </c>
+      <c r="H1663">
+        <v>6190.0087000000003</v>
+      </c>
+      <c r="I1663">
+        <v>5320.0074999999997</v>
+      </c>
+      <c r="J1663">
+        <v>4235.0060000000003</v>
+      </c>
+      <c r="K1663">
+        <v>0</v>
+      </c>
+      <c r="L1663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>41522.503865740742</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1664">
+        <v>1</v>
+      </c>
+      <c r="E1664">
+        <v>3</v>
+      </c>
+      <c r="F1664">
+        <v>1</v>
+      </c>
+      <c r="G1664">
+        <v>2</v>
+      </c>
+      <c r="H1664">
+        <v>8685.0120999999999</v>
+      </c>
+      <c r="I1664">
+        <v>7505.0105000000003</v>
+      </c>
+      <c r="J1664">
+        <v>5380.0074999999997</v>
+      </c>
+      <c r="K1664">
+        <v>0</v>
+      </c>
+      <c r="L1664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>41522.503935185188</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1665">
+        <v>1</v>
+      </c>
+      <c r="E1665">
+        <v>3</v>
+      </c>
+      <c r="F1665">
+        <v>2</v>
+      </c>
+      <c r="G1665">
+        <v>2</v>
+      </c>
+      <c r="H1665">
+        <v>6170.0086000000001</v>
+      </c>
+      <c r="I1665">
+        <v>5075.0070999999998</v>
+      </c>
+      <c r="J1665">
+        <v>4625.0064000000002</v>
+      </c>
+      <c r="K1665">
+        <v>0</v>
+      </c>
+      <c r="L1665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>41522.504004629627</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1666">
+        <v>1</v>
+      </c>
+      <c r="E1666">
+        <v>3</v>
+      </c>
+      <c r="F1666">
+        <v>3</v>
+      </c>
+      <c r="G1666">
+        <v>2</v>
+      </c>
+      <c r="H1666">
+        <v>5695.0079999999998</v>
+      </c>
+      <c r="I1666">
+        <v>4670.0065000000004</v>
+      </c>
+      <c r="J1666">
+        <v>4145.0057999999999</v>
+      </c>
+      <c r="K1666">
+        <v>0</v>
+      </c>
+      <c r="L1666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>41522.504074074073</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1667">
+        <v>1</v>
+      </c>
+      <c r="E1667">
+        <v>4</v>
+      </c>
+      <c r="F1667">
+        <v>1</v>
+      </c>
+      <c r="G1667">
+        <v>0</v>
+      </c>
+      <c r="H1667">
+        <v>6115.0086000000001</v>
+      </c>
+      <c r="I1667">
+        <v>5185.0073000000002</v>
+      </c>
+      <c r="J1667">
+        <v>4265.0060000000003</v>
+      </c>
+      <c r="K1667">
+        <v>0</v>
+      </c>
+      <c r="L1667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>41522.504143518519</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1668">
+        <v>1</v>
+      </c>
+      <c r="E1668">
+        <v>4</v>
+      </c>
+      <c r="F1668">
+        <v>2</v>
+      </c>
+      <c r="G1668">
+        <v>0</v>
+      </c>
+      <c r="H1668">
+        <v>5495.0077000000001</v>
+      </c>
+      <c r="I1668">
+        <v>4780.0066999999999</v>
+      </c>
+      <c r="J1668">
+        <v>4030.0057000000002</v>
+      </c>
+      <c r="K1668">
+        <v>0</v>
+      </c>
+      <c r="L1668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>41522.504201388889</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1669">
+        <v>1</v>
+      </c>
+      <c r="E1669">
+        <v>4</v>
+      </c>
+      <c r="F1669">
+        <v>3</v>
+      </c>
+      <c r="G1669">
+        <v>0</v>
+      </c>
+      <c r="H1669">
+        <v>5395.0074999999997</v>
+      </c>
+      <c r="I1669">
+        <v>4475.0061999999998</v>
+      </c>
+      <c r="J1669">
+        <v>3985.0056</v>
+      </c>
+      <c r="K1669">
+        <v>0</v>
+      </c>
+      <c r="L1669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>41522.504305555558</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1670">
+        <v>1</v>
+      </c>
+      <c r="E1670">
+        <v>5</v>
+      </c>
+      <c r="F1670">
+        <v>1</v>
+      </c>
+      <c r="G1670">
+        <v>2</v>
+      </c>
+      <c r="H1670">
+        <v>8750.0123000000003</v>
+      </c>
+      <c r="I1670">
+        <v>7725.0108</v>
+      </c>
+      <c r="J1670">
+        <v>5525.0078000000003</v>
+      </c>
+      <c r="K1670">
+        <v>0</v>
+      </c>
+      <c r="L1670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>41522.504374999997</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1671">
+        <v>1</v>
+      </c>
+      <c r="E1671">
+        <v>5</v>
+      </c>
+      <c r="F1671">
+        <v>2</v>
+      </c>
+      <c r="G1671">
+        <v>2</v>
+      </c>
+      <c r="H1671">
+        <v>5565.0078000000003</v>
+      </c>
+      <c r="I1671">
+        <v>4390.0061999999998</v>
+      </c>
+      <c r="J1671">
+        <v>3955.0056</v>
+      </c>
+      <c r="K1671">
+        <v>0</v>
+      </c>
+      <c r="L1671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>41522.504432870373</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1672">
+        <v>1</v>
+      </c>
+      <c r="E1672">
+        <v>5</v>
+      </c>
+      <c r="F1672">
+        <v>3</v>
+      </c>
+      <c r="G1672">
+        <v>2</v>
+      </c>
+      <c r="H1672">
+        <v>5470.0075999999999</v>
+      </c>
+      <c r="I1672">
+        <v>4460.0061999999998</v>
+      </c>
+      <c r="J1672">
+        <v>3980.0055000000002</v>
+      </c>
+      <c r="K1672">
+        <v>0</v>
+      </c>
+      <c r="L1672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>41522.504525462966</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1673">
+        <v>1</v>
+      </c>
+      <c r="E1673">
+        <v>6</v>
+      </c>
+      <c r="F1673">
+        <v>1</v>
+      </c>
+      <c r="G1673">
+        <v>2</v>
+      </c>
+      <c r="H1673">
+        <v>8210.0115000000005</v>
+      </c>
+      <c r="I1673">
+        <v>7175.01</v>
+      </c>
+      <c r="J1673">
+        <v>4345.0060999999996</v>
+      </c>
+      <c r="K1673">
+        <v>0</v>
+      </c>
+      <c r="L1673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>41522.504594907405</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1674">
+        <v>1</v>
+      </c>
+      <c r="E1674">
+        <v>6</v>
+      </c>
+      <c r="F1674">
+        <v>2</v>
+      </c>
+      <c r="G1674">
+        <v>2</v>
+      </c>
+      <c r="H1674">
+        <v>5760.0081</v>
+      </c>
+      <c r="I1674">
+        <v>4535.0064000000002</v>
+      </c>
+      <c r="J1674">
+        <v>4045.0057000000002</v>
+      </c>
+      <c r="K1674">
+        <v>0</v>
+      </c>
+      <c r="L1674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>41522.504652777781</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1675">
+        <v>1</v>
+      </c>
+      <c r="E1675">
+        <v>6</v>
+      </c>
+      <c r="F1675">
+        <v>3</v>
+      </c>
+      <c r="G1675">
+        <v>2</v>
+      </c>
+      <c r="H1675">
+        <v>5245.0073000000002</v>
+      </c>
+      <c r="I1675">
+        <v>4280.0060000000003</v>
+      </c>
+      <c r="J1675">
+        <v>3835.0052999999998</v>
+      </c>
+      <c r="K1675">
+        <v>0</v>
+      </c>
+      <c r="L1675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>41522.505023148151</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1676">
+        <v>1</v>
+      </c>
+      <c r="E1676">
+        <v>1</v>
+      </c>
+      <c r="F1676">
+        <v>1</v>
+      </c>
+      <c r="G1676">
+        <v>3</v>
+      </c>
+      <c r="H1676">
+        <v>16423.070299999999</v>
+      </c>
+      <c r="I1676">
+        <v>10998.0627</v>
+      </c>
+      <c r="J1676">
+        <v>8223.0589</v>
+      </c>
+      <c r="K1676">
+        <v>0</v>
+      </c>
+      <c r="L1676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>41522.505150462966</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1677">
+        <v>1</v>
+      </c>
+      <c r="E1677">
+        <v>1</v>
+      </c>
+      <c r="F1677">
+        <v>2</v>
+      </c>
+      <c r="G1677">
+        <v>3</v>
+      </c>
+      <c r="H1677">
+        <v>11760.0164</v>
+      </c>
+      <c r="I1677">
+        <v>10055.013999999999</v>
+      </c>
+      <c r="J1677">
+        <v>6440.009</v>
+      </c>
+      <c r="K1677">
+        <v>0</v>
+      </c>
+      <c r="L1677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>41522.505277777775</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1678">
+        <v>1</v>
+      </c>
+      <c r="E1678">
+        <v>1</v>
+      </c>
+      <c r="F1678">
+        <v>3</v>
+      </c>
+      <c r="G1678">
+        <v>3</v>
+      </c>
+      <c r="H1678">
+        <v>10860.0152</v>
+      </c>
+      <c r="I1678">
+        <v>8815.0123000000003</v>
+      </c>
+      <c r="J1678">
+        <v>6030.0083999999997</v>
+      </c>
+      <c r="K1678">
+        <v>0</v>
+      </c>
+      <c r="L1678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1679" s="1">
+        <v>41522.505393518521</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1679">
+        <v>1</v>
+      </c>
+      <c r="E1679">
+        <v>2</v>
+      </c>
+      <c r="F1679">
+        <v>1</v>
+      </c>
+      <c r="G1679">
+        <v>3</v>
+      </c>
+      <c r="H1679">
+        <v>9835.0138000000006</v>
+      </c>
+      <c r="I1679">
+        <v>8850.0123999999996</v>
+      </c>
+      <c r="J1679">
+        <v>6355.0088999999998</v>
+      </c>
+      <c r="K1679">
+        <v>0</v>
+      </c>
+      <c r="L1679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1680" s="1">
+        <v>41522.505497685182</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1680">
+        <v>1</v>
+      </c>
+      <c r="E1680">
+        <v>2</v>
+      </c>
+      <c r="F1680">
+        <v>2</v>
+      </c>
+      <c r="G1680">
+        <v>3</v>
+      </c>
+      <c r="H1680">
+        <v>8735.0121999999992</v>
+      </c>
+      <c r="I1680">
+        <v>7885.0110000000004</v>
+      </c>
+      <c r="J1680">
+        <v>5245.0073000000002</v>
+      </c>
+      <c r="K1680">
+        <v>0</v>
+      </c>
+      <c r="L1680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1681" s="1">
+        <v>41522.505601851852</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1681">
+        <v>1</v>
+      </c>
+      <c r="E1681">
+        <v>2</v>
+      </c>
+      <c r="F1681">
+        <v>3</v>
+      </c>
+      <c r="G1681">
+        <v>3</v>
+      </c>
+      <c r="H1681">
+        <v>9315.0131000000001</v>
+      </c>
+      <c r="I1681">
+        <v>8200.0115000000005</v>
+      </c>
+      <c r="J1681">
+        <v>5460.0077000000001</v>
+      </c>
+      <c r="K1681">
+        <v>0</v>
+      </c>
+      <c r="L1681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1682" s="1">
+        <v>41522.50571759259</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1682">
+        <v>1</v>
+      </c>
+      <c r="E1682">
+        <v>3</v>
+      </c>
+      <c r="F1682">
+        <v>1</v>
+      </c>
+      <c r="G1682">
+        <v>1</v>
+      </c>
+      <c r="H1682">
+        <v>10250.014300000001</v>
+      </c>
+      <c r="I1682">
+        <v>8055.0111999999999</v>
+      </c>
+      <c r="J1682">
+        <v>6255.0087000000003</v>
+      </c>
+      <c r="K1682">
+        <v>0</v>
+      </c>
+      <c r="L1682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1683" s="1">
+        <v>41522.505810185183</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1683">
+        <v>1</v>
+      </c>
+      <c r="E1683">
+        <v>3</v>
+      </c>
+      <c r="F1683">
+        <v>2</v>
+      </c>
+      <c r="G1683">
+        <v>1</v>
+      </c>
+      <c r="H1683">
+        <v>7710.0108</v>
+      </c>
+      <c r="I1683">
+        <v>6565.0092000000004</v>
+      </c>
+      <c r="J1683">
+        <v>4950.0069000000003</v>
+      </c>
+      <c r="K1683">
+        <v>0</v>
+      </c>
+      <c r="L1683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1684" s="1">
+        <v>41522.505902777775</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1684">
+        <v>1</v>
+      </c>
+      <c r="E1684">
+        <v>3</v>
+      </c>
+      <c r="F1684">
+        <v>3</v>
+      </c>
+      <c r="G1684">
+        <v>1</v>
+      </c>
+      <c r="H1684">
+        <v>7475.0105000000003</v>
+      </c>
+      <c r="I1684">
+        <v>6540.0092000000004</v>
+      </c>
+      <c r="J1684">
+        <v>4980.0069999999996</v>
+      </c>
+      <c r="K1684">
+        <v>0</v>
+      </c>
+      <c r="L1684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1685" s="1">
+        <v>41522.505972222221</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1685">
+        <v>1</v>
+      </c>
+      <c r="E1685">
+        <v>4</v>
+      </c>
+      <c r="F1685">
+        <v>1</v>
+      </c>
+      <c r="G1685">
+        <v>0</v>
+      </c>
+      <c r="H1685">
+        <v>6250.0087999999996</v>
+      </c>
+      <c r="I1685">
+        <v>5090.0072</v>
+      </c>
+      <c r="J1685">
+        <v>4365.0061999999998</v>
+      </c>
+      <c r="K1685">
+        <v>0</v>
+      </c>
+      <c r="L1685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1686" s="1">
+        <v>41522.506041666667</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1686">
+        <v>1</v>
+      </c>
+      <c r="E1686">
+        <v>4</v>
+      </c>
+      <c r="F1686">
+        <v>2</v>
+      </c>
+      <c r="G1686">
+        <v>0</v>
+      </c>
+      <c r="H1686">
+        <v>6240.0087000000003</v>
+      </c>
+      <c r="I1686">
+        <v>5230.0073000000002</v>
+      </c>
+      <c r="J1686">
+        <v>4540.0064000000002</v>
+      </c>
+      <c r="K1686">
+        <v>0</v>
+      </c>
+      <c r="L1686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1687" s="1">
+        <v>41522.506122685183</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1687">
+        <v>1</v>
+      </c>
+      <c r="E1687">
+        <v>4</v>
+      </c>
+      <c r="F1687">
+        <v>3</v>
+      </c>
+      <c r="G1687">
+        <v>0</v>
+      </c>
+      <c r="H1687">
+        <v>7085.0099</v>
+      </c>
+      <c r="I1687">
+        <v>5915.0083000000004</v>
+      </c>
+      <c r="J1687">
+        <v>4730.0065999999997</v>
+      </c>
+      <c r="K1687">
+        <v>0</v>
+      </c>
+      <c r="L1687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1688" s="1">
+        <v>41522.506203703706</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1688">
+        <v>1</v>
+      </c>
+      <c r="E1688">
+        <v>5</v>
+      </c>
+      <c r="F1688">
+        <v>1</v>
+      </c>
+      <c r="G1688">
+        <v>2</v>
+      </c>
+      <c r="H1688">
+        <v>7225.0101000000004</v>
+      </c>
+      <c r="I1688">
+        <v>6040.0083999999997</v>
+      </c>
+      <c r="J1688">
+        <v>4200.0059000000001</v>
+      </c>
+      <c r="K1688">
+        <v>0</v>
+      </c>
+      <c r="L1688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1689" s="1">
+        <v>41522.506296296298</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1689">
+        <v>1</v>
+      </c>
+      <c r="E1689">
+        <v>5</v>
+      </c>
+      <c r="F1689">
+        <v>2</v>
+      </c>
+      <c r="G1689">
+        <v>2</v>
+      </c>
+      <c r="H1689">
+        <v>7270.0101999999997</v>
+      </c>
+      <c r="I1689">
+        <v>6110.0086000000001</v>
+      </c>
+      <c r="J1689">
+        <v>4285.0060000000003</v>
+      </c>
+      <c r="K1689">
+        <v>0</v>
+      </c>
+      <c r="L1689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1690" s="1">
+        <v>41522.50640046296</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1690">
+        <v>1</v>
+      </c>
+      <c r="E1690">
+        <v>5</v>
+      </c>
+      <c r="F1690">
+        <v>3</v>
+      </c>
+      <c r="G1690">
+        <v>2</v>
+      </c>
+      <c r="H1690">
+        <v>8770.0123000000003</v>
+      </c>
+      <c r="I1690">
+        <v>7480.0105000000003</v>
+      </c>
+      <c r="J1690">
+        <v>6060.0084999999999</v>
+      </c>
+      <c r="K1690">
+        <v>0</v>
+      </c>
+      <c r="L1690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1691" s="1">
+        <v>41522.506504629629</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1691">
+        <v>1</v>
+      </c>
+      <c r="E1691">
+        <v>6</v>
+      </c>
+      <c r="F1691">
+        <v>1</v>
+      </c>
+      <c r="G1691">
+        <v>3</v>
+      </c>
+      <c r="H1691">
+        <v>9385.0131000000001</v>
+      </c>
+      <c r="I1691">
+        <v>7865.0110000000004</v>
+      </c>
+      <c r="J1691">
+        <v>4875.0068000000001</v>
+      </c>
+      <c r="K1691">
+        <v>0</v>
+      </c>
+      <c r="L1691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1692" s="1">
+        <v>41522.506597222222</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1692">
+        <v>1</v>
+      </c>
+      <c r="E1692">
+        <v>6</v>
+      </c>
+      <c r="F1692">
+        <v>2</v>
+      </c>
+      <c r="G1692">
+        <v>3</v>
+      </c>
+      <c r="H1692">
+        <v>8490.0118999999995</v>
+      </c>
+      <c r="I1692">
+        <v>7455.0104000000001</v>
+      </c>
+      <c r="J1692">
+        <v>4815.0066999999999</v>
+      </c>
+      <c r="K1692">
+        <v>0</v>
+      </c>
+      <c r="L1692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1693" s="1">
+        <v>41522.506689814814</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1693">
+        <v>1</v>
+      </c>
+      <c r="E1693">
+        <v>6</v>
+      </c>
+      <c r="F1693">
+        <v>3</v>
+      </c>
+      <c r="G1693">
+        <v>3</v>
+      </c>
+      <c r="H1693">
+        <v>7985.0111999999999</v>
+      </c>
+      <c r="I1693">
+        <v>6940.0096999999996</v>
+      </c>
+      <c r="J1693">
+        <v>4360.0060999999996</v>
+      </c>
+      <c r="K1693">
+        <v>0</v>
+      </c>
+      <c r="L1693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1694" s="1">
+        <v>41522.506863425922</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1694">
+        <v>3</v>
+      </c>
+      <c r="E1694">
+        <v>1</v>
+      </c>
+      <c r="F1694">
+        <v>1</v>
+      </c>
+      <c r="G1694">
+        <v>1</v>
+      </c>
+      <c r="H1694">
+        <v>9395.0131999999994</v>
+      </c>
+      <c r="I1694">
+        <v>6330.0088999999998</v>
+      </c>
+      <c r="J1694">
+        <v>4355.0060999999996</v>
+      </c>
+      <c r="K1694">
+        <v>0</v>
+      </c>
+      <c r="L1694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1695" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1695" s="1">
+        <v>41522.506967592592</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1695">
+        <v>3</v>
+      </c>
+      <c r="E1695">
+        <v>1</v>
+      </c>
+      <c r="F1695">
+        <v>2</v>
+      </c>
+      <c r="G1695">
+        <v>0</v>
+      </c>
+      <c r="H1695">
+        <v>9435.0131999999994</v>
+      </c>
+      <c r="I1695">
+        <v>8465.0118999999995</v>
+      </c>
+      <c r="J1695">
+        <v>7845.0110000000004</v>
+      </c>
+      <c r="K1695">
+        <v>0</v>
+      </c>
+      <c r="L1695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1696" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1696" s="1">
+        <v>41522.507060185184</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1696">
+        <v>3</v>
+      </c>
+      <c r="E1696">
+        <v>1</v>
+      </c>
+      <c r="F1696">
+        <v>3</v>
+      </c>
+      <c r="G1696">
+        <v>0</v>
+      </c>
+      <c r="H1696">
+        <v>8330.0116999999991</v>
+      </c>
+      <c r="I1696">
+        <v>7295.0102999999999</v>
+      </c>
+      <c r="J1696">
+        <v>4240.0060000000003</v>
+      </c>
+      <c r="K1696">
+        <v>0</v>
+      </c>
+      <c r="L1696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1697" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1697" s="1">
+        <v>41522.507141203707</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1697">
+        <v>3</v>
+      </c>
+      <c r="E1697">
+        <v>2</v>
+      </c>
+      <c r="F1697">
+        <v>1</v>
+      </c>
+      <c r="G1697">
+        <v>2</v>
+      </c>
+      <c r="H1697">
+        <v>7035.0097999999998</v>
+      </c>
+      <c r="I1697">
+        <v>6035.0083999999997</v>
+      </c>
+      <c r="J1697">
+        <v>4680.0065000000004</v>
+      </c>
+      <c r="K1697">
+        <v>0</v>
+      </c>
+      <c r="L1697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1698" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1698" s="1">
+        <v>41522.507245370369</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1698">
+        <v>3</v>
+      </c>
+      <c r="E1698">
+        <v>2</v>
+      </c>
+      <c r="F1698">
+        <v>2</v>
+      </c>
+      <c r="G1698">
+        <v>3</v>
+      </c>
+      <c r="H1698">
+        <v>8440.0118000000002</v>
+      </c>
+      <c r="I1698">
+        <v>7075.0099</v>
+      </c>
+      <c r="J1698">
+        <v>4525.0063</v>
+      </c>
+      <c r="K1698">
+        <v>0</v>
+      </c>
+      <c r="L1698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1699" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1699" s="1">
+        <v>41522.507326388892</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1699">
+        <v>3</v>
+      </c>
+      <c r="E1699">
+        <v>2</v>
+      </c>
+      <c r="F1699">
+        <v>3</v>
+      </c>
+      <c r="G1699">
+        <v>2</v>
+      </c>
+      <c r="H1699">
+        <v>6790.0095000000001</v>
+      </c>
+      <c r="I1699">
+        <v>5765.0079999999998</v>
+      </c>
+      <c r="J1699">
+        <v>4160.0057999999999</v>
+      </c>
+      <c r="K1699">
+        <v>0</v>
+      </c>
+      <c r="L1699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1700" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1700" s="1">
+        <v>41522.507418981484</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1700">
+        <v>3</v>
+      </c>
+      <c r="E1700">
+        <v>3</v>
+      </c>
+      <c r="F1700">
+        <v>1</v>
+      </c>
+      <c r="G1700">
+        <v>3</v>
+      </c>
+      <c r="H1700">
+        <v>8270.0115999999998</v>
+      </c>
+      <c r="I1700">
+        <v>7035.0097999999998</v>
+      </c>
+      <c r="J1700">
+        <v>4365.0060999999996</v>
+      </c>
+      <c r="K1700">
+        <v>0</v>
+      </c>
+      <c r="L1700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1701" s="1">
+        <v>41522.507511574076</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1701">
+        <v>3</v>
+      </c>
+      <c r="E1701">
+        <v>3</v>
+      </c>
+      <c r="F1701">
+        <v>2</v>
+      </c>
+      <c r="G1701">
+        <v>3</v>
+      </c>
+      <c r="H1701">
+        <v>7670.0108</v>
+      </c>
+      <c r="I1701">
+        <v>6605.0092999999997</v>
+      </c>
+      <c r="J1701">
+        <v>4295.0060999999996</v>
+      </c>
+      <c r="K1701">
+        <v>0</v>
+      </c>
+      <c r="L1701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1702" s="1">
+        <v>41522.507592592592</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1702">
+        <v>3</v>
+      </c>
+      <c r="E1702">
+        <v>3</v>
+      </c>
+      <c r="F1702">
+        <v>3</v>
+      </c>
+      <c r="G1702">
+        <v>3</v>
+      </c>
+      <c r="H1702">
+        <v>7825.0109000000002</v>
+      </c>
+      <c r="I1702">
+        <v>6430.009</v>
+      </c>
+      <c r="J1702">
+        <v>4395.0060999999996</v>
+      </c>
+      <c r="K1702">
+        <v>0</v>
+      </c>
+      <c r="L1702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1703" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1703" s="1">
+        <v>41522.507662037038</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1703">
+        <v>3</v>
+      </c>
+      <c r="E1703">
+        <v>4</v>
+      </c>
+      <c r="F1703">
+        <v>1</v>
+      </c>
+      <c r="G1703">
+        <v>0</v>
+      </c>
+      <c r="H1703">
+        <v>5780.0081</v>
+      </c>
+      <c r="I1703">
+        <v>4610.0065000000004</v>
+      </c>
+      <c r="J1703">
+        <v>4080.0057000000002</v>
+      </c>
+      <c r="K1703">
+        <v>0</v>
+      </c>
+      <c r="L1703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1704" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1704" s="1">
+        <v>41522.507743055554</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1704">
+        <v>3</v>
+      </c>
+      <c r="E1704">
+        <v>4</v>
+      </c>
+      <c r="F1704">
+        <v>2</v>
+      </c>
+      <c r="G1704">
+        <v>2</v>
+      </c>
+      <c r="H1704">
+        <v>7165.01</v>
+      </c>
+      <c r="I1704">
+        <v>6175.0086000000001</v>
+      </c>
+      <c r="J1704">
+        <v>4590.0064000000002</v>
+      </c>
+      <c r="K1704">
+        <v>0</v>
+      </c>
+      <c r="L1704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1705" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1705" s="1">
+        <v>41522.507916666669</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1705">
+        <v>3</v>
+      </c>
+      <c r="E1705">
+        <v>4</v>
+      </c>
+      <c r="F1705">
+        <v>3</v>
+      </c>
+      <c r="G1705">
+        <v>3</v>
+      </c>
+      <c r="H1705">
+        <v>14865.0208</v>
+      </c>
+      <c r="I1705">
+        <v>14140.0198</v>
+      </c>
+      <c r="J1705">
+        <v>11695.016299999999</v>
+      </c>
+      <c r="K1705">
+        <v>2</v>
+      </c>
+      <c r="L1705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1706" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1706" s="1">
+        <v>41522.508009259262</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1706">
+        <v>3</v>
+      </c>
+      <c r="E1706">
+        <v>5</v>
+      </c>
+      <c r="F1706">
+        <v>1</v>
+      </c>
+      <c r="G1706">
+        <v>3</v>
+      </c>
+      <c r="H1706">
+        <v>7575.0105999999996</v>
+      </c>
+      <c r="I1706">
+        <v>6510.0091000000002</v>
+      </c>
+      <c r="J1706">
+        <v>4815.0066999999999</v>
+      </c>
+      <c r="K1706">
+        <v>0</v>
+      </c>
+      <c r="L1706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1707" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1707" s="1">
+        <v>41522.508090277777</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1707">
+        <v>3</v>
+      </c>
+      <c r="E1707">
+        <v>5</v>
+      </c>
+      <c r="F1707">
+        <v>2</v>
+      </c>
+      <c r="G1707">
+        <v>3</v>
+      </c>
+      <c r="H1707">
+        <v>7445.0105000000003</v>
+      </c>
+      <c r="I1707">
+        <v>5955.0083999999997</v>
+      </c>
+      <c r="J1707">
+        <v>4085.0057000000002</v>
+      </c>
+      <c r="K1707">
+        <v>0</v>
+      </c>
+      <c r="L1707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1708" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1708" s="1">
+        <v>41522.508194444446</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1708">
+        <v>3</v>
+      </c>
+      <c r="E1708">
+        <v>5</v>
+      </c>
+      <c r="F1708">
+        <v>3</v>
+      </c>
+      <c r="G1708">
+        <v>3</v>
+      </c>
+      <c r="H1708">
+        <v>8455.0118000000002</v>
+      </c>
+      <c r="I1708">
+        <v>7410.0104000000001</v>
+      </c>
+      <c r="J1708">
+        <v>5000.0069999999996</v>
+      </c>
+      <c r="K1708">
+        <v>0</v>
+      </c>
+      <c r="L1708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1709" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1709" s="1">
+        <v>41522.508263888885</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1709">
+        <v>3</v>
+      </c>
+      <c r="E1709">
+        <v>6</v>
+      </c>
+      <c r="F1709">
+        <v>1</v>
+      </c>
+      <c r="G1709">
+        <v>0</v>
+      </c>
+      <c r="H1709">
+        <v>5970.0083999999997</v>
+      </c>
+      <c r="I1709">
+        <v>4780.0066999999999</v>
+      </c>
+      <c r="J1709">
+        <v>4115.0057999999999</v>
+      </c>
+      <c r="K1709">
+        <v>0</v>
+      </c>
+      <c r="L1709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1710" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1710" s="1">
+        <v>41522.508356481485</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1710">
+        <v>3</v>
+      </c>
+      <c r="E1710">
+        <v>6</v>
+      </c>
+      <c r="F1710">
+        <v>2</v>
+      </c>
+      <c r="G1710">
+        <v>1</v>
+      </c>
+      <c r="H1710">
+        <v>8590.0120000000006</v>
+      </c>
+      <c r="I1710">
+        <v>7470.0105000000003</v>
+      </c>
+      <c r="J1710">
+        <v>4385.0060999999996</v>
+      </c>
+      <c r="K1710">
+        <v>0</v>
+      </c>
+      <c r="L1710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1711" s="1">
+        <v>41522.508460648147</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1711">
+        <v>3</v>
+      </c>
+      <c r="E1711">
+        <v>6</v>
+      </c>
+      <c r="F1711">
+        <v>3</v>
+      </c>
+      <c r="G1711">
+        <v>2</v>
+      </c>
+      <c r="H1711">
+        <v>8300.0115999999998</v>
+      </c>
+      <c r="I1711">
+        <v>7070.0099</v>
+      </c>
+      <c r="J1711">
+        <v>4785.0066999999999</v>
+      </c>
+      <c r="K1711">
+        <v>0</v>
+      </c>
+      <c r="L1711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1712" s="1">
+        <v>41522.508611111109</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1712">
+        <v>2</v>
+      </c>
+      <c r="E1712">
+        <v>1</v>
+      </c>
+      <c r="F1712">
+        <v>1</v>
+      </c>
+      <c r="G1712">
+        <v>3</v>
+      </c>
+      <c r="H1712">
+        <v>10865.0152</v>
+      </c>
+      <c r="I1712">
+        <v>8045.0111999999999</v>
+      </c>
+      <c r="J1712">
+        <v>5860.0082000000002</v>
+      </c>
+      <c r="K1712">
+        <v>0</v>
+      </c>
+      <c r="L1712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1713" s="1">
+        <v>41522.508703703701</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1713">
+        <v>2</v>
+      </c>
+      <c r="E1713">
+        <v>1</v>
+      </c>
+      <c r="F1713">
+        <v>2</v>
+      </c>
+      <c r="G1713">
+        <v>3</v>
+      </c>
+      <c r="H1713">
+        <v>7705.0108</v>
+      </c>
+      <c r="I1713">
+        <v>6750.0093999999999</v>
+      </c>
+      <c r="J1713">
+        <v>4685.0065000000004</v>
+      </c>
+      <c r="K1713">
+        <v>0</v>
+      </c>
+      <c r="L1713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1714" s="1">
+        <v>41522.508784722224</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1714">
+        <v>2</v>
+      </c>
+      <c r="E1714">
+        <v>1</v>
+      </c>
+      <c r="F1714">
+        <v>3</v>
+      </c>
+      <c r="G1714">
+        <v>0</v>
+      </c>
+      <c r="H1714">
+        <v>7360.0102999999999</v>
+      </c>
+      <c r="I1714">
+        <v>6210.0087000000003</v>
+      </c>
+      <c r="J1714">
+        <v>4965.0069000000003</v>
+      </c>
+      <c r="K1714">
+        <v>0</v>
+      </c>
+      <c r="L1714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1715" s="1">
+        <v>41522.50886574074</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1715">
+        <v>2</v>
+      </c>
+      <c r="E1715">
+        <v>2</v>
+      </c>
+      <c r="F1715">
+        <v>1</v>
+      </c>
+      <c r="G1715">
+        <v>2</v>
+      </c>
+      <c r="H1715">
+        <v>7285.0101999999997</v>
+      </c>
+      <c r="I1715">
+        <v>6095.0084999999999</v>
+      </c>
+      <c r="J1715">
+        <v>4185.0057999999999</v>
+      </c>
+      <c r="K1715">
+        <v>0</v>
+      </c>
+      <c r="L1715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1716" s="1">
+        <v>41522.508958333332</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1716">
+        <v>2</v>
+      </c>
+      <c r="E1716">
+        <v>2</v>
+      </c>
+      <c r="F1716">
+        <v>2</v>
+      </c>
+      <c r="G1716">
+        <v>2</v>
+      </c>
+      <c r="H1716">
+        <v>7205.0101000000004</v>
+      </c>
+      <c r="I1716">
+        <v>6200.0087000000003</v>
+      </c>
+      <c r="J1716">
+        <v>4495.0063</v>
+      </c>
+      <c r="K1716">
+        <v>0</v>
+      </c>
+      <c r="L1716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1717" s="1">
+        <v>41522.509039351855</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1717">
+        <v>2</v>
+      </c>
+      <c r="E1717">
+        <v>2</v>
+      </c>
+      <c r="F1717">
+        <v>3</v>
+      </c>
+      <c r="G1717">
+        <v>2</v>
+      </c>
+      <c r="H1717">
+        <v>6990.0097999999998</v>
+      </c>
+      <c r="I1717">
+        <v>5890.0082000000002</v>
+      </c>
+      <c r="J1717">
+        <v>4285.0060000000003</v>
+      </c>
+      <c r="K1717">
+        <v>0</v>
+      </c>
+      <c r="L1717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1718" s="1">
+        <v>41522.509120370371</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1718">
+        <v>2</v>
+      </c>
+      <c r="E1718">
+        <v>3</v>
+      </c>
+      <c r="F1718">
+        <v>1</v>
+      </c>
+      <c r="G1718">
+        <v>2</v>
+      </c>
+      <c r="H1718">
+        <v>7235.0101000000004</v>
+      </c>
+      <c r="I1718">
+        <v>6225.0087000000003</v>
+      </c>
+      <c r="J1718">
+        <v>4900.0068000000001</v>
+      </c>
+      <c r="K1718">
+        <v>0</v>
+      </c>
+      <c r="L1718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1719" s="1">
+        <v>41522.509201388886</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1719">
+        <v>2</v>
+      </c>
+      <c r="E1719">
+        <v>3</v>
+      </c>
+      <c r="F1719">
+        <v>2</v>
+      </c>
+      <c r="G1719">
+        <v>3</v>
+      </c>
+      <c r="H1719">
+        <v>7260.0101999999997</v>
+      </c>
+      <c r="I1719">
+        <v>6085.0084999999999</v>
+      </c>
+      <c r="J1719">
+        <v>4050.0057000000002</v>
+      </c>
+      <c r="K1719">
+        <v>0</v>
+      </c>
+      <c r="L1719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1720" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1720" s="1">
+        <v>41522.509282407409</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1720">
+        <v>2</v>
+      </c>
+      <c r="E1720">
+        <v>3</v>
+      </c>
+      <c r="F1720">
+        <v>3</v>
+      </c>
+      <c r="G1720">
+        <v>3</v>
+      </c>
+      <c r="H1720">
+        <v>7340.0102999999999</v>
+      </c>
+      <c r="I1720">
+        <v>6225.0087000000003</v>
+      </c>
+      <c r="J1720">
+        <v>3965.0056</v>
+      </c>
+      <c r="K1720">
+        <v>0</v>
+      </c>
+      <c r="L1720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1721" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1721" s="1">
+        <v>41522.509456018517</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1721">
+        <v>2</v>
+      </c>
+      <c r="E1721">
+        <v>4</v>
+      </c>
+      <c r="F1721">
+        <v>1</v>
+      </c>
+      <c r="G1721">
+        <v>3</v>
+      </c>
+      <c r="H1721">
+        <v>14570.020399999999</v>
+      </c>
+      <c r="I1721">
+        <v>13495.018899999999</v>
+      </c>
+      <c r="J1721">
+        <v>10910.015299999999</v>
+      </c>
+      <c r="K1721">
+        <v>2</v>
+      </c>
+      <c r="L1721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1722" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1722" s="1">
+        <v>41522.50953703704</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1722">
+        <v>2</v>
+      </c>
+      <c r="E1722">
+        <v>4</v>
+      </c>
+      <c r="F1722">
+        <v>2</v>
+      </c>
+      <c r="G1722">
+        <v>3</v>
+      </c>
+      <c r="H1722">
+        <v>7325.0101999999997</v>
+      </c>
+      <c r="I1722">
+        <v>6320.0087999999996</v>
+      </c>
+      <c r="J1722">
+        <v>4090.0057000000002</v>
+      </c>
+      <c r="K1722">
+        <v>0</v>
+      </c>
+      <c r="L1722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1723" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1723" s="1">
+        <v>41522.509629629632</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1723">
+        <v>2</v>
+      </c>
+      <c r="E1723">
+        <v>4</v>
+      </c>
+      <c r="F1723">
+        <v>3</v>
+      </c>
+      <c r="G1723">
+        <v>2</v>
+      </c>
+      <c r="H1723">
+        <v>8240.0115999999998</v>
+      </c>
+      <c r="I1723">
+        <v>7060.0099</v>
+      </c>
+      <c r="J1723">
+        <v>4625.0065000000004</v>
+      </c>
+      <c r="K1723">
+        <v>0</v>
+      </c>
+      <c r="L1723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1724" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1724" s="1">
+        <v>41522.509710648148</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1724">
+        <v>2</v>
+      </c>
+      <c r="E1724">
+        <v>5</v>
+      </c>
+      <c r="F1724">
+        <v>1</v>
+      </c>
+      <c r="G1724">
+        <v>0</v>
+      </c>
+      <c r="H1724">
+        <v>6095.0084999999999</v>
+      </c>
+      <c r="I1724">
+        <v>5055.0070999999998</v>
+      </c>
+      <c r="J1724">
+        <v>4115.0057999999999</v>
+      </c>
+      <c r="K1724">
+        <v>0</v>
+      </c>
+      <c r="L1724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1725" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1725" s="1">
+        <v>41522.509780092594</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1725">
+        <v>2</v>
+      </c>
+      <c r="E1725">
+        <v>5</v>
+      </c>
+      <c r="F1725">
+        <v>2</v>
+      </c>
+      <c r="G1725">
+        <v>0</v>
+      </c>
+      <c r="H1725">
+        <v>6670.0092999999997</v>
+      </c>
+      <c r="I1725">
+        <v>5625.0078000000003</v>
+      </c>
+      <c r="J1725">
+        <v>4385.0060999999996</v>
+      </c>
+      <c r="K1725">
+        <v>0</v>
+      </c>
+      <c r="L1725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1726" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1726" s="1">
+        <v>41522.50984953704</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1726">
+        <v>2</v>
+      </c>
+      <c r="E1726">
+        <v>5</v>
+      </c>
+      <c r="F1726">
+        <v>3</v>
+      </c>
+      <c r="G1726">
+        <v>0</v>
+      </c>
+      <c r="H1726">
+        <v>5925.0083000000004</v>
+      </c>
+      <c r="I1726">
+        <v>4850.0068000000001</v>
+      </c>
+      <c r="J1726">
+        <v>4030.0056</v>
+      </c>
+      <c r="K1726">
+        <v>0</v>
+      </c>
+      <c r="L1726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1727" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1727" s="1">
+        <v>41522.509918981479</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1727">
+        <v>2</v>
+      </c>
+      <c r="E1727">
+        <v>6</v>
+      </c>
+      <c r="F1727">
+        <v>1</v>
+      </c>
+      <c r="G1727">
+        <v>0</v>
+      </c>
+      <c r="H1727">
+        <v>5495.0077000000001</v>
+      </c>
+      <c r="I1727">
+        <v>4445.0061999999998</v>
+      </c>
+      <c r="J1727">
+        <v>3870.0054</v>
+      </c>
+      <c r="K1727">
+        <v>0</v>
+      </c>
+      <c r="L1727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1728" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1728" s="1">
+        <v>41522.51</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1728">
+        <v>2</v>
+      </c>
+      <c r="E1728">
+        <v>6</v>
+      </c>
+      <c r="F1728">
+        <v>2</v>
+      </c>
+      <c r="G1728">
+        <v>2</v>
+      </c>
+      <c r="H1728">
+        <v>6900.0096999999996</v>
+      </c>
+      <c r="I1728">
+        <v>5745.0081</v>
+      </c>
+      <c r="J1728">
+        <v>3880.0055000000002</v>
+      </c>
+      <c r="K1728">
+        <v>0</v>
+      </c>
+      <c r="L1728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1729" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1729" s="1">
+        <v>41522.510069444441</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1729">
+        <v>2</v>
+      </c>
+      <c r="E1729">
+        <v>6</v>
+      </c>
+      <c r="F1729">
+        <v>3</v>
+      </c>
+      <c r="G1729">
+        <v>2</v>
+      </c>
+      <c r="H1729">
+        <v>6325.0087999999996</v>
+      </c>
+      <c r="I1729">
+        <v>5370.0074999999997</v>
+      </c>
+      <c r="J1729">
+        <v>3980.0055000000002</v>
+      </c>
+      <c r="K1729">
+        <v>0</v>
+      </c>
+      <c r="L1729">
         <v>0</v>
       </c>
     </row>

--- a/Data/exp1-consolidated.xlsx
+++ b/Data/exp1-consolidated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4980" uniqueCount="243">
   <si>
     <t>Participant</t>
   </si>
@@ -743,6 +743,9 @@
   <si>
     <t>P10</t>
   </si>
+  <si>
+    <t>P11</t>
+  </si>
 </sst>
 </file>
 
@@ -1082,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2161"/>
+  <dimension ref="A1:L2377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2148" workbookViewId="0">
+      <selection activeCell="A2378" sqref="A2378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83205,6 +83208,8214 @@
         <v>0</v>
       </c>
       <c r="L2161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2162" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2162" s="1">
+        <v>41529.703055555554</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2162">
+        <v>2</v>
+      </c>
+      <c r="E2162">
+        <v>1</v>
+      </c>
+      <c r="F2162">
+        <v>1</v>
+      </c>
+      <c r="G2162">
+        <v>1</v>
+      </c>
+      <c r="H2162">
+        <v>16310.0229</v>
+      </c>
+      <c r="I2162">
+        <v>7195.0101000000004</v>
+      </c>
+      <c r="J2162">
+        <v>3620.0050999999999</v>
+      </c>
+      <c r="K2162">
+        <v>0</v>
+      </c>
+      <c r="L2162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2163" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2163" s="1">
+        <v>41529.703159722223</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2163">
+        <v>2</v>
+      </c>
+      <c r="E2163">
+        <v>1</v>
+      </c>
+      <c r="F2163">
+        <v>2</v>
+      </c>
+      <c r="G2163">
+        <v>1</v>
+      </c>
+      <c r="H2163">
+        <v>8980.0125000000007</v>
+      </c>
+      <c r="I2163">
+        <v>4785.0066999999999</v>
+      </c>
+      <c r="J2163">
+        <v>4785.0066999999999</v>
+      </c>
+      <c r="K2163">
+        <v>0</v>
+      </c>
+      <c r="L2163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2164" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2164" s="1">
+        <v>41529.703599537039</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2164">
+        <v>2</v>
+      </c>
+      <c r="E2164">
+        <v>1</v>
+      </c>
+      <c r="F2164">
+        <v>3</v>
+      </c>
+      <c r="G2164">
+        <v>0</v>
+      </c>
+      <c r="H2164">
+        <v>37975.053200000002</v>
+      </c>
+      <c r="I2164">
+        <v>35460.049599999998</v>
+      </c>
+      <c r="J2164">
+        <v>35460.049599999998</v>
+      </c>
+      <c r="K2164">
+        <v>5</v>
+      </c>
+      <c r="L2164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2165" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2165" s="1">
+        <v>41529.703761574077</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2165">
+        <v>2</v>
+      </c>
+      <c r="E2165">
+        <v>2</v>
+      </c>
+      <c r="F2165">
+        <v>1</v>
+      </c>
+      <c r="G2165">
+        <v>3</v>
+      </c>
+      <c r="H2165">
+        <v>13485.018899999999</v>
+      </c>
+      <c r="I2165">
+        <v>10745.015100000001</v>
+      </c>
+      <c r="J2165">
+        <v>3660.0050999999999</v>
+      </c>
+      <c r="K2165">
+        <v>0</v>
+      </c>
+      <c r="L2165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2166" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2166" s="1">
+        <v>41529.703935185185</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2166">
+        <v>2</v>
+      </c>
+      <c r="E2166">
+        <v>2</v>
+      </c>
+      <c r="F2166">
+        <v>2</v>
+      </c>
+      <c r="G2166">
+        <v>2</v>
+      </c>
+      <c r="H2166">
+        <v>15110.0211</v>
+      </c>
+      <c r="I2166">
+        <v>13155.018400000001</v>
+      </c>
+      <c r="J2166">
+        <v>13155.018400000001</v>
+      </c>
+      <c r="K2166">
+        <v>1</v>
+      </c>
+      <c r="L2166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2167" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2167" s="1">
+        <v>41529.704131944447</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2167">
+        <v>2</v>
+      </c>
+      <c r="E2167">
+        <v>2</v>
+      </c>
+      <c r="F2167">
+        <v>3</v>
+      </c>
+      <c r="G2167">
+        <v>3</v>
+      </c>
+      <c r="H2167">
+        <v>17345.024300000001</v>
+      </c>
+      <c r="I2167">
+        <v>15800.0221</v>
+      </c>
+      <c r="J2167">
+        <v>15800.0221</v>
+      </c>
+      <c r="K2167">
+        <v>1</v>
+      </c>
+      <c r="L2167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2168" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2168" s="1">
+        <v>41529.704247685186</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2168">
+        <v>2</v>
+      </c>
+      <c r="E2168">
+        <v>3</v>
+      </c>
+      <c r="F2168">
+        <v>1</v>
+      </c>
+      <c r="G2168">
+        <v>2</v>
+      </c>
+      <c r="H2168">
+        <v>10145.0142</v>
+      </c>
+      <c r="I2168">
+        <v>8345.0116999999991</v>
+      </c>
+      <c r="J2168">
+        <v>3225.0045</v>
+      </c>
+      <c r="K2168">
+        <v>1</v>
+      </c>
+      <c r="L2168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2169" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2169" s="1">
+        <v>41529.704398148147</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2169">
+        <v>2</v>
+      </c>
+      <c r="E2169">
+        <v>3</v>
+      </c>
+      <c r="F2169">
+        <v>2</v>
+      </c>
+      <c r="G2169">
+        <v>2</v>
+      </c>
+      <c r="H2169">
+        <v>13075.0183</v>
+      </c>
+      <c r="I2169">
+        <v>11320.015799999999</v>
+      </c>
+      <c r="J2169">
+        <v>11320.015799999999</v>
+      </c>
+      <c r="K2169">
+        <v>1</v>
+      </c>
+      <c r="L2169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2170" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2170" s="1">
+        <v>41529.704548611109</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2170">
+        <v>2</v>
+      </c>
+      <c r="E2170">
+        <v>3</v>
+      </c>
+      <c r="F2170">
+        <v>3</v>
+      </c>
+      <c r="G2170">
+        <v>2</v>
+      </c>
+      <c r="H2170">
+        <v>12710.0178</v>
+      </c>
+      <c r="I2170">
+        <v>3430.0048000000002</v>
+      </c>
+      <c r="J2170">
+        <v>3430.0048000000002</v>
+      </c>
+      <c r="K2170">
+        <v>0</v>
+      </c>
+      <c r="L2170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2171" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2171" s="1">
+        <v>41529.704687500001</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2171">
+        <v>2</v>
+      </c>
+      <c r="E2171">
+        <v>4</v>
+      </c>
+      <c r="F2171">
+        <v>1</v>
+      </c>
+      <c r="G2171">
+        <v>3</v>
+      </c>
+      <c r="H2171">
+        <v>12185.017099999999</v>
+      </c>
+      <c r="I2171">
+        <v>10720.014999999999</v>
+      </c>
+      <c r="J2171">
+        <v>6080.0084999999999</v>
+      </c>
+      <c r="K2171">
+        <v>0</v>
+      </c>
+      <c r="L2171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2172" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2172" s="1">
+        <v>41529.704826388886</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2172">
+        <v>2</v>
+      </c>
+      <c r="E2172">
+        <v>4</v>
+      </c>
+      <c r="F2172">
+        <v>2</v>
+      </c>
+      <c r="G2172">
+        <v>3</v>
+      </c>
+      <c r="H2172">
+        <v>11770.0165</v>
+      </c>
+      <c r="I2172">
+        <v>9990.0139999999992</v>
+      </c>
+      <c r="J2172">
+        <v>9990.0139999999992</v>
+      </c>
+      <c r="K2172">
+        <v>1</v>
+      </c>
+      <c r="L2172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2173" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2173" s="1">
+        <v>41529.704895833333</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2173">
+        <v>2</v>
+      </c>
+      <c r="E2173">
+        <v>4</v>
+      </c>
+      <c r="F2173">
+        <v>3</v>
+      </c>
+      <c r="G2173">
+        <v>3</v>
+      </c>
+      <c r="H2173">
+        <v>6040.0083999999997</v>
+      </c>
+      <c r="I2173">
+        <v>3630.0050999999999</v>
+      </c>
+      <c r="J2173">
+        <v>3630.0050999999999</v>
+      </c>
+      <c r="K2173">
+        <v>0</v>
+      </c>
+      <c r="L2173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2174" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2174" s="1">
+        <v>41529.705000000002</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2174">
+        <v>2</v>
+      </c>
+      <c r="E2174">
+        <v>5</v>
+      </c>
+      <c r="F2174">
+        <v>1</v>
+      </c>
+      <c r="G2174">
+        <v>2</v>
+      </c>
+      <c r="H2174">
+        <v>9250.0130000000008</v>
+      </c>
+      <c r="I2174">
+        <v>7585.0105999999996</v>
+      </c>
+      <c r="J2174">
+        <v>4185.0059000000001</v>
+      </c>
+      <c r="K2174">
+        <v>0</v>
+      </c>
+      <c r="L2174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2175" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2175" s="1">
+        <v>41529.705104166664</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2175">
+        <v>2</v>
+      </c>
+      <c r="E2175">
+        <v>5</v>
+      </c>
+      <c r="F2175">
+        <v>2</v>
+      </c>
+      <c r="G2175">
+        <v>2</v>
+      </c>
+      <c r="H2175">
+        <v>8705.0121999999992</v>
+      </c>
+      <c r="I2175">
+        <v>6990.0097999999998</v>
+      </c>
+      <c r="J2175">
+        <v>6990.0097999999998</v>
+      </c>
+      <c r="K2175">
+        <v>0</v>
+      </c>
+      <c r="L2175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2176" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2176" s="1">
+        <v>41529.705254629633</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2176">
+        <v>2</v>
+      </c>
+      <c r="E2176">
+        <v>5</v>
+      </c>
+      <c r="F2176">
+        <v>3</v>
+      </c>
+      <c r="G2176">
+        <v>1</v>
+      </c>
+      <c r="H2176">
+        <v>12805.017900000001</v>
+      </c>
+      <c r="I2176">
+        <v>11395.016</v>
+      </c>
+      <c r="J2176">
+        <v>11395.016</v>
+      </c>
+      <c r="K2176">
+        <v>1</v>
+      </c>
+      <c r="L2176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2177" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2177" s="1">
+        <v>41529.705358796295</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2177">
+        <v>2</v>
+      </c>
+      <c r="E2177">
+        <v>6</v>
+      </c>
+      <c r="F2177">
+        <v>1</v>
+      </c>
+      <c r="G2177">
+        <v>3</v>
+      </c>
+      <c r="H2177">
+        <v>9590.0133999999998</v>
+      </c>
+      <c r="I2177">
+        <v>7985.0111999999999</v>
+      </c>
+      <c r="J2177">
+        <v>4330.0060000000003</v>
+      </c>
+      <c r="K2177">
+        <v>0</v>
+      </c>
+      <c r="L2177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2178" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2178" s="1">
+        <v>41529.70548611111</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2178">
+        <v>2</v>
+      </c>
+      <c r="E2178">
+        <v>6</v>
+      </c>
+      <c r="F2178">
+        <v>2</v>
+      </c>
+      <c r="G2178">
+        <v>0</v>
+      </c>
+      <c r="H2178">
+        <v>10210.014300000001</v>
+      </c>
+      <c r="I2178">
+        <v>8695.0121999999992</v>
+      </c>
+      <c r="J2178">
+        <v>8695.0121999999992</v>
+      </c>
+      <c r="K2178">
+        <v>1</v>
+      </c>
+      <c r="L2178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2179" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2179" s="1">
+        <v>41529.705601851849</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2179">
+        <v>2</v>
+      </c>
+      <c r="E2179">
+        <v>6</v>
+      </c>
+      <c r="F2179">
+        <v>3</v>
+      </c>
+      <c r="G2179">
+        <v>0</v>
+      </c>
+      <c r="H2179">
+        <v>10615.0149</v>
+      </c>
+      <c r="I2179">
+        <v>9110.0128000000004</v>
+      </c>
+      <c r="J2179">
+        <v>9110.0128000000004</v>
+      </c>
+      <c r="K2179">
+        <v>2</v>
+      </c>
+      <c r="L2179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2180" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2180" s="1">
+        <v>41529.706273148149</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2180">
+        <v>3</v>
+      </c>
+      <c r="E2180">
+        <v>1</v>
+      </c>
+      <c r="F2180">
+        <v>1</v>
+      </c>
+      <c r="G2180">
+        <v>3</v>
+      </c>
+      <c r="H2180">
+        <v>53070.0743</v>
+      </c>
+      <c r="I2180">
+        <v>49270.069000000003</v>
+      </c>
+      <c r="J2180">
+        <v>9995.0139999999992</v>
+      </c>
+      <c r="K2180">
+        <v>3</v>
+      </c>
+      <c r="L2180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2181" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2181" s="1">
+        <v>41529.706412037034</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2181">
+        <v>3</v>
+      </c>
+      <c r="E2181">
+        <v>1</v>
+      </c>
+      <c r="F2181">
+        <v>2</v>
+      </c>
+      <c r="G2181">
+        <v>2</v>
+      </c>
+      <c r="H2181">
+        <v>12020.016799999999</v>
+      </c>
+      <c r="I2181">
+        <v>9890.0138999999999</v>
+      </c>
+      <c r="J2181">
+        <v>9890.0138999999999</v>
+      </c>
+      <c r="K2181">
+        <v>1</v>
+      </c>
+      <c r="L2181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2182" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2182" s="1">
+        <v>41529.706550925926</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2182">
+        <v>3</v>
+      </c>
+      <c r="E2182">
+        <v>1</v>
+      </c>
+      <c r="F2182">
+        <v>3</v>
+      </c>
+      <c r="G2182">
+        <v>3</v>
+      </c>
+      <c r="H2182">
+        <v>12685.0177</v>
+      </c>
+      <c r="I2182">
+        <v>10975.015299999999</v>
+      </c>
+      <c r="J2182">
+        <v>10975.015299999999</v>
+      </c>
+      <c r="K2182">
+        <v>1</v>
+      </c>
+      <c r="L2182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2183" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2183" s="1">
+        <v>41529.706724537034</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2183">
+        <v>3</v>
+      </c>
+      <c r="E2183">
+        <v>2</v>
+      </c>
+      <c r="F2183">
+        <v>1</v>
+      </c>
+      <c r="G2183">
+        <v>3</v>
+      </c>
+      <c r="H2183">
+        <v>14935.0209</v>
+      </c>
+      <c r="I2183">
+        <v>13515.019</v>
+      </c>
+      <c r="J2183">
+        <v>3660.0052000000001</v>
+      </c>
+      <c r="K2183">
+        <v>0</v>
+      </c>
+      <c r="L2183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2184" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2184" s="1">
+        <v>41529.706875000003</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2184">
+        <v>3</v>
+      </c>
+      <c r="E2184">
+        <v>2</v>
+      </c>
+      <c r="F2184">
+        <v>2</v>
+      </c>
+      <c r="G2184">
+        <v>3</v>
+      </c>
+      <c r="H2184">
+        <v>12380.0173</v>
+      </c>
+      <c r="I2184">
+        <v>9795.0136999999995</v>
+      </c>
+      <c r="J2184">
+        <v>9795.0136999999995</v>
+      </c>
+      <c r="K2184">
+        <v>1</v>
+      </c>
+      <c r="L2184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2185" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2185" s="1">
+        <v>41529.707025462965</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2185">
+        <v>3</v>
+      </c>
+      <c r="E2185">
+        <v>2</v>
+      </c>
+      <c r="F2185">
+        <v>3</v>
+      </c>
+      <c r="G2185">
+        <v>0</v>
+      </c>
+      <c r="H2185">
+        <v>13655.0191</v>
+      </c>
+      <c r="I2185">
+        <v>11945.0167</v>
+      </c>
+      <c r="J2185">
+        <v>11945.0167</v>
+      </c>
+      <c r="K2185">
+        <v>1</v>
+      </c>
+      <c r="L2185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2186" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2186" s="1">
+        <v>41529.707199074073</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2186">
+        <v>3</v>
+      </c>
+      <c r="E2186">
+        <v>3</v>
+      </c>
+      <c r="F2186">
+        <v>1</v>
+      </c>
+      <c r="G2186">
+        <v>3</v>
+      </c>
+      <c r="H2186">
+        <v>14240.019899999999</v>
+      </c>
+      <c r="I2186">
+        <v>10685.0149</v>
+      </c>
+      <c r="J2186">
+        <v>6150.0086000000001</v>
+      </c>
+      <c r="K2186">
+        <v>0</v>
+      </c>
+      <c r="L2186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2187" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2187" s="1">
+        <v>41529.707395833335</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2187">
+        <v>3</v>
+      </c>
+      <c r="E2187">
+        <v>3</v>
+      </c>
+      <c r="F2187">
+        <v>2</v>
+      </c>
+      <c r="G2187">
+        <v>1</v>
+      </c>
+      <c r="H2187">
+        <v>17620.024700000002</v>
+      </c>
+      <c r="I2187">
+        <v>16105.022499999999</v>
+      </c>
+      <c r="J2187">
+        <v>16105.022499999999</v>
+      </c>
+      <c r="K2187">
+        <v>1</v>
+      </c>
+      <c r="L2187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2188" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2188" s="1">
+        <v>41529.707546296297</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2188">
+        <v>3</v>
+      </c>
+      <c r="E2188">
+        <v>3</v>
+      </c>
+      <c r="F2188">
+        <v>3</v>
+      </c>
+      <c r="G2188">
+        <v>3</v>
+      </c>
+      <c r="H2188">
+        <v>12540.017599999999</v>
+      </c>
+      <c r="I2188">
+        <v>10945.0154</v>
+      </c>
+      <c r="J2188">
+        <v>10945.0154</v>
+      </c>
+      <c r="K2188">
+        <v>1</v>
+      </c>
+      <c r="L2188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2189" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2189" s="1">
+        <v>41529.707627314812</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2189">
+        <v>3</v>
+      </c>
+      <c r="E2189">
+        <v>4</v>
+      </c>
+      <c r="F2189">
+        <v>1</v>
+      </c>
+      <c r="G2189">
+        <v>0</v>
+      </c>
+      <c r="H2189">
+        <v>7310.0101999999997</v>
+      </c>
+      <c r="I2189">
+        <v>4855.0068000000001</v>
+      </c>
+      <c r="J2189">
+        <v>3175.0043999999998</v>
+      </c>
+      <c r="K2189">
+        <v>0</v>
+      </c>
+      <c r="L2189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2190" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2190" s="1">
+        <v>41529.707743055558</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2190">
+        <v>3</v>
+      </c>
+      <c r="E2190">
+        <v>4</v>
+      </c>
+      <c r="F2190">
+        <v>2</v>
+      </c>
+      <c r="G2190">
+        <v>0</v>
+      </c>
+      <c r="H2190">
+        <v>9790.0136999999995</v>
+      </c>
+      <c r="I2190">
+        <v>7745.0108</v>
+      </c>
+      <c r="J2190">
+        <v>7745.0108</v>
+      </c>
+      <c r="K2190">
+        <v>1</v>
+      </c>
+      <c r="L2190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2191" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2191" s="1">
+        <v>41529.707870370374</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2191">
+        <v>3</v>
+      </c>
+      <c r="E2191">
+        <v>4</v>
+      </c>
+      <c r="F2191">
+        <v>3</v>
+      </c>
+      <c r="G2191">
+        <v>0</v>
+      </c>
+      <c r="H2191">
+        <v>11435.016</v>
+      </c>
+      <c r="I2191">
+        <v>9880.0138000000006</v>
+      </c>
+      <c r="J2191">
+        <v>9880.0138000000006</v>
+      </c>
+      <c r="K2191">
+        <v>3</v>
+      </c>
+      <c r="L2191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2192" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2192" s="1">
+        <v>41529.707986111112</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2192">
+        <v>3</v>
+      </c>
+      <c r="E2192">
+        <v>5</v>
+      </c>
+      <c r="F2192">
+        <v>1</v>
+      </c>
+      <c r="G2192">
+        <v>1</v>
+      </c>
+      <c r="H2192">
+        <v>9800.0136999999995</v>
+      </c>
+      <c r="I2192">
+        <v>8580.0120000000006</v>
+      </c>
+      <c r="J2192">
+        <v>4105.0056999999997</v>
+      </c>
+      <c r="K2192">
+        <v>0</v>
+      </c>
+      <c r="L2192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2193" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2193" s="1">
+        <v>41529.708032407405</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2193">
+        <v>3</v>
+      </c>
+      <c r="E2193">
+        <v>5</v>
+      </c>
+      <c r="F2193">
+        <v>2</v>
+      </c>
+      <c r="G2193">
+        <v>1</v>
+      </c>
+      <c r="H2193">
+        <v>4260.0060000000003</v>
+      </c>
+      <c r="I2193">
+        <v>2840.0039999999999</v>
+      </c>
+      <c r="J2193">
+        <v>2840.0039999999999</v>
+      </c>
+      <c r="K2193">
+        <v>0</v>
+      </c>
+      <c r="L2193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2194" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2194" s="1">
+        <v>41529.708148148151</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2194">
+        <v>3</v>
+      </c>
+      <c r="E2194">
+        <v>5</v>
+      </c>
+      <c r="F2194">
+        <v>3</v>
+      </c>
+      <c r="G2194">
+        <v>2</v>
+      </c>
+      <c r="H2194">
+        <v>9135.0128000000004</v>
+      </c>
+      <c r="I2194">
+        <v>7775.0109000000002</v>
+      </c>
+      <c r="J2194">
+        <v>7775.0109000000002</v>
+      </c>
+      <c r="K2194">
+        <v>1</v>
+      </c>
+      <c r="L2194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2195" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2195" s="1">
+        <v>41529.708240740743</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2195">
+        <v>3</v>
+      </c>
+      <c r="E2195">
+        <v>6</v>
+      </c>
+      <c r="F2195">
+        <v>1</v>
+      </c>
+      <c r="G2195">
+        <v>1</v>
+      </c>
+      <c r="H2195">
+        <v>8130.0114000000003</v>
+      </c>
+      <c r="I2195">
+        <v>6910.0096999999996</v>
+      </c>
+      <c r="J2195">
+        <v>2485.0034999999998</v>
+      </c>
+      <c r="K2195">
+        <v>0</v>
+      </c>
+      <c r="L2195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2196" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2196" s="1">
+        <v>41529.708333333336</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2196">
+        <v>3</v>
+      </c>
+      <c r="E2196">
+        <v>6</v>
+      </c>
+      <c r="F2196">
+        <v>2</v>
+      </c>
+      <c r="G2196">
+        <v>0</v>
+      </c>
+      <c r="H2196">
+        <v>8035.0111999999999</v>
+      </c>
+      <c r="I2196">
+        <v>6845.0095000000001</v>
+      </c>
+      <c r="J2196">
+        <v>6845.0095000000001</v>
+      </c>
+      <c r="K2196">
+        <v>1</v>
+      </c>
+      <c r="L2196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2197" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2197" s="1">
+        <v>41529.708553240744</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2197">
+        <v>3</v>
+      </c>
+      <c r="E2197">
+        <v>6</v>
+      </c>
+      <c r="F2197">
+        <v>3</v>
+      </c>
+      <c r="G2197">
+        <v>2</v>
+      </c>
+      <c r="H2197">
+        <v>19310.027099999999</v>
+      </c>
+      <c r="I2197">
+        <v>17855.025000000001</v>
+      </c>
+      <c r="J2197">
+        <v>17855.025000000001</v>
+      </c>
+      <c r="K2197">
+        <v>4</v>
+      </c>
+      <c r="L2197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2198" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2198" s="1">
+        <v>41529.708773148152</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2198">
+        <v>1</v>
+      </c>
+      <c r="E2198">
+        <v>1</v>
+      </c>
+      <c r="F2198">
+        <v>1</v>
+      </c>
+      <c r="G2198">
+        <v>0</v>
+      </c>
+      <c r="H2198">
+        <v>11910.016600000001</v>
+      </c>
+      <c r="I2198">
+        <v>16610.0232</v>
+      </c>
+      <c r="J2198">
+        <v>2680.0037000000002</v>
+      </c>
+      <c r="K2198">
+        <v>1</v>
+      </c>
+      <c r="L2198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2199" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2199" s="1">
+        <v>41529.708819444444</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2199">
+        <v>1</v>
+      </c>
+      <c r="E2199">
+        <v>1</v>
+      </c>
+      <c r="F2199">
+        <v>2</v>
+      </c>
+      <c r="G2199">
+        <v>0</v>
+      </c>
+      <c r="H2199">
+        <v>4425.0061999999998</v>
+      </c>
+      <c r="I2199">
+        <v>3035.0041999999999</v>
+      </c>
+      <c r="J2199">
+        <v>3035.0041999999999</v>
+      </c>
+      <c r="K2199">
+        <v>0</v>
+      </c>
+      <c r="L2199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2200" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2200" s="1">
+        <v>41529.708865740744</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2200">
+        <v>1</v>
+      </c>
+      <c r="E2200">
+        <v>1</v>
+      </c>
+      <c r="F2200">
+        <v>3</v>
+      </c>
+      <c r="G2200">
+        <v>0</v>
+      </c>
+      <c r="H2200">
+        <v>4270.0060000000003</v>
+      </c>
+      <c r="I2200">
+        <v>2905.0039999999999</v>
+      </c>
+      <c r="J2200">
+        <v>2905.0039999999999</v>
+      </c>
+      <c r="K2200">
+        <v>0</v>
+      </c>
+      <c r="L2200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2201" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2201" s="1">
+        <v>41529.708969907406</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2201">
+        <v>1</v>
+      </c>
+      <c r="E2201">
+        <v>2</v>
+      </c>
+      <c r="F2201">
+        <v>1</v>
+      </c>
+      <c r="G2201">
+        <v>2</v>
+      </c>
+      <c r="H2201">
+        <v>9065.0126999999993</v>
+      </c>
+      <c r="I2201">
+        <v>7770.0109000000002</v>
+      </c>
+      <c r="J2201">
+        <v>4245.0059000000001</v>
+      </c>
+      <c r="K2201">
+        <v>0</v>
+      </c>
+      <c r="L2201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2202" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2202" s="1">
+        <v>41529.709050925929</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2202">
+        <v>1</v>
+      </c>
+      <c r="E2202">
+        <v>2</v>
+      </c>
+      <c r="F2202">
+        <v>2</v>
+      </c>
+      <c r="G2202">
+        <v>2</v>
+      </c>
+      <c r="H2202">
+        <v>6460.0091000000002</v>
+      </c>
+      <c r="I2202">
+        <v>4930.0069000000003</v>
+      </c>
+      <c r="J2202">
+        <v>4930.0069000000003</v>
+      </c>
+      <c r="K2202">
+        <v>0</v>
+      </c>
+      <c r="L2202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2203" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2203" s="1">
+        <v>41529.709120370368</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2203">
+        <v>1</v>
+      </c>
+      <c r="E2203">
+        <v>2</v>
+      </c>
+      <c r="F2203">
+        <v>3</v>
+      </c>
+      <c r="G2203">
+        <v>2</v>
+      </c>
+      <c r="H2203">
+        <v>5900.0082000000002</v>
+      </c>
+      <c r="I2203">
+        <v>4330.0060000000003</v>
+      </c>
+      <c r="J2203">
+        <v>4330.0060000000003</v>
+      </c>
+      <c r="K2203">
+        <v>0</v>
+      </c>
+      <c r="L2203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2204" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2204" s="1">
+        <v>41529.709178240744</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2204">
+        <v>1</v>
+      </c>
+      <c r="E2204">
+        <v>3</v>
+      </c>
+      <c r="F2204">
+        <v>1</v>
+      </c>
+      <c r="G2204">
+        <v>0</v>
+      </c>
+      <c r="H2204">
+        <v>5230.0073000000002</v>
+      </c>
+      <c r="I2204">
+        <v>3960.0055000000002</v>
+      </c>
+      <c r="J2204">
+        <v>2595.0036</v>
+      </c>
+      <c r="K2204">
+        <v>0</v>
+      </c>
+      <c r="L2204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2205" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2205" s="1">
+        <v>41529.70925925926</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2205">
+        <v>1</v>
+      </c>
+      <c r="E2205">
+        <v>3</v>
+      </c>
+      <c r="F2205">
+        <v>2</v>
+      </c>
+      <c r="G2205">
+        <v>0</v>
+      </c>
+      <c r="H2205">
+        <v>7500.0105000000003</v>
+      </c>
+      <c r="I2205">
+        <v>2760.0038</v>
+      </c>
+      <c r="J2205">
+        <v>2760.0038</v>
+      </c>
+      <c r="K2205">
+        <v>0</v>
+      </c>
+      <c r="L2205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2206" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2206" s="1">
+        <v>41529.709317129629</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2206">
+        <v>1</v>
+      </c>
+      <c r="E2206">
+        <v>3</v>
+      </c>
+      <c r="F2206">
+        <v>3</v>
+      </c>
+      <c r="G2206">
+        <v>0</v>
+      </c>
+      <c r="H2206">
+        <v>4180.0059000000001</v>
+      </c>
+      <c r="I2206">
+        <v>3040.0043000000001</v>
+      </c>
+      <c r="J2206">
+        <v>3040.0043000000001</v>
+      </c>
+      <c r="K2206">
+        <v>0</v>
+      </c>
+      <c r="L2206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2207" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2207" s="1">
+        <v>41529.709398148145</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2207">
+        <v>1</v>
+      </c>
+      <c r="E2207">
+        <v>4</v>
+      </c>
+      <c r="F2207">
+        <v>1</v>
+      </c>
+      <c r="G2207">
+        <v>3</v>
+      </c>
+      <c r="H2207">
+        <v>7695.0108</v>
+      </c>
+      <c r="I2207">
+        <v>6535.0092000000004</v>
+      </c>
+      <c r="J2207">
+        <v>2860.0039999999999</v>
+      </c>
+      <c r="K2207">
+        <v>0</v>
+      </c>
+      <c r="L2207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2208" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2208" s="1">
+        <v>41529.709456018521</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2208">
+        <v>1</v>
+      </c>
+      <c r="E2208">
+        <v>4</v>
+      </c>
+      <c r="F2208">
+        <v>2</v>
+      </c>
+      <c r="G2208">
+        <v>3</v>
+      </c>
+      <c r="H2208">
+        <v>4555.0063</v>
+      </c>
+      <c r="I2208">
+        <v>2790.0039000000002</v>
+      </c>
+      <c r="J2208">
+        <v>2790.0039000000002</v>
+      </c>
+      <c r="K2208">
+        <v>0</v>
+      </c>
+      <c r="L2208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2209" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2209" s="1">
+        <v>41529.709502314814</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2209">
+        <v>1</v>
+      </c>
+      <c r="E2209">
+        <v>4</v>
+      </c>
+      <c r="F2209">
+        <v>3</v>
+      </c>
+      <c r="G2209">
+        <v>3</v>
+      </c>
+      <c r="H2209">
+        <v>3840.0054</v>
+      </c>
+      <c r="I2209">
+        <v>2630.0037000000002</v>
+      </c>
+      <c r="J2209">
+        <v>2630.0037000000002</v>
+      </c>
+      <c r="K2209">
+        <v>0</v>
+      </c>
+      <c r="L2209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2210" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2210" s="1">
+        <v>41529.709641203706</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2210">
+        <v>1</v>
+      </c>
+      <c r="E2210">
+        <v>5</v>
+      </c>
+      <c r="F2210">
+        <v>1</v>
+      </c>
+      <c r="G2210">
+        <v>1</v>
+      </c>
+      <c r="H2210">
+        <v>12325.0173</v>
+      </c>
+      <c r="I2210">
+        <v>11155.015600000001</v>
+      </c>
+      <c r="J2210">
+        <v>2790.0039000000002</v>
+      </c>
+      <c r="K2210">
+        <v>0</v>
+      </c>
+      <c r="L2210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2211" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2211" s="1">
+        <v>41529.709699074076</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2211">
+        <v>1</v>
+      </c>
+      <c r="E2211">
+        <v>5</v>
+      </c>
+      <c r="F2211">
+        <v>2</v>
+      </c>
+      <c r="G2211">
+        <v>1</v>
+      </c>
+      <c r="H2211">
+        <v>4830.0066999999999</v>
+      </c>
+      <c r="I2211">
+        <v>3085.0043000000001</v>
+      </c>
+      <c r="J2211">
+        <v>3085.0043000000001</v>
+      </c>
+      <c r="K2211">
+        <v>0</v>
+      </c>
+      <c r="L2211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2212" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2212" s="1">
+        <v>41529.709745370368</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2212">
+        <v>1</v>
+      </c>
+      <c r="E2212">
+        <v>5</v>
+      </c>
+      <c r="F2212">
+        <v>3</v>
+      </c>
+      <c r="G2212">
+        <v>1</v>
+      </c>
+      <c r="H2212">
+        <v>3995.0056</v>
+      </c>
+      <c r="I2212">
+        <v>2980.0041000000001</v>
+      </c>
+      <c r="J2212">
+        <v>2980.0041000000001</v>
+      </c>
+      <c r="K2212">
+        <v>0</v>
+      </c>
+      <c r="L2212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2213" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2213" s="1">
+        <v>41529.709872685184</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2213">
+        <v>1</v>
+      </c>
+      <c r="E2213">
+        <v>6</v>
+      </c>
+      <c r="F2213">
+        <v>1</v>
+      </c>
+      <c r="G2213">
+        <v>3</v>
+      </c>
+      <c r="H2213">
+        <v>10720.014999999999</v>
+      </c>
+      <c r="I2213">
+        <v>9405.0131000000001</v>
+      </c>
+      <c r="J2213">
+        <v>4380.0060999999996</v>
+      </c>
+      <c r="K2213">
+        <v>0</v>
+      </c>
+      <c r="L2213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2214" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2214" s="1">
+        <v>41529.709918981483</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2214">
+        <v>1</v>
+      </c>
+      <c r="E2214">
+        <v>6</v>
+      </c>
+      <c r="F2214">
+        <v>2</v>
+      </c>
+      <c r="G2214">
+        <v>3</v>
+      </c>
+      <c r="H2214">
+        <v>4185.0059000000001</v>
+      </c>
+      <c r="I2214">
+        <v>2490.0034999999998</v>
+      </c>
+      <c r="J2214">
+        <v>2490.0034999999998</v>
+      </c>
+      <c r="K2214">
+        <v>0</v>
+      </c>
+      <c r="L2214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2215" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2215" s="1">
+        <v>41529.709976851853</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2215">
+        <v>1</v>
+      </c>
+      <c r="E2215">
+        <v>6</v>
+      </c>
+      <c r="F2215">
+        <v>3</v>
+      </c>
+      <c r="G2215">
+        <v>3</v>
+      </c>
+      <c r="H2215">
+        <v>5160.0072</v>
+      </c>
+      <c r="I2215">
+        <v>3950.0055000000002</v>
+      </c>
+      <c r="J2215">
+        <v>3950.0055000000002</v>
+      </c>
+      <c r="K2215">
+        <v>0</v>
+      </c>
+      <c r="L2215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2216" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2216" s="1">
+        <v>41529.710648148146</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2216">
+        <v>1</v>
+      </c>
+      <c r="E2216">
+        <v>1</v>
+      </c>
+      <c r="F2216">
+        <v>1</v>
+      </c>
+      <c r="G2216">
+        <v>2</v>
+      </c>
+      <c r="H2216">
+        <v>49461.270700000001</v>
+      </c>
+      <c r="I2216">
+        <v>63514602200471.297</v>
+      </c>
+      <c r="J2216">
+        <v>26471.238499999999</v>
+      </c>
+      <c r="K2216">
+        <v>0</v>
+      </c>
+      <c r="L2216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2217" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2217" s="1">
+        <v>41529.710949074077</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2217">
+        <v>1</v>
+      </c>
+      <c r="E2217">
+        <v>1</v>
+      </c>
+      <c r="F2217">
+        <v>2</v>
+      </c>
+      <c r="G2217">
+        <v>2</v>
+      </c>
+      <c r="H2217">
+        <v>25896.1878</v>
+      </c>
+      <c r="I2217">
+        <v>22156.182499999999</v>
+      </c>
+      <c r="J2217">
+        <v>17581.176100000001</v>
+      </c>
+      <c r="K2217">
+        <v>0</v>
+      </c>
+      <c r="L2217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2218" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2218" s="1">
+        <v>41529.711145833331</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2218">
+        <v>1</v>
+      </c>
+      <c r="E2218">
+        <v>1</v>
+      </c>
+      <c r="F2218">
+        <v>3</v>
+      </c>
+      <c r="G2218">
+        <v>2</v>
+      </c>
+      <c r="H2218">
+        <v>16956.088</v>
+      </c>
+      <c r="I2218">
+        <v>13011.082399999999</v>
+      </c>
+      <c r="J2218">
+        <v>9621.0776999999998</v>
+      </c>
+      <c r="K2218">
+        <v>0</v>
+      </c>
+      <c r="L2218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2219" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2219" s="1">
+        <v>41529.711388888885</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2219">
+        <v>1</v>
+      </c>
+      <c r="E2219">
+        <v>2</v>
+      </c>
+      <c r="F2219">
+        <v>1</v>
+      </c>
+      <c r="G2219">
+        <v>3</v>
+      </c>
+      <c r="H2219">
+        <v>20904.160599999999</v>
+      </c>
+      <c r="I2219">
+        <v>18614.1574</v>
+      </c>
+      <c r="J2219">
+        <v>15194.152599999999</v>
+      </c>
+      <c r="K2219">
+        <v>0</v>
+      </c>
+      <c r="L2219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2220" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2220" s="1">
+        <v>41529.71162037037</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2220">
+        <v>1</v>
+      </c>
+      <c r="E2220">
+        <v>2</v>
+      </c>
+      <c r="F2220">
+        <v>2</v>
+      </c>
+      <c r="G2220">
+        <v>3</v>
+      </c>
+      <c r="H2220">
+        <v>19895.084800000001</v>
+      </c>
+      <c r="I2220">
+        <v>17605.081600000001</v>
+      </c>
+      <c r="J2220">
+        <v>10725.071900000001</v>
+      </c>
+      <c r="K2220">
+        <v>0</v>
+      </c>
+      <c r="L2220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2221" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2221" s="1">
+        <v>41529.711909722224</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2221">
+        <v>1</v>
+      </c>
+      <c r="E2221">
+        <v>2</v>
+      </c>
+      <c r="F2221">
+        <v>3</v>
+      </c>
+      <c r="G2221">
+        <v>3</v>
+      </c>
+      <c r="H2221">
+        <v>24952.121200000001</v>
+      </c>
+      <c r="I2221">
+        <v>20357.114799999999</v>
+      </c>
+      <c r="J2221">
+        <v>16692.1096</v>
+      </c>
+      <c r="K2221">
+        <v>0</v>
+      </c>
+      <c r="L2221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2222" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2222" s="1">
+        <v>41529.712129629632</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2222">
+        <v>1</v>
+      </c>
+      <c r="E2222">
+        <v>3</v>
+      </c>
+      <c r="F2222">
+        <v>1</v>
+      </c>
+      <c r="G2222">
+        <v>1</v>
+      </c>
+      <c r="H2222">
+        <v>19125.088500000002</v>
+      </c>
+      <c r="I2222">
+        <v>16880.085299999999</v>
+      </c>
+      <c r="J2222">
+        <v>14010.0813</v>
+      </c>
+      <c r="K2222">
+        <v>0</v>
+      </c>
+      <c r="L2222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2223" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2223" s="1">
+        <v>41529.712291666663</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2223">
+        <v>1</v>
+      </c>
+      <c r="E2223">
+        <v>3</v>
+      </c>
+      <c r="F2223">
+        <v>2</v>
+      </c>
+      <c r="G2223">
+        <v>1</v>
+      </c>
+      <c r="H2223">
+        <v>13939.072200000001</v>
+      </c>
+      <c r="I2223">
+        <v>11319.068499999999</v>
+      </c>
+      <c r="J2223">
+        <v>9014.0653000000002</v>
+      </c>
+      <c r="K2223">
+        <v>0</v>
+      </c>
+      <c r="L2223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2224" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2224" s="1">
+        <v>41529.712430555555</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2224">
+        <v>1</v>
+      </c>
+      <c r="E2224">
+        <v>3</v>
+      </c>
+      <c r="F2224">
+        <v>3</v>
+      </c>
+      <c r="G2224">
+        <v>1</v>
+      </c>
+      <c r="H2224">
+        <v>12627.0669</v>
+      </c>
+      <c r="I2224">
+        <v>10342.063700000001</v>
+      </c>
+      <c r="J2224">
+        <v>7447.0596999999998</v>
+      </c>
+      <c r="K2224">
+        <v>0</v>
+      </c>
+      <c r="L2224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2225" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2225" s="1">
+        <v>41529.712581018517</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2225">
+        <v>1</v>
+      </c>
+      <c r="E2225">
+        <v>4</v>
+      </c>
+      <c r="F2225">
+        <v>1</v>
+      </c>
+      <c r="G2225">
+        <v>2</v>
+      </c>
+      <c r="H2225">
+        <v>12568.068799999999</v>
+      </c>
+      <c r="I2225">
+        <v>10608.0661</v>
+      </c>
+      <c r="J2225">
+        <v>7593.0618999999997</v>
+      </c>
+      <c r="K2225">
+        <v>0</v>
+      </c>
+      <c r="L2225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2226" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2226" s="1">
+        <v>41529.712766203702</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2226">
+        <v>1</v>
+      </c>
+      <c r="E2226">
+        <v>4</v>
+      </c>
+      <c r="F2226">
+        <v>2</v>
+      </c>
+      <c r="G2226">
+        <v>2</v>
+      </c>
+      <c r="H2226">
+        <v>16464.0743</v>
+      </c>
+      <c r="I2226">
+        <v>14169.071099999999</v>
+      </c>
+      <c r="J2226">
+        <v>8349.0630000000001</v>
+      </c>
+      <c r="K2226">
+        <v>0</v>
+      </c>
+      <c r="L2226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2227" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2227" s="1">
+        <v>41529.712962962964</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2227">
+        <v>1</v>
+      </c>
+      <c r="E2227">
+        <v>4</v>
+      </c>
+      <c r="F2227">
+        <v>3</v>
+      </c>
+      <c r="G2227">
+        <v>2</v>
+      </c>
+      <c r="H2227">
+        <v>16872.061699999998</v>
+      </c>
+      <c r="I2227">
+        <v>13937.0576</v>
+      </c>
+      <c r="J2227">
+        <v>11477.054099999999</v>
+      </c>
+      <c r="K2227">
+        <v>0</v>
+      </c>
+      <c r="L2227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2228" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2228" s="1">
+        <v>41529.713148148148</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2228">
+        <v>1</v>
+      </c>
+      <c r="E2228">
+        <v>5</v>
+      </c>
+      <c r="F2228">
+        <v>1</v>
+      </c>
+      <c r="G2228">
+        <v>3</v>
+      </c>
+      <c r="H2228">
+        <v>15911.0767</v>
+      </c>
+      <c r="I2228">
+        <v>12646.072099999999</v>
+      </c>
+      <c r="J2228">
+        <v>7921.0654999999997</v>
+      </c>
+      <c r="K2228">
+        <v>0</v>
+      </c>
+      <c r="L2228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2229" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2229" s="1">
+        <v>41529.713599537034</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2229">
+        <v>1</v>
+      </c>
+      <c r="E2229">
+        <v>5</v>
+      </c>
+      <c r="F2229">
+        <v>2</v>
+      </c>
+      <c r="G2229">
+        <v>3</v>
+      </c>
+      <c r="H2229">
+        <v>38602.114200000004</v>
+      </c>
+      <c r="I2229">
+        <v>36647.111400000002</v>
+      </c>
+      <c r="J2229">
+        <v>32762.106</v>
+      </c>
+      <c r="K2229">
+        <v>0</v>
+      </c>
+      <c r="L2229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2230" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2230" s="1">
+        <v>41529.713993055557</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2230">
+        <v>1</v>
+      </c>
+      <c r="E2230">
+        <v>5</v>
+      </c>
+      <c r="F2230">
+        <v>3</v>
+      </c>
+      <c r="G2230">
+        <v>3</v>
+      </c>
+      <c r="H2230">
+        <v>34758.125200000002</v>
+      </c>
+      <c r="I2230">
+        <v>32703.1224</v>
+      </c>
+      <c r="J2230">
+        <v>27468.115000000002</v>
+      </c>
+      <c r="K2230">
+        <v>0</v>
+      </c>
+      <c r="L2230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2231" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2231" s="1">
+        <v>41529.714166666665</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2231">
+        <v>1</v>
+      </c>
+      <c r="E2231">
+        <v>6</v>
+      </c>
+      <c r="F2231">
+        <v>1</v>
+      </c>
+      <c r="G2231">
+        <v>2</v>
+      </c>
+      <c r="H2231">
+        <v>14691.077600000001</v>
+      </c>
+      <c r="I2231">
+        <v>11991.0738</v>
+      </c>
+      <c r="J2231">
+        <v>9046.0697</v>
+      </c>
+      <c r="K2231">
+        <v>0</v>
+      </c>
+      <c r="L2231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2232" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2232" s="1">
+        <v>41529.714398148149</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2232">
+        <v>1</v>
+      </c>
+      <c r="E2232">
+        <v>6</v>
+      </c>
+      <c r="F2232">
+        <v>2</v>
+      </c>
+      <c r="G2232">
+        <v>2</v>
+      </c>
+      <c r="H2232">
+        <v>19768.09</v>
+      </c>
+      <c r="I2232">
+        <v>16763.085800000001</v>
+      </c>
+      <c r="J2232">
+        <v>13743.0816</v>
+      </c>
+      <c r="K2232">
+        <v>0</v>
+      </c>
+      <c r="L2232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2233" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2233" s="1">
+        <v>41529.714606481481</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2233">
+        <v>1</v>
+      </c>
+      <c r="E2233">
+        <v>6</v>
+      </c>
+      <c r="F2233">
+        <v>3</v>
+      </c>
+      <c r="G2233">
+        <v>2</v>
+      </c>
+      <c r="H2233">
+        <v>17934.0756</v>
+      </c>
+      <c r="I2233">
+        <v>14494.0707</v>
+      </c>
+      <c r="J2233">
+        <v>8319.0620999999992</v>
+      </c>
+      <c r="K2233">
+        <v>0</v>
+      </c>
+      <c r="L2233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2234" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2234" s="1">
+        <v>41529.715150462966</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2234">
+        <v>3</v>
+      </c>
+      <c r="E2234">
+        <v>1</v>
+      </c>
+      <c r="F2234">
+        <v>1</v>
+      </c>
+      <c r="G2234">
+        <v>3</v>
+      </c>
+      <c r="H2234">
+        <v>36629.204400000002</v>
+      </c>
+      <c r="I2234">
+        <v>31994.197899999999</v>
+      </c>
+      <c r="J2234">
+        <v>15054.174199999999</v>
+      </c>
+      <c r="K2234">
+        <v>1</v>
+      </c>
+      <c r="L2234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2235" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2235" s="1">
+        <v>41529.715509259258</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2235">
+        <v>3</v>
+      </c>
+      <c r="E2235">
+        <v>1</v>
+      </c>
+      <c r="F2235">
+        <v>2</v>
+      </c>
+      <c r="G2235">
+        <v>3</v>
+      </c>
+      <c r="H2235">
+        <v>31515.044099999999</v>
+      </c>
+      <c r="I2235">
+        <v>28805.040300000001</v>
+      </c>
+      <c r="J2235">
+        <v>28805.040300000001</v>
+      </c>
+      <c r="K2235">
+        <v>3</v>
+      </c>
+      <c r="L2235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2236" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2236" s="1">
+        <v>41529.715671296297</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2236">
+        <v>3</v>
+      </c>
+      <c r="E2236">
+        <v>1</v>
+      </c>
+      <c r="F2236">
+        <v>3</v>
+      </c>
+      <c r="G2236">
+        <v>3</v>
+      </c>
+      <c r="H2236">
+        <v>13525.019</v>
+      </c>
+      <c r="I2236">
+        <v>10430.0146</v>
+      </c>
+      <c r="J2236">
+        <v>10430.0146</v>
+      </c>
+      <c r="K2236">
+        <v>0</v>
+      </c>
+      <c r="L2236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2237" s="1">
+        <v>41529.716145833336</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2237">
+        <v>3</v>
+      </c>
+      <c r="E2237">
+        <v>2</v>
+      </c>
+      <c r="F2237">
+        <v>1</v>
+      </c>
+      <c r="G2237">
+        <v>2</v>
+      </c>
+      <c r="H2237">
+        <v>41870.058599999997</v>
+      </c>
+      <c r="I2237">
+        <v>37700.052799999998</v>
+      </c>
+      <c r="J2237">
+        <v>28550.04</v>
+      </c>
+      <c r="K2237">
+        <v>1</v>
+      </c>
+      <c r="L2237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2238" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2238" s="1">
+        <v>41529.716458333336</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2238">
+        <v>3</v>
+      </c>
+      <c r="E2238">
+        <v>2</v>
+      </c>
+      <c r="F2238">
+        <v>2</v>
+      </c>
+      <c r="G2238">
+        <v>2</v>
+      </c>
+      <c r="H2238">
+        <v>26735.037400000001</v>
+      </c>
+      <c r="I2238">
+        <v>24335.034100000001</v>
+      </c>
+      <c r="J2238">
+        <v>24335.034100000001</v>
+      </c>
+      <c r="K2238">
+        <v>2</v>
+      </c>
+      <c r="L2238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2239" s="1">
+        <v>41529.716944444444</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2239">
+        <v>3</v>
+      </c>
+      <c r="E2239">
+        <v>2</v>
+      </c>
+      <c r="F2239">
+        <v>3</v>
+      </c>
+      <c r="G2239">
+        <v>0</v>
+      </c>
+      <c r="H2239">
+        <v>41566.344499999999</v>
+      </c>
+      <c r="I2239">
+        <v>39401.341500000002</v>
+      </c>
+      <c r="J2239">
+        <v>39401.341500000002</v>
+      </c>
+      <c r="K2239">
+        <v>2</v>
+      </c>
+      <c r="L2239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2240" s="1">
+        <v>41529.717361111114</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2240">
+        <v>3</v>
+      </c>
+      <c r="E2240">
+        <v>3</v>
+      </c>
+      <c r="F2240">
+        <v>1</v>
+      </c>
+      <c r="G2240">
+        <v>0</v>
+      </c>
+      <c r="H2240">
+        <v>36066.063099999999</v>
+      </c>
+      <c r="I2240">
+        <v>34266.060599999997</v>
+      </c>
+      <c r="J2240">
+        <v>31951.0573</v>
+      </c>
+      <c r="K2240">
+        <v>2</v>
+      </c>
+      <c r="L2240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2241" s="1">
+        <v>41529.717546296299</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2241">
+        <v>3</v>
+      </c>
+      <c r="E2241">
+        <v>3</v>
+      </c>
+      <c r="F2241">
+        <v>2</v>
+      </c>
+      <c r="G2241">
+        <v>0</v>
+      </c>
+      <c r="H2241">
+        <v>16070.022499999999</v>
+      </c>
+      <c r="I2241">
+        <v>12635.0177</v>
+      </c>
+      <c r="J2241">
+        <v>12635.0177</v>
+      </c>
+      <c r="K2241">
+        <v>0</v>
+      </c>
+      <c r="L2241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2242" s="1">
+        <v>41529.717743055553</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2242">
+        <v>3</v>
+      </c>
+      <c r="E2242">
+        <v>3</v>
+      </c>
+      <c r="F2242">
+        <v>3</v>
+      </c>
+      <c r="G2242">
+        <v>0</v>
+      </c>
+      <c r="H2242">
+        <v>17495.0245</v>
+      </c>
+      <c r="I2242">
+        <v>14830.0208</v>
+      </c>
+      <c r="J2242">
+        <v>14830.0208</v>
+      </c>
+      <c r="K2242">
+        <v>1</v>
+      </c>
+      <c r="L2242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2243" s="1">
+        <v>41529.718252314815</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2243">
+        <v>3</v>
+      </c>
+      <c r="E2243">
+        <v>4</v>
+      </c>
+      <c r="F2243">
+        <v>1</v>
+      </c>
+      <c r="G2243">
+        <v>1</v>
+      </c>
+      <c r="H2243">
+        <v>43800.061300000001</v>
+      </c>
+      <c r="I2243">
+        <v>41930.058700000001</v>
+      </c>
+      <c r="J2243">
+        <v>15015.021000000001</v>
+      </c>
+      <c r="K2243">
+        <v>1</v>
+      </c>
+      <c r="L2243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2244" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2244" s="1">
+        <v>41529.7187037037</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2244">
+        <v>3</v>
+      </c>
+      <c r="E2244">
+        <v>4</v>
+      </c>
+      <c r="F2244">
+        <v>2</v>
+      </c>
+      <c r="G2244">
+        <v>1</v>
+      </c>
+      <c r="H2244">
+        <v>38995.054600000003</v>
+      </c>
+      <c r="I2244">
+        <v>37325.052199999998</v>
+      </c>
+      <c r="J2244">
+        <v>37325.052199999998</v>
+      </c>
+      <c r="K2244">
+        <v>4</v>
+      </c>
+      <c r="L2244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2245" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2245" s="1">
+        <v>41529.719039351854</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2245">
+        <v>3</v>
+      </c>
+      <c r="E2245">
+        <v>4</v>
+      </c>
+      <c r="F2245">
+        <v>3</v>
+      </c>
+      <c r="G2245">
+        <v>0</v>
+      </c>
+      <c r="H2245">
+        <v>28560.04</v>
+      </c>
+      <c r="I2245">
+        <v>26485.037100000001</v>
+      </c>
+      <c r="J2245">
+        <v>26485.037100000001</v>
+      </c>
+      <c r="K2245">
+        <v>1</v>
+      </c>
+      <c r="L2245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2246" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2246" s="1">
+        <v>41529.719560185185</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2246">
+        <v>3</v>
+      </c>
+      <c r="E2246">
+        <v>5</v>
+      </c>
+      <c r="F2246">
+        <v>1</v>
+      </c>
+      <c r="G2246">
+        <v>3</v>
+      </c>
+      <c r="H2246">
+        <v>44816.197</v>
+      </c>
+      <c r="I2246">
+        <v>43101.194600000003</v>
+      </c>
+      <c r="J2246">
+        <v>31411.178199999998</v>
+      </c>
+      <c r="K2246">
+        <v>4</v>
+      </c>
+      <c r="L2246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2247" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2247" s="1">
+        <v>41529.720358796294</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2247">
+        <v>3</v>
+      </c>
+      <c r="E2247">
+        <v>5</v>
+      </c>
+      <c r="F2247">
+        <v>2</v>
+      </c>
+      <c r="G2247">
+        <v>2</v>
+      </c>
+      <c r="H2247">
+        <v>69300.096999999994</v>
+      </c>
+      <c r="I2247">
+        <v>67700.094800000006</v>
+      </c>
+      <c r="J2247">
+        <v>67700.094800000006</v>
+      </c>
+      <c r="K2247">
+        <v>4</v>
+      </c>
+      <c r="L2247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2248" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2248" s="1">
+        <v>41529.72152777778</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2248">
+        <v>3</v>
+      </c>
+      <c r="E2248">
+        <v>5</v>
+      </c>
+      <c r="F2248">
+        <v>3</v>
+      </c>
+      <c r="G2248">
+        <v>3</v>
+      </c>
+      <c r="H2248">
+        <v>101180.14169999999</v>
+      </c>
+      <c r="I2248">
+        <v>98780.138300000006</v>
+      </c>
+      <c r="J2248">
+        <v>98780.138300000006</v>
+      </c>
+      <c r="K2248">
+        <v>9</v>
+      </c>
+      <c r="L2248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2249" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2249" s="1">
+        <v>41529.72247685185</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2249">
+        <v>3</v>
+      </c>
+      <c r="E2249">
+        <v>6</v>
+      </c>
+      <c r="F2249">
+        <v>1</v>
+      </c>
+      <c r="G2249">
+        <v>2</v>
+      </c>
+      <c r="H2249">
+        <v>81909.480500000005</v>
+      </c>
+      <c r="I2249">
+        <v>22090.030900000002</v>
+      </c>
+      <c r="J2249">
+        <v>13330.018599999999</v>
+      </c>
+      <c r="K2249">
+        <v>1</v>
+      </c>
+      <c r="L2249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2250" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2250" s="1">
+        <v>41529.722592592596</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2250">
+        <v>3</v>
+      </c>
+      <c r="E2250">
+        <v>6</v>
+      </c>
+      <c r="F2250">
+        <v>2</v>
+      </c>
+      <c r="G2250">
+        <v>2</v>
+      </c>
+      <c r="H2250">
+        <v>9645.0134999999991</v>
+      </c>
+      <c r="I2250">
+        <v>8035.0111999999999</v>
+      </c>
+      <c r="J2250">
+        <v>8035.0111999999999</v>
+      </c>
+      <c r="K2250">
+        <v>0</v>
+      </c>
+      <c r="L2250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2251" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2251" s="1">
+        <v>41529.72278935185</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2251">
+        <v>3</v>
+      </c>
+      <c r="E2251">
+        <v>6</v>
+      </c>
+      <c r="F2251">
+        <v>3</v>
+      </c>
+      <c r="G2251">
+        <v>1</v>
+      </c>
+      <c r="H2251">
+        <v>16986.1466</v>
+      </c>
+      <c r="I2251">
+        <v>15121.144</v>
+      </c>
+      <c r="J2251">
+        <v>15121.144</v>
+      </c>
+      <c r="K2251">
+        <v>1</v>
+      </c>
+      <c r="L2251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2252" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2252" s="1">
+        <v>41529.723240740743</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2252">
+        <v>2</v>
+      </c>
+      <c r="E2252">
+        <v>1</v>
+      </c>
+      <c r="F2252">
+        <v>1</v>
+      </c>
+      <c r="G2252">
+        <v>3</v>
+      </c>
+      <c r="H2252">
+        <v>27066.091499999999</v>
+      </c>
+      <c r="I2252">
+        <v>63514603288195.102</v>
+      </c>
+      <c r="J2252">
+        <v>17676.078399999999</v>
+      </c>
+      <c r="K2252">
+        <v>0</v>
+      </c>
+      <c r="L2252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2253" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2253" s="1">
+        <v>41529.72347222222</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2253">
+        <v>2</v>
+      </c>
+      <c r="E2253">
+        <v>1</v>
+      </c>
+      <c r="F2253">
+        <v>2</v>
+      </c>
+      <c r="G2253">
+        <v>0</v>
+      </c>
+      <c r="H2253">
+        <v>20551.111400000002</v>
+      </c>
+      <c r="I2253">
+        <v>17481.107100000001</v>
+      </c>
+      <c r="J2253">
+        <v>16086.1052</v>
+      </c>
+      <c r="K2253">
+        <v>1</v>
+      </c>
+      <c r="L2253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2254" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2254" s="1">
+        <v>41529.723599537036</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2254">
+        <v>2</v>
+      </c>
+      <c r="E2254">
+        <v>1</v>
+      </c>
+      <c r="F2254">
+        <v>3</v>
+      </c>
+      <c r="G2254">
+        <v>0</v>
+      </c>
+      <c r="H2254">
+        <v>10312.059499999999</v>
+      </c>
+      <c r="I2254">
+        <v>8092.0564000000004</v>
+      </c>
+      <c r="J2254">
+        <v>6747.0545000000002</v>
+      </c>
+      <c r="K2254">
+        <v>0</v>
+      </c>
+      <c r="L2254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2255" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2255" s="1">
+        <v>41529.723726851851</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2255">
+        <v>2</v>
+      </c>
+      <c r="E2255">
+        <v>2</v>
+      </c>
+      <c r="F2255">
+        <v>1</v>
+      </c>
+      <c r="G2255">
+        <v>0</v>
+      </c>
+      <c r="H2255">
+        <v>11440.016</v>
+      </c>
+      <c r="I2255">
+        <v>8730.0121999999992</v>
+      </c>
+      <c r="J2255">
+        <v>7560.0105999999996</v>
+      </c>
+      <c r="K2255">
+        <v>0</v>
+      </c>
+      <c r="L2255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2256" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2256" s="1">
+        <v>41529.723900462966</v>
+      </c>
+      <c r="C2256" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2256">
+        <v>2</v>
+      </c>
+      <c r="E2256">
+        <v>2</v>
+      </c>
+      <c r="F2256">
+        <v>2</v>
+      </c>
+      <c r="G2256">
+        <v>1</v>
+      </c>
+      <c r="H2256">
+        <v>14615.066199999999</v>
+      </c>
+      <c r="I2256">
+        <v>12345.063</v>
+      </c>
+      <c r="J2256">
+        <v>8785.0580000000009</v>
+      </c>
+      <c r="K2256">
+        <v>0</v>
+      </c>
+      <c r="L2256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2257" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2257" s="1">
+        <v>41529.724050925928</v>
+      </c>
+      <c r="C2257" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2257">
+        <v>2</v>
+      </c>
+      <c r="E2257">
+        <v>2</v>
+      </c>
+      <c r="F2257">
+        <v>3</v>
+      </c>
+      <c r="G2257">
+        <v>0</v>
+      </c>
+      <c r="H2257">
+        <v>13537.126200000001</v>
+      </c>
+      <c r="I2257">
+        <v>10882.122499999999</v>
+      </c>
+      <c r="J2257">
+        <v>9567.1206000000002</v>
+      </c>
+      <c r="K2257">
+        <v>0</v>
+      </c>
+      <c r="L2257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2258" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2258" s="1">
+        <v>41529.724305555559</v>
+      </c>
+      <c r="C2258" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2258">
+        <v>2</v>
+      </c>
+      <c r="E2258">
+        <v>3</v>
+      </c>
+      <c r="F2258">
+        <v>1</v>
+      </c>
+      <c r="G2258">
+        <v>2</v>
+      </c>
+      <c r="H2258">
+        <v>21432.0923</v>
+      </c>
+      <c r="I2258">
+        <v>12212.079400000001</v>
+      </c>
+      <c r="J2258">
+        <v>9352.0753999999997</v>
+      </c>
+      <c r="K2258">
+        <v>0</v>
+      </c>
+      <c r="L2258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2259" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2259" s="1">
+        <v>41529.724456018521</v>
+      </c>
+      <c r="C2259" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2259">
+        <v>2</v>
+      </c>
+      <c r="E2259">
+        <v>3</v>
+      </c>
+      <c r="F2259">
+        <v>2</v>
+      </c>
+      <c r="G2259">
+        <v>1</v>
+      </c>
+      <c r="H2259">
+        <v>13735.070599999999</v>
+      </c>
+      <c r="I2259">
+        <v>11345.0672</v>
+      </c>
+      <c r="J2259">
+        <v>8985.0638999999992</v>
+      </c>
+      <c r="K2259">
+        <v>0</v>
+      </c>
+      <c r="L2259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2260" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2260" s="1">
+        <v>41529.724606481483</v>
+      </c>
+      <c r="C2260" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2260">
+        <v>2</v>
+      </c>
+      <c r="E2260">
+        <v>3</v>
+      </c>
+      <c r="F2260">
+        <v>3</v>
+      </c>
+      <c r="G2260">
+        <v>1</v>
+      </c>
+      <c r="H2260">
+        <v>13110.071900000001</v>
+      </c>
+      <c r="I2260">
+        <v>11150.0692</v>
+      </c>
+      <c r="J2260">
+        <v>7965.0646999999999</v>
+      </c>
+      <c r="K2260">
+        <v>0</v>
+      </c>
+      <c r="L2260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2261" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2261" s="1">
+        <v>41529.724768518521</v>
+      </c>
+      <c r="C2261" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2261">
+        <v>2</v>
+      </c>
+      <c r="E2261">
+        <v>4</v>
+      </c>
+      <c r="F2261">
+        <v>1</v>
+      </c>
+      <c r="G2261">
+        <v>2</v>
+      </c>
+      <c r="H2261">
+        <v>13971.0687</v>
+      </c>
+      <c r="I2261">
+        <v>11821.065699999999</v>
+      </c>
+      <c r="J2261">
+        <v>7141.0591000000004</v>
+      </c>
+      <c r="K2261">
+        <v>0</v>
+      </c>
+      <c r="L2261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2262" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2262" s="1">
+        <v>41529.724942129629</v>
+      </c>
+      <c r="C2262" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2262">
+        <v>2</v>
+      </c>
+      <c r="E2262">
+        <v>4</v>
+      </c>
+      <c r="F2262">
+        <v>2</v>
+      </c>
+      <c r="G2262">
+        <v>2</v>
+      </c>
+      <c r="H2262">
+        <v>14667.0695</v>
+      </c>
+      <c r="I2262">
+        <v>12487.0664</v>
+      </c>
+      <c r="J2262">
+        <v>10212.063200000001</v>
+      </c>
+      <c r="K2262">
+        <v>0</v>
+      </c>
+      <c r="L2262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2263" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2263" s="1">
+        <v>41529.725081018521</v>
+      </c>
+      <c r="C2263" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2263">
+        <v>2</v>
+      </c>
+      <c r="E2263">
+        <v>4</v>
+      </c>
+      <c r="F2263">
+        <v>3</v>
+      </c>
+      <c r="G2263">
+        <v>2</v>
+      </c>
+      <c r="H2263">
+        <v>11828.0594</v>
+      </c>
+      <c r="I2263">
+        <v>9513.0560999999998</v>
+      </c>
+      <c r="J2263">
+        <v>6678.0522000000001</v>
+      </c>
+      <c r="K2263">
+        <v>0</v>
+      </c>
+      <c r="L2263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2264" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2264" s="1">
+        <v>41529.725266203706</v>
+      </c>
+      <c r="C2264" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2264">
+        <v>2</v>
+      </c>
+      <c r="E2264">
+        <v>5</v>
+      </c>
+      <c r="F2264">
+        <v>1</v>
+      </c>
+      <c r="G2264">
+        <v>0</v>
+      </c>
+      <c r="H2264">
+        <v>16057.0687</v>
+      </c>
+      <c r="I2264">
+        <v>13962.065699999999</v>
+      </c>
+      <c r="J2264">
+        <v>12642.063899999999</v>
+      </c>
+      <c r="K2264">
+        <v>0</v>
+      </c>
+      <c r="L2264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2265" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2265" s="1">
+        <v>41529.725405092591</v>
+      </c>
+      <c r="C2265" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2265">
+        <v>2</v>
+      </c>
+      <c r="E2265">
+        <v>5</v>
+      </c>
+      <c r="F2265">
+        <v>2</v>
+      </c>
+      <c r="G2265">
+        <v>0</v>
+      </c>
+      <c r="H2265">
+        <v>11816.069600000001</v>
+      </c>
+      <c r="I2265">
+        <v>9776.0668000000005</v>
+      </c>
+      <c r="J2265">
+        <v>8236.0645999999997</v>
+      </c>
+      <c r="K2265">
+        <v>0</v>
+      </c>
+      <c r="L2265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2266" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2266" s="1">
+        <v>41529.72556712963</v>
+      </c>
+      <c r="C2266" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2266">
+        <v>2</v>
+      </c>
+      <c r="E2266">
+        <v>5</v>
+      </c>
+      <c r="F2266">
+        <v>3</v>
+      </c>
+      <c r="G2266">
+        <v>0</v>
+      </c>
+      <c r="H2266">
+        <v>13879.1667</v>
+      </c>
+      <c r="I2266">
+        <v>11854.1639</v>
+      </c>
+      <c r="J2266">
+        <v>10789.162399999999</v>
+      </c>
+      <c r="K2266">
+        <v>0</v>
+      </c>
+      <c r="L2266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2267" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2267" s="1">
+        <v>41529.725694444445</v>
+      </c>
+      <c r="C2267" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2267">
+        <v>2</v>
+      </c>
+      <c r="E2267">
+        <v>6</v>
+      </c>
+      <c r="F2267">
+        <v>1</v>
+      </c>
+      <c r="G2267">
+        <v>0</v>
+      </c>
+      <c r="H2267">
+        <v>11253.0533</v>
+      </c>
+      <c r="I2267">
+        <v>9403.0508000000009</v>
+      </c>
+      <c r="J2267">
+        <v>8178.049</v>
+      </c>
+      <c r="K2267">
+        <v>0</v>
+      </c>
+      <c r="L2267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2268" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2268" s="1">
+        <v>41529.725844907407</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2268">
+        <v>2</v>
+      </c>
+      <c r="E2268">
+        <v>6</v>
+      </c>
+      <c r="F2268">
+        <v>2</v>
+      </c>
+      <c r="G2268">
+        <v>0</v>
+      </c>
+      <c r="H2268">
+        <v>13039.067300000001</v>
+      </c>
+      <c r="I2268">
+        <v>11139.064700000001</v>
+      </c>
+      <c r="J2268">
+        <v>9394.0622000000003</v>
+      </c>
+      <c r="K2268">
+        <v>0</v>
+      </c>
+      <c r="L2268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2269" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2269" s="1">
+        <v>41529.726041666669</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2269">
+        <v>2</v>
+      </c>
+      <c r="E2269">
+        <v>6</v>
+      </c>
+      <c r="F2269">
+        <v>3</v>
+      </c>
+      <c r="G2269">
+        <v>2</v>
+      </c>
+      <c r="H2269">
+        <v>16950.023700000002</v>
+      </c>
+      <c r="I2269">
+        <v>14885.0208</v>
+      </c>
+      <c r="J2269">
+        <v>8415.0118000000002</v>
+      </c>
+      <c r="K2269">
+        <v>0</v>
+      </c>
+      <c r="L2269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2270" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2270" s="1">
+        <v>41529.726527777777</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2270">
+        <v>2</v>
+      </c>
+      <c r="E2270">
+        <v>1</v>
+      </c>
+      <c r="F2270">
+        <v>1</v>
+      </c>
+      <c r="G2270">
+        <v>1</v>
+      </c>
+      <c r="H2270">
+        <v>30160.0422</v>
+      </c>
+      <c r="I2270">
+        <v>21910.030599999998</v>
+      </c>
+      <c r="J2270">
+        <v>14580.020399999999</v>
+      </c>
+      <c r="K2270">
+        <v>1</v>
+      </c>
+      <c r="L2270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2271" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2271" s="1">
+        <v>41529.727106481485</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2271">
+        <v>2</v>
+      </c>
+      <c r="E2271">
+        <v>1</v>
+      </c>
+      <c r="F2271">
+        <v>2</v>
+      </c>
+      <c r="G2271">
+        <v>2</v>
+      </c>
+      <c r="H2271">
+        <v>50443.206700000002</v>
+      </c>
+      <c r="I2271">
+        <v>35253.185400000002</v>
+      </c>
+      <c r="J2271">
+        <v>35253.185400000002</v>
+      </c>
+      <c r="K2271">
+        <v>5</v>
+      </c>
+      <c r="L2271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2272" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2272" s="1">
+        <v>41529.727569444447</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2272">
+        <v>2</v>
+      </c>
+      <c r="E2272">
+        <v>1</v>
+      </c>
+      <c r="F2272">
+        <v>3</v>
+      </c>
+      <c r="G2272">
+        <v>1</v>
+      </c>
+      <c r="H2272">
+        <v>39435.069199999998</v>
+      </c>
+      <c r="I2272">
+        <v>37285.066200000001</v>
+      </c>
+      <c r="J2272">
+        <v>37285.066200000001</v>
+      </c>
+      <c r="K2272">
+        <v>3</v>
+      </c>
+      <c r="L2272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2273" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2273" s="1">
+        <v>41529.727777777778</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2273">
+        <v>2</v>
+      </c>
+      <c r="E2273">
+        <v>2</v>
+      </c>
+      <c r="F2273">
+        <v>1</v>
+      </c>
+      <c r="G2273">
+        <v>2</v>
+      </c>
+      <c r="H2273">
+        <v>18090.025300000001</v>
+      </c>
+      <c r="I2273">
+        <v>16480.023099999999</v>
+      </c>
+      <c r="J2273">
+        <v>7450.0104000000001</v>
+      </c>
+      <c r="K2273">
+        <v>0</v>
+      </c>
+      <c r="L2273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2274" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2274" s="1">
+        <v>41529.728020833332</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2274">
+        <v>2</v>
+      </c>
+      <c r="E2274">
+        <v>2</v>
+      </c>
+      <c r="F2274">
+        <v>2</v>
+      </c>
+      <c r="G2274">
+        <v>0</v>
+      </c>
+      <c r="H2274">
+        <v>21749.1266</v>
+      </c>
+      <c r="I2274">
+        <v>19519.123500000002</v>
+      </c>
+      <c r="J2274">
+        <v>19519.123500000002</v>
+      </c>
+      <c r="K2274">
+        <v>1</v>
+      </c>
+      <c r="L2274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2275" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2275" s="1">
+        <v>41529.728217592594</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2275">
+        <v>2</v>
+      </c>
+      <c r="E2275">
+        <v>2</v>
+      </c>
+      <c r="F2275">
+        <v>3</v>
+      </c>
+      <c r="G2275">
+        <v>2</v>
+      </c>
+      <c r="H2275">
+        <v>16175.0749</v>
+      </c>
+      <c r="I2275">
+        <v>14690.0728</v>
+      </c>
+      <c r="J2275">
+        <v>14690.0728</v>
+      </c>
+      <c r="K2275">
+        <v>1</v>
+      </c>
+      <c r="L2275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2276" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2276" s="1">
+        <v>41529.728425925925</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2276">
+        <v>2</v>
+      </c>
+      <c r="E2276">
+        <v>3</v>
+      </c>
+      <c r="F2276">
+        <v>1</v>
+      </c>
+      <c r="G2276">
+        <v>2</v>
+      </c>
+      <c r="H2276">
+        <v>18867.0985</v>
+      </c>
+      <c r="I2276">
+        <v>16357.094999999999</v>
+      </c>
+      <c r="J2276">
+        <v>7767.0829999999996</v>
+      </c>
+      <c r="K2276">
+        <v>0</v>
+      </c>
+      <c r="L2276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2277" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2277" s="1">
+        <v>41529.72861111111</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2277">
+        <v>2</v>
+      </c>
+      <c r="E2277">
+        <v>3</v>
+      </c>
+      <c r="F2277">
+        <v>2</v>
+      </c>
+      <c r="G2277">
+        <v>2</v>
+      </c>
+      <c r="H2277">
+        <v>15785.0221</v>
+      </c>
+      <c r="I2277">
+        <v>14240.02</v>
+      </c>
+      <c r="J2277">
+        <v>14240.02</v>
+      </c>
+      <c r="K2277">
+        <v>1</v>
+      </c>
+      <c r="L2277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2278" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2278" s="1">
+        <v>41529.728842592594</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2278">
+        <v>2</v>
+      </c>
+      <c r="E2278">
+        <v>3</v>
+      </c>
+      <c r="F2278">
+        <v>3</v>
+      </c>
+      <c r="G2278">
+        <v>2</v>
+      </c>
+      <c r="H2278">
+        <v>19415.085200000001</v>
+      </c>
+      <c r="I2278">
+        <v>17955.083200000001</v>
+      </c>
+      <c r="J2278">
+        <v>17955.083200000001</v>
+      </c>
+      <c r="K2278">
+        <v>1</v>
+      </c>
+      <c r="L2278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2279" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2279" s="1">
+        <v>41529.72896990741</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2279">
+        <v>2</v>
+      </c>
+      <c r="E2279">
+        <v>4</v>
+      </c>
+      <c r="F2279">
+        <v>1</v>
+      </c>
+      <c r="G2279">
+        <v>0</v>
+      </c>
+      <c r="H2279">
+        <v>10935.015299999999</v>
+      </c>
+      <c r="I2279">
+        <v>8795.0123000000003</v>
+      </c>
+      <c r="J2279">
+        <v>7095.0099</v>
+      </c>
+      <c r="K2279">
+        <v>0</v>
+      </c>
+      <c r="L2279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2280" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2280" s="1">
+        <v>41529.729062500002</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2280">
+        <v>2</v>
+      </c>
+      <c r="E2280">
+        <v>4</v>
+      </c>
+      <c r="F2280">
+        <v>2</v>
+      </c>
+      <c r="G2280">
+        <v>0</v>
+      </c>
+      <c r="H2280">
+        <v>8713.0589999999993</v>
+      </c>
+      <c r="I2280">
+        <v>6908.0564999999997</v>
+      </c>
+      <c r="J2280">
+        <v>6908.0564999999997</v>
+      </c>
+      <c r="K2280">
+        <v>0</v>
+      </c>
+      <c r="L2280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2281" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2281" s="1">
+        <v>41529.72929398148</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2281">
+        <v>2</v>
+      </c>
+      <c r="E2281">
+        <v>4</v>
+      </c>
+      <c r="F2281">
+        <v>3</v>
+      </c>
+      <c r="G2281">
+        <v>2</v>
+      </c>
+      <c r="H2281">
+        <v>20095.070800000001</v>
+      </c>
+      <c r="I2281">
+        <v>18800.069</v>
+      </c>
+      <c r="J2281">
+        <v>18800.069</v>
+      </c>
+      <c r="K2281">
+        <v>1</v>
+      </c>
+      <c r="L2281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2282" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2282" s="1">
+        <v>41529.729467592595</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2282">
+        <v>2</v>
+      </c>
+      <c r="E2282">
+        <v>5</v>
+      </c>
+      <c r="F2282">
+        <v>1</v>
+      </c>
+      <c r="G2282">
+        <v>2</v>
+      </c>
+      <c r="H2282">
+        <v>14757.0643</v>
+      </c>
+      <c r="I2282">
+        <v>13157.062099999999</v>
+      </c>
+      <c r="J2282">
+        <v>8977.0562000000009</v>
+      </c>
+      <c r="K2282">
+        <v>0</v>
+      </c>
+      <c r="L2282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2283" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2283" s="1">
+        <v>41529.72960648148</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2283">
+        <v>2</v>
+      </c>
+      <c r="E2283">
+        <v>5</v>
+      </c>
+      <c r="F2283">
+        <v>2</v>
+      </c>
+      <c r="G2283">
+        <v>2</v>
+      </c>
+      <c r="H2283">
+        <v>11850.066800000001</v>
+      </c>
+      <c r="I2283">
+        <v>10405.0648</v>
+      </c>
+      <c r="J2283">
+        <v>10405.0648</v>
+      </c>
+      <c r="K2283">
+        <v>0</v>
+      </c>
+      <c r="L2283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2284" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2284" s="1">
+        <v>41529.729895833334</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2284">
+        <v>2</v>
+      </c>
+      <c r="E2284">
+        <v>5</v>
+      </c>
+      <c r="F2284">
+        <v>3</v>
+      </c>
+      <c r="G2284">
+        <v>0</v>
+      </c>
+      <c r="H2284">
+        <v>25350.035500000002</v>
+      </c>
+      <c r="I2284">
+        <v>22955.032200000001</v>
+      </c>
+      <c r="J2284">
+        <v>22955.032200000001</v>
+      </c>
+      <c r="K2284">
+        <v>3</v>
+      </c>
+      <c r="L2284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2285" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2285" s="1">
+        <v>41529.730000000003</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2285">
+        <v>2</v>
+      </c>
+      <c r="E2285">
+        <v>6</v>
+      </c>
+      <c r="F2285">
+        <v>1</v>
+      </c>
+      <c r="G2285">
+        <v>0</v>
+      </c>
+      <c r="H2285">
+        <v>8250.0115000000005</v>
+      </c>
+      <c r="I2285">
+        <v>6905.0096000000003</v>
+      </c>
+      <c r="J2285">
+        <v>6020.0083999999997</v>
+      </c>
+      <c r="K2285">
+        <v>0</v>
+      </c>
+      <c r="L2285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2286" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2286" s="1">
+        <v>41529.730208333334</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2286">
+        <v>2</v>
+      </c>
+      <c r="E2286">
+        <v>6</v>
+      </c>
+      <c r="F2286">
+        <v>2</v>
+      </c>
+      <c r="G2286">
+        <v>3</v>
+      </c>
+      <c r="H2286">
+        <v>18000.338500000002</v>
+      </c>
+      <c r="I2286">
+        <v>16605.336500000001</v>
+      </c>
+      <c r="J2286">
+        <v>16605.336500000001</v>
+      </c>
+      <c r="K2286">
+        <v>1</v>
+      </c>
+      <c r="L2286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2287" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2287" s="1">
+        <v>41529.730347222219</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2287">
+        <v>2</v>
+      </c>
+      <c r="E2287">
+        <v>6</v>
+      </c>
+      <c r="F2287">
+        <v>3</v>
+      </c>
+      <c r="G2287">
+        <v>0</v>
+      </c>
+      <c r="H2287">
+        <v>12377.0733</v>
+      </c>
+      <c r="I2287">
+        <v>9482.0691999999999</v>
+      </c>
+      <c r="J2287">
+        <v>9482.0691999999999</v>
+      </c>
+      <c r="K2287">
+        <v>1</v>
+      </c>
+      <c r="L2287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2288" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2288" s="1">
+        <v>41529.73064814815</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2288">
+        <v>3</v>
+      </c>
+      <c r="E2288">
+        <v>1</v>
+      </c>
+      <c r="F2288">
+        <v>1</v>
+      </c>
+      <c r="G2288">
+        <v>3</v>
+      </c>
+      <c r="H2288">
+        <v>14713.0905</v>
+      </c>
+      <c r="I2288">
+        <v>63514603928383.898</v>
+      </c>
+      <c r="J2288">
+        <v>7738.0807000000004</v>
+      </c>
+      <c r="K2288">
+        <v>0</v>
+      </c>
+      <c r="L2288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2289" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2289" s="1">
+        <v>41529.730810185189</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2289">
+        <v>3</v>
+      </c>
+      <c r="E2289">
+        <v>1</v>
+      </c>
+      <c r="F2289">
+        <v>2</v>
+      </c>
+      <c r="G2289">
+        <v>1</v>
+      </c>
+      <c r="H2289">
+        <v>13631.097599999999</v>
+      </c>
+      <c r="I2289">
+        <v>11876.0951</v>
+      </c>
+      <c r="J2289">
+        <v>8336.0902000000006</v>
+      </c>
+      <c r="K2289">
+        <v>0</v>
+      </c>
+      <c r="L2289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2290" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2290" s="1">
+        <v>41529.730983796297</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2290">
+        <v>3</v>
+      </c>
+      <c r="E2290">
+        <v>1</v>
+      </c>
+      <c r="F2290">
+        <v>3</v>
+      </c>
+      <c r="G2290">
+        <v>3</v>
+      </c>
+      <c r="H2290">
+        <v>15004.075000000001</v>
+      </c>
+      <c r="I2290">
+        <v>11479.070100000001</v>
+      </c>
+      <c r="J2290">
+        <v>7699.0648000000001</v>
+      </c>
+      <c r="K2290">
+        <v>0</v>
+      </c>
+      <c r="L2290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2291" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2291" s="1">
+        <v>41529.731122685182</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2291">
+        <v>3</v>
+      </c>
+      <c r="E2291">
+        <v>2</v>
+      </c>
+      <c r="F2291">
+        <v>1</v>
+      </c>
+      <c r="G2291">
+        <v>3</v>
+      </c>
+      <c r="H2291">
+        <v>12358.0633</v>
+      </c>
+      <c r="I2291">
+        <v>10533.0607</v>
+      </c>
+      <c r="J2291">
+        <v>6988.0556999999999</v>
+      </c>
+      <c r="K2291">
+        <v>0</v>
+      </c>
+      <c r="L2291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2292" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2292" s="1">
+        <v>41529.731261574074</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2292">
+        <v>3</v>
+      </c>
+      <c r="E2292">
+        <v>2</v>
+      </c>
+      <c r="F2292">
+        <v>2</v>
+      </c>
+      <c r="G2292">
+        <v>3</v>
+      </c>
+      <c r="H2292">
+        <v>12017.0663</v>
+      </c>
+      <c r="I2292">
+        <v>10247.063899999999</v>
+      </c>
+      <c r="J2292">
+        <v>6557.0586999999996</v>
+      </c>
+      <c r="K2292">
+        <v>0</v>
+      </c>
+      <c r="L2292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2293" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2293" s="1">
+        <v>41529.731458333335</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2293">
+        <v>3</v>
+      </c>
+      <c r="E2293">
+        <v>2</v>
+      </c>
+      <c r="F2293">
+        <v>3</v>
+      </c>
+      <c r="G2293">
+        <v>3</v>
+      </c>
+      <c r="H2293">
+        <v>16979.076400000002</v>
+      </c>
+      <c r="I2293">
+        <v>15024.073700000001</v>
+      </c>
+      <c r="J2293">
+        <v>7294.0628999999999</v>
+      </c>
+      <c r="K2293">
+        <v>0</v>
+      </c>
+      <c r="L2293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2294" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2294" s="1">
+        <v>41529.731631944444</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2294">
+        <v>3</v>
+      </c>
+      <c r="E2294">
+        <v>3</v>
+      </c>
+      <c r="F2294">
+        <v>1</v>
+      </c>
+      <c r="G2294">
+        <v>2</v>
+      </c>
+      <c r="H2294">
+        <v>14950.1554</v>
+      </c>
+      <c r="I2294">
+        <v>12470.151900000001</v>
+      </c>
+      <c r="J2294">
+        <v>9845.1481999999996</v>
+      </c>
+      <c r="K2294">
+        <v>0</v>
+      </c>
+      <c r="L2294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2295" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2295" s="1">
+        <v>41529.731817129628</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2295">
+        <v>3</v>
+      </c>
+      <c r="E2295">
+        <v>3</v>
+      </c>
+      <c r="F2295">
+        <v>2</v>
+      </c>
+      <c r="G2295">
+        <v>2</v>
+      </c>
+      <c r="H2295">
+        <v>16583.146700000001</v>
+      </c>
+      <c r="I2295">
+        <v>14748.1441</v>
+      </c>
+      <c r="J2295">
+        <v>12293.1407</v>
+      </c>
+      <c r="K2295">
+        <v>1</v>
+      </c>
+      <c r="L2295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2296" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2296" s="1">
+        <v>41529.731979166667</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2296">
+        <v>3</v>
+      </c>
+      <c r="E2296">
+        <v>3</v>
+      </c>
+      <c r="F2296">
+        <v>3</v>
+      </c>
+      <c r="G2296">
+        <v>2</v>
+      </c>
+      <c r="H2296">
+        <v>13724.098400000001</v>
+      </c>
+      <c r="I2296">
+        <v>12169.0962</v>
+      </c>
+      <c r="J2296">
+        <v>9234.0920999999998</v>
+      </c>
+      <c r="K2296">
+        <v>0</v>
+      </c>
+      <c r="L2296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2297" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2297" s="1">
+        <v>41529.732106481482</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2297">
+        <v>3</v>
+      </c>
+      <c r="E2297">
+        <v>4</v>
+      </c>
+      <c r="F2297">
+        <v>1</v>
+      </c>
+      <c r="G2297">
+        <v>1</v>
+      </c>
+      <c r="H2297">
+        <v>11310.065000000001</v>
+      </c>
+      <c r="I2297">
+        <v>9675.0627000000004</v>
+      </c>
+      <c r="J2297">
+        <v>7680.0599000000002</v>
+      </c>
+      <c r="K2297">
+        <v>0</v>
+      </c>
+      <c r="L2297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2298" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2298" s="1">
+        <v>41529.732361111113</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2298">
+        <v>3</v>
+      </c>
+      <c r="E2298">
+        <v>4</v>
+      </c>
+      <c r="F2298">
+        <v>2</v>
+      </c>
+      <c r="G2298">
+        <v>1</v>
+      </c>
+      <c r="H2298">
+        <v>21295.080600000001</v>
+      </c>
+      <c r="I2298">
+        <v>11970.0676</v>
+      </c>
+      <c r="J2298">
+        <v>9635.0643</v>
+      </c>
+      <c r="K2298">
+        <v>0</v>
+      </c>
+      <c r="L2298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2299" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2299" s="1">
+        <v>41529.732499999998</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2299">
+        <v>3</v>
+      </c>
+      <c r="E2299">
+        <v>4</v>
+      </c>
+      <c r="F2299">
+        <v>3</v>
+      </c>
+      <c r="G2299">
+        <v>1</v>
+      </c>
+      <c r="H2299">
+        <v>12495.068499999999</v>
+      </c>
+      <c r="I2299">
+        <v>9665.0645999999997</v>
+      </c>
+      <c r="J2299">
+        <v>7230.0612000000001</v>
+      </c>
+      <c r="K2299">
+        <v>0</v>
+      </c>
+      <c r="L2299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2300" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2300" s="1">
+        <v>41529.732638888891</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2300">
+        <v>3</v>
+      </c>
+      <c r="E2300">
+        <v>5</v>
+      </c>
+      <c r="F2300">
+        <v>1</v>
+      </c>
+      <c r="G2300">
+        <v>0</v>
+      </c>
+      <c r="H2300">
+        <v>11386.067300000001</v>
+      </c>
+      <c r="I2300">
+        <v>9651.0648999999994</v>
+      </c>
+      <c r="J2300">
+        <v>8226.0629000000008</v>
+      </c>
+      <c r="K2300">
+        <v>0</v>
+      </c>
+      <c r="L2300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2301" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2301" s="1">
+        <v>41529.732743055552</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2301">
+        <v>3</v>
+      </c>
+      <c r="E2301">
+        <v>5</v>
+      </c>
+      <c r="F2301">
+        <v>2</v>
+      </c>
+      <c r="G2301">
+        <v>0</v>
+      </c>
+      <c r="H2301">
+        <v>9431.0596000000005</v>
+      </c>
+      <c r="I2301">
+        <v>7781.0573000000004</v>
+      </c>
+      <c r="J2301">
+        <v>6696.0556999999999</v>
+      </c>
+      <c r="K2301">
+        <v>0</v>
+      </c>
+      <c r="L2301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2302" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2302" s="1">
+        <v>41529.732881944445</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2302">
+        <v>3</v>
+      </c>
+      <c r="E2302">
+        <v>5</v>
+      </c>
+      <c r="F2302">
+        <v>3</v>
+      </c>
+      <c r="G2302">
+        <v>1</v>
+      </c>
+      <c r="H2302">
+        <v>12369.06</v>
+      </c>
+      <c r="I2302">
+        <v>10649.0576</v>
+      </c>
+      <c r="J2302">
+        <v>7749.0535</v>
+      </c>
+      <c r="K2302">
+        <v>0</v>
+      </c>
+      <c r="L2302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2303" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2303" s="1">
+        <v>41529.73300925926</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2303">
+        <v>3</v>
+      </c>
+      <c r="E2303">
+        <v>6</v>
+      </c>
+      <c r="F2303">
+        <v>1</v>
+      </c>
+      <c r="G2303">
+        <v>0</v>
+      </c>
+      <c r="H2303">
+        <v>10083.067300000001</v>
+      </c>
+      <c r="I2303">
+        <v>8228.0647000000008</v>
+      </c>
+      <c r="J2303">
+        <v>7283.0634</v>
+      </c>
+      <c r="K2303">
+        <v>0</v>
+      </c>
+      <c r="L2303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2304" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2304" s="1">
+        <v>41529.733171296299</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2304">
+        <v>3</v>
+      </c>
+      <c r="E2304">
+        <v>6</v>
+      </c>
+      <c r="F2304">
+        <v>2</v>
+      </c>
+      <c r="G2304">
+        <v>3</v>
+      </c>
+      <c r="H2304">
+        <v>14550.107900000001</v>
+      </c>
+      <c r="I2304">
+        <v>12875.105600000001</v>
+      </c>
+      <c r="J2304">
+        <v>8820.0998999999993</v>
+      </c>
+      <c r="K2304">
+        <v>0</v>
+      </c>
+      <c r="L2304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2305" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2305" s="1">
+        <v>41529.733298611114</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2305">
+        <v>3</v>
+      </c>
+      <c r="E2305">
+        <v>6</v>
+      </c>
+      <c r="F2305">
+        <v>3</v>
+      </c>
+      <c r="G2305">
+        <v>0</v>
+      </c>
+      <c r="H2305">
+        <v>10671.063599999999</v>
+      </c>
+      <c r="I2305">
+        <v>8646.0607</v>
+      </c>
+      <c r="J2305">
+        <v>7696.0594000000001</v>
+      </c>
+      <c r="K2305">
+        <v>0</v>
+      </c>
+      <c r="L2305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2306" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2306" s="1">
+        <v>41529.734016203707</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2306">
+        <v>1</v>
+      </c>
+      <c r="E2306">
+        <v>1</v>
+      </c>
+      <c r="F2306">
+        <v>1</v>
+      </c>
+      <c r="G2306">
+        <v>0</v>
+      </c>
+      <c r="H2306">
+        <v>53279.130599999997</v>
+      </c>
+      <c r="I2306">
+        <v>22114.087</v>
+      </c>
+      <c r="J2306">
+        <v>11074.0715</v>
+      </c>
+      <c r="K2306">
+        <v>2</v>
+      </c>
+      <c r="L2306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2307" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2307" s="1">
+        <v>41529.734270833331</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2307">
+        <v>1</v>
+      </c>
+      <c r="E2307">
+        <v>1</v>
+      </c>
+      <c r="F2307">
+        <v>2</v>
+      </c>
+      <c r="G2307">
+        <v>0</v>
+      </c>
+      <c r="H2307">
+        <v>22310.031299999999</v>
+      </c>
+      <c r="I2307">
+        <v>7520.0105999999996</v>
+      </c>
+      <c r="J2307">
+        <v>7520.0105999999996</v>
+      </c>
+      <c r="K2307">
+        <v>0</v>
+      </c>
+      <c r="L2307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2308" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2308" s="1">
+        <v>41529.734351851854</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2308">
+        <v>1</v>
+      </c>
+      <c r="E2308">
+        <v>1</v>
+      </c>
+      <c r="F2308">
+        <v>3</v>
+      </c>
+      <c r="G2308">
+        <v>0</v>
+      </c>
+      <c r="H2308">
+        <v>7210.0101000000004</v>
+      </c>
+      <c r="I2308">
+        <v>5735.0081</v>
+      </c>
+      <c r="J2308">
+        <v>5735.0081</v>
+      </c>
+      <c r="K2308">
+        <v>0</v>
+      </c>
+      <c r="L2308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2309" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2309" s="1">
+        <v>41529.734502314815</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2309">
+        <v>1</v>
+      </c>
+      <c r="E2309">
+        <v>2</v>
+      </c>
+      <c r="F2309">
+        <v>1</v>
+      </c>
+      <c r="G2309">
+        <v>3</v>
+      </c>
+      <c r="H2309">
+        <v>12455.017400000001</v>
+      </c>
+      <c r="I2309">
+        <v>11190.0157</v>
+      </c>
+      <c r="J2309">
+        <v>7255.0101999999997</v>
+      </c>
+      <c r="K2309">
+        <v>0</v>
+      </c>
+      <c r="L2309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2310" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2310" s="1">
+        <v>41529.734606481485</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2310">
+        <v>1</v>
+      </c>
+      <c r="E2310">
+        <v>2</v>
+      </c>
+      <c r="F2310">
+        <v>2</v>
+      </c>
+      <c r="G2310">
+        <v>3</v>
+      </c>
+      <c r="H2310">
+        <v>9485.0133000000005</v>
+      </c>
+      <c r="I2310">
+        <v>7975.0111999999999</v>
+      </c>
+      <c r="J2310">
+        <v>7975.0111999999999</v>
+      </c>
+      <c r="K2310">
+        <v>0</v>
+      </c>
+      <c r="L2310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2311" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2311" s="1">
+        <v>41529.734710648147</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2311">
+        <v>1</v>
+      </c>
+      <c r="E2311">
+        <v>2</v>
+      </c>
+      <c r="F2311">
+        <v>3</v>
+      </c>
+      <c r="G2311">
+        <v>3</v>
+      </c>
+      <c r="H2311">
+        <v>8865.0123999999996</v>
+      </c>
+      <c r="I2311">
+        <v>6740.0093999999999</v>
+      </c>
+      <c r="J2311">
+        <v>6740.0093999999999</v>
+      </c>
+      <c r="K2311">
+        <v>0</v>
+      </c>
+      <c r="L2311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2312" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2312" s="1">
+        <v>41529.734849537039</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2312">
+        <v>1</v>
+      </c>
+      <c r="E2312">
+        <v>3</v>
+      </c>
+      <c r="F2312">
+        <v>1</v>
+      </c>
+      <c r="G2312">
+        <v>3</v>
+      </c>
+      <c r="H2312">
+        <v>11420.016</v>
+      </c>
+      <c r="I2312">
+        <v>9860.0138000000006</v>
+      </c>
+      <c r="J2312">
+        <v>6360.0088999999998</v>
+      </c>
+      <c r="K2312">
+        <v>0</v>
+      </c>
+      <c r="L2312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2313" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2313" s="1">
+        <v>41529.734976851854</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2313">
+        <v>1</v>
+      </c>
+      <c r="E2313">
+        <v>3</v>
+      </c>
+      <c r="F2313">
+        <v>2</v>
+      </c>
+      <c r="G2313">
+        <v>3</v>
+      </c>
+      <c r="H2313">
+        <v>11170.015600000001</v>
+      </c>
+      <c r="I2313">
+        <v>9330.0130000000008</v>
+      </c>
+      <c r="J2313">
+        <v>9330.0130000000008</v>
+      </c>
+      <c r="K2313">
+        <v>0</v>
+      </c>
+      <c r="L2313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2314" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2314" s="1">
+        <v>41529.735069444447</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2314">
+        <v>1</v>
+      </c>
+      <c r="E2314">
+        <v>3</v>
+      </c>
+      <c r="F2314">
+        <v>3</v>
+      </c>
+      <c r="G2314">
+        <v>3</v>
+      </c>
+      <c r="H2314">
+        <v>8200.0115000000005</v>
+      </c>
+      <c r="I2314">
+        <v>6830.0096000000003</v>
+      </c>
+      <c r="J2314">
+        <v>6830.0096000000003</v>
+      </c>
+      <c r="K2314">
+        <v>0</v>
+      </c>
+      <c r="L2314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2315" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2315" s="1">
+        <v>41529.735231481478</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2315">
+        <v>1</v>
+      </c>
+      <c r="E2315">
+        <v>4</v>
+      </c>
+      <c r="F2315">
+        <v>1</v>
+      </c>
+      <c r="G2315">
+        <v>0</v>
+      </c>
+      <c r="H2315">
+        <v>13620.0191</v>
+      </c>
+      <c r="I2315">
+        <v>12155.017</v>
+      </c>
+      <c r="J2315">
+        <v>10775.015100000001</v>
+      </c>
+      <c r="K2315">
+        <v>0</v>
+      </c>
+      <c r="L2315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2316" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2316" s="1">
+        <v>41529.735312500001</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2316">
+        <v>1</v>
+      </c>
+      <c r="E2316">
+        <v>4</v>
+      </c>
+      <c r="F2316">
+        <v>2</v>
+      </c>
+      <c r="G2316">
+        <v>0</v>
+      </c>
+      <c r="H2316">
+        <v>7645.0106999999998</v>
+      </c>
+      <c r="I2316">
+        <v>6500.0091000000002</v>
+      </c>
+      <c r="J2316">
+        <v>6500.0091000000002</v>
+      </c>
+      <c r="K2316">
+        <v>0</v>
+      </c>
+      <c r="L2316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2317" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2317" s="1">
+        <v>41529.73541666667</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2317">
+        <v>1</v>
+      </c>
+      <c r="E2317">
+        <v>4</v>
+      </c>
+      <c r="F2317">
+        <v>3</v>
+      </c>
+      <c r="G2317">
+        <v>0</v>
+      </c>
+      <c r="H2317">
+        <v>9055.0126999999993</v>
+      </c>
+      <c r="I2317">
+        <v>7255.0101999999997</v>
+      </c>
+      <c r="J2317">
+        <v>7255.0101999999997</v>
+      </c>
+      <c r="K2317">
+        <v>0</v>
+      </c>
+      <c r="L2317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2318" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2318" s="1">
+        <v>41529.735567129632</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2318">
+        <v>1</v>
+      </c>
+      <c r="E2318">
+        <v>5</v>
+      </c>
+      <c r="F2318">
+        <v>1</v>
+      </c>
+      <c r="G2318">
+        <v>2</v>
+      </c>
+      <c r="H2318">
+        <v>12388.161099999999</v>
+      </c>
+      <c r="I2318">
+        <v>11143.1594</v>
+      </c>
+      <c r="J2318">
+        <v>7453.1541999999999</v>
+      </c>
+      <c r="K2318">
+        <v>0</v>
+      </c>
+      <c r="L2318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2319" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2319" s="1">
+        <v>41529.735682870371</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2319">
+        <v>1</v>
+      </c>
+      <c r="E2319">
+        <v>5</v>
+      </c>
+      <c r="F2319">
+        <v>2</v>
+      </c>
+      <c r="G2319">
+        <v>2</v>
+      </c>
+      <c r="H2319">
+        <v>10410.0146</v>
+      </c>
+      <c r="I2319">
+        <v>8850.0123999999996</v>
+      </c>
+      <c r="J2319">
+        <v>8850.0123999999996</v>
+      </c>
+      <c r="K2319">
+        <v>0</v>
+      </c>
+      <c r="L2319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2320" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2320" s="1">
+        <v>41529.735810185186</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2320">
+        <v>1</v>
+      </c>
+      <c r="E2320">
+        <v>5</v>
+      </c>
+      <c r="F2320">
+        <v>3</v>
+      </c>
+      <c r="G2320">
+        <v>2</v>
+      </c>
+      <c r="H2320">
+        <v>10405.0146</v>
+      </c>
+      <c r="I2320">
+        <v>7355.0102999999999</v>
+      </c>
+      <c r="J2320">
+        <v>7355.0102999999999</v>
+      </c>
+      <c r="K2320">
+        <v>0</v>
+      </c>
+      <c r="L2320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2321" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2321" s="1">
+        <v>41529.736168981479</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2321">
+        <v>1</v>
+      </c>
+      <c r="E2321">
+        <v>6</v>
+      </c>
+      <c r="F2321">
+        <v>1</v>
+      </c>
+      <c r="G2321">
+        <v>3</v>
+      </c>
+      <c r="H2321">
+        <v>31815.0445</v>
+      </c>
+      <c r="I2321">
+        <v>30475.042600000001</v>
+      </c>
+      <c r="J2321">
+        <v>11190.015600000001</v>
+      </c>
+      <c r="K2321">
+        <v>2</v>
+      </c>
+      <c r="L2321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2322" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2322" s="1">
+        <v>41529.736284722225</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2322">
+        <v>1</v>
+      </c>
+      <c r="E2322">
+        <v>6</v>
+      </c>
+      <c r="F2322">
+        <v>2</v>
+      </c>
+      <c r="G2322">
+        <v>3</v>
+      </c>
+      <c r="H2322">
+        <v>9965.0139999999992</v>
+      </c>
+      <c r="I2322">
+        <v>8540.0120000000006</v>
+      </c>
+      <c r="J2322">
+        <v>8540.0120000000006</v>
+      </c>
+      <c r="K2322">
+        <v>2</v>
+      </c>
+      <c r="L2322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2323" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2323" s="1">
+        <v>41529.736377314817</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2323">
+        <v>1</v>
+      </c>
+      <c r="E2323">
+        <v>6</v>
+      </c>
+      <c r="F2323">
+        <v>3</v>
+      </c>
+      <c r="G2323">
+        <v>3</v>
+      </c>
+      <c r="H2323">
+        <v>8080.0113000000001</v>
+      </c>
+      <c r="I2323">
+        <v>6620.0092999999997</v>
+      </c>
+      <c r="J2323">
+        <v>6620.0092999999997</v>
+      </c>
+      <c r="K2323">
+        <v>0</v>
+      </c>
+      <c r="L2323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2324" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2324" s="1">
+        <v>41529.736840277779</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2324">
+        <v>1</v>
+      </c>
+      <c r="E2324">
+        <v>1</v>
+      </c>
+      <c r="F2324">
+        <v>1</v>
+      </c>
+      <c r="G2324">
+        <v>0</v>
+      </c>
+      <c r="H2324">
+        <v>27540.0386</v>
+      </c>
+      <c r="I2324">
+        <v>15465.021699999999</v>
+      </c>
+      <c r="J2324">
+        <v>10240.0144</v>
+      </c>
+      <c r="K2324">
+        <v>1</v>
+      </c>
+      <c r="L2324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2325" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2325" s="1">
+        <v>41529.736967592595</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2325">
+        <v>1</v>
+      </c>
+      <c r="E2325">
+        <v>1</v>
+      </c>
+      <c r="F2325">
+        <v>2</v>
+      </c>
+      <c r="G2325">
+        <v>0</v>
+      </c>
+      <c r="H2325">
+        <v>11610.0162</v>
+      </c>
+      <c r="I2325">
+        <v>9575.0133999999998</v>
+      </c>
+      <c r="J2325">
+        <v>8855.0123999999996</v>
+      </c>
+      <c r="K2325">
+        <v>0</v>
+      </c>
+      <c r="L2325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2326" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2326" s="1">
+        <v>41529.737118055556</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2326">
+        <v>1</v>
+      </c>
+      <c r="E2326">
+        <v>1</v>
+      </c>
+      <c r="F2326">
+        <v>3</v>
+      </c>
+      <c r="G2326">
+        <v>0</v>
+      </c>
+      <c r="H2326">
+        <v>12325.0173</v>
+      </c>
+      <c r="I2326">
+        <v>10105.0141</v>
+      </c>
+      <c r="J2326">
+        <v>8050.0113000000001</v>
+      </c>
+      <c r="K2326">
+        <v>0</v>
+      </c>
+      <c r="L2326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2327" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2327" s="1">
+        <v>41529.737280092595</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2327">
+        <v>1</v>
+      </c>
+      <c r="E2327">
+        <v>2</v>
+      </c>
+      <c r="F2327">
+        <v>1</v>
+      </c>
+      <c r="G2327">
+        <v>1</v>
+      </c>
+      <c r="H2327">
+        <v>13875.0574</v>
+      </c>
+      <c r="I2327">
+        <v>11780.0545</v>
+      </c>
+      <c r="J2327">
+        <v>7695.0487000000003</v>
+      </c>
+      <c r="K2327">
+        <v>0</v>
+      </c>
+      <c r="L2327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2328" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2328" s="1">
+        <v>41529.737384259257</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2328">
+        <v>1</v>
+      </c>
+      <c r="E2328">
+        <v>2</v>
+      </c>
+      <c r="F2328">
+        <v>2</v>
+      </c>
+      <c r="G2328">
+        <v>1</v>
+      </c>
+      <c r="H2328">
+        <v>9010.0126</v>
+      </c>
+      <c r="I2328">
+        <v>7490.0105000000003</v>
+      </c>
+      <c r="J2328">
+        <v>6895.0096999999996</v>
+      </c>
+      <c r="K2328">
+        <v>0</v>
+      </c>
+      <c r="L2328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2329" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2329" s="1">
+        <v>41529.737604166665</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2329">
+        <v>1</v>
+      </c>
+      <c r="E2329">
+        <v>2</v>
+      </c>
+      <c r="F2329">
+        <v>3</v>
+      </c>
+      <c r="G2329">
+        <v>1</v>
+      </c>
+      <c r="H2329">
+        <v>19265.026999999998</v>
+      </c>
+      <c r="I2329">
+        <v>9955.0139999999992</v>
+      </c>
+      <c r="J2329">
+        <v>8420.0118000000002</v>
+      </c>
+      <c r="K2329">
+        <v>0</v>
+      </c>
+      <c r="L2329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2330" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2330" s="1">
+        <v>41529.737847222219</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2330">
+        <v>1</v>
+      </c>
+      <c r="E2330">
+        <v>3</v>
+      </c>
+      <c r="F2330">
+        <v>1</v>
+      </c>
+      <c r="G2330">
+        <v>2</v>
+      </c>
+      <c r="H2330">
+        <v>20842.077799999999</v>
+      </c>
+      <c r="I2330">
+        <v>17897.073700000001</v>
+      </c>
+      <c r="J2330">
+        <v>13967.0682</v>
+      </c>
+      <c r="K2330">
+        <v>0</v>
+      </c>
+      <c r="L2330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2331" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2331" s="1">
+        <v>41529.738252314812</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2331">
+        <v>1</v>
+      </c>
+      <c r="E2331">
+        <v>3</v>
+      </c>
+      <c r="F2331">
+        <v>2</v>
+      </c>
+      <c r="G2331">
+        <v>2</v>
+      </c>
+      <c r="H2331">
+        <v>35089.065000000002</v>
+      </c>
+      <c r="I2331">
+        <v>29584.0573</v>
+      </c>
+      <c r="J2331">
+        <v>9324.0288999999993</v>
+      </c>
+      <c r="K2331">
+        <v>1</v>
+      </c>
+      <c r="L2331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2332" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2332" s="1">
+        <v>41529.738449074073</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2332">
+        <v>1</v>
+      </c>
+      <c r="E2332">
+        <v>3</v>
+      </c>
+      <c r="F2332">
+        <v>3</v>
+      </c>
+      <c r="G2332">
+        <v>2</v>
+      </c>
+      <c r="H2332">
+        <v>17153.115399999999</v>
+      </c>
+      <c r="I2332">
+        <v>15233.112800000001</v>
+      </c>
+      <c r="J2332">
+        <v>14258.1114</v>
+      </c>
+      <c r="K2332">
+        <v>0</v>
+      </c>
+      <c r="L2332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2333" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2333" s="1">
+        <v>41529.738599537035</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2333">
+        <v>1</v>
+      </c>
+      <c r="E2333">
+        <v>4</v>
+      </c>
+      <c r="F2333">
+        <v>1</v>
+      </c>
+      <c r="G2333">
+        <v>0</v>
+      </c>
+      <c r="H2333">
+        <v>13299.0609</v>
+      </c>
+      <c r="I2333">
+        <v>10829.057500000001</v>
+      </c>
+      <c r="J2333">
+        <v>9574.0557000000008</v>
+      </c>
+      <c r="K2333">
+        <v>0</v>
+      </c>
+      <c r="L2333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2334" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2334" s="1">
+        <v>41529.738738425927</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2334">
+        <v>1</v>
+      </c>
+      <c r="E2334">
+        <v>4</v>
+      </c>
+      <c r="F2334">
+        <v>2</v>
+      </c>
+      <c r="G2334">
+        <v>0</v>
+      </c>
+      <c r="H2334">
+        <v>12253.1011</v>
+      </c>
+      <c r="I2334">
+        <v>10278.0983</v>
+      </c>
+      <c r="J2334">
+        <v>8848.0962999999992</v>
+      </c>
+      <c r="K2334">
+        <v>0</v>
+      </c>
+      <c r="L2334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2335" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2335" s="1">
+        <v>41529.738854166666</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2335">
+        <v>1</v>
+      </c>
+      <c r="E2335">
+        <v>4</v>
+      </c>
+      <c r="F2335">
+        <v>3</v>
+      </c>
+      <c r="G2335">
+        <v>0</v>
+      </c>
+      <c r="H2335">
+        <v>9775.0568999999996</v>
+      </c>
+      <c r="I2335">
+        <v>7950.0544</v>
+      </c>
+      <c r="J2335">
+        <v>7070.0531000000001</v>
+      </c>
+      <c r="K2335">
+        <v>0</v>
+      </c>
+      <c r="L2335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2336" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2336" s="1">
+        <v>41529.739039351851</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2336">
+        <v>1</v>
+      </c>
+      <c r="E2336">
+        <v>5</v>
+      </c>
+      <c r="F2336">
+        <v>1</v>
+      </c>
+      <c r="G2336">
+        <v>2</v>
+      </c>
+      <c r="H2336">
+        <v>15922.118899999999</v>
+      </c>
+      <c r="I2336">
+        <v>13972.1162</v>
+      </c>
+      <c r="J2336">
+        <v>10462.1113</v>
+      </c>
+      <c r="K2336">
+        <v>0</v>
+      </c>
+      <c r="L2336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2337" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2337" s="1">
+        <v>41529.739166666666</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2337">
+        <v>1</v>
+      </c>
+      <c r="E2337">
+        <v>5</v>
+      </c>
+      <c r="F2337">
+        <v>2</v>
+      </c>
+      <c r="G2337">
+        <v>2</v>
+      </c>
+      <c r="H2337">
+        <v>11175.0157</v>
+      </c>
+      <c r="I2337">
+        <v>9145.0128000000004</v>
+      </c>
+      <c r="J2337">
+        <v>7890.0110999999997</v>
+      </c>
+      <c r="K2337">
+        <v>0</v>
+      </c>
+      <c r="L2337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2338" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2338" s="1">
+        <v>41529.739282407405</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2338">
+        <v>1</v>
+      </c>
+      <c r="E2338">
+        <v>5</v>
+      </c>
+      <c r="F2338">
+        <v>3</v>
+      </c>
+      <c r="G2338">
+        <v>2</v>
+      </c>
+      <c r="H2338">
+        <v>9490.0483999999997</v>
+      </c>
+      <c r="I2338">
+        <v>7635.0457999999999</v>
+      </c>
+      <c r="J2338">
+        <v>6875.0447999999997</v>
+      </c>
+      <c r="K2338">
+        <v>0</v>
+      </c>
+      <c r="L2338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2339" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2339" s="1">
+        <v>41529.73946759259</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2339">
+        <v>1</v>
+      </c>
+      <c r="E2339">
+        <v>6</v>
+      </c>
+      <c r="F2339">
+        <v>1</v>
+      </c>
+      <c r="G2339">
+        <v>2</v>
+      </c>
+      <c r="H2339">
+        <v>16098.069</v>
+      </c>
+      <c r="I2339">
+        <v>14138.066199999999</v>
+      </c>
+      <c r="J2339">
+        <v>10453.061100000001</v>
+      </c>
+      <c r="K2339">
+        <v>0</v>
+      </c>
+      <c r="L2339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2340" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2340" s="1">
+        <v>41529.739571759259</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2340">
+        <v>1</v>
+      </c>
+      <c r="E2340">
+        <v>6</v>
+      </c>
+      <c r="F2340">
+        <v>2</v>
+      </c>
+      <c r="G2340">
+        <v>2</v>
+      </c>
+      <c r="H2340">
+        <v>9413.0563999999995</v>
+      </c>
+      <c r="I2340">
+        <v>7448.0536000000002</v>
+      </c>
+      <c r="J2340">
+        <v>6623.0523999999996</v>
+      </c>
+      <c r="K2340">
+        <v>0</v>
+      </c>
+      <c r="L2340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2341" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2341" s="1">
+        <v>41529.739675925928</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2341">
+        <v>1</v>
+      </c>
+      <c r="E2341">
+        <v>6</v>
+      </c>
+      <c r="F2341">
+        <v>3</v>
+      </c>
+      <c r="G2341">
+        <v>2</v>
+      </c>
+      <c r="H2341">
+        <v>8572.0594999999994</v>
+      </c>
+      <c r="I2341">
+        <v>6917.0572000000002</v>
+      </c>
+      <c r="J2341">
+        <v>6332.0564000000004</v>
+      </c>
+      <c r="K2341">
+        <v>0</v>
+      </c>
+      <c r="L2341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2342" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2342" s="1">
+        <v>41529.740023148152</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2342">
+        <v>3</v>
+      </c>
+      <c r="E2342">
+        <v>1</v>
+      </c>
+      <c r="F2342">
+        <v>1</v>
+      </c>
+      <c r="G2342">
+        <v>3</v>
+      </c>
+      <c r="H2342">
+        <v>18053.0687</v>
+      </c>
+      <c r="I2342">
+        <v>14343.0635</v>
+      </c>
+      <c r="J2342">
+        <v>7798.0542999999998</v>
+      </c>
+      <c r="K2342">
+        <v>0</v>
+      </c>
+      <c r="L2342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2343" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2343" s="1">
+        <v>41529.740173611113</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2343">
+        <v>3</v>
+      </c>
+      <c r="E2343">
+        <v>1</v>
+      </c>
+      <c r="F2343">
+        <v>2</v>
+      </c>
+      <c r="G2343">
+        <v>1</v>
+      </c>
+      <c r="H2343">
+        <v>13246.0638</v>
+      </c>
+      <c r="I2343">
+        <v>10986.060600000001</v>
+      </c>
+      <c r="J2343">
+        <v>7636.0559999999996</v>
+      </c>
+      <c r="K2343">
+        <v>0</v>
+      </c>
+      <c r="L2343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2344" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2344" s="1">
+        <v>41529.740405092591</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2344">
+        <v>3</v>
+      </c>
+      <c r="E2344">
+        <v>1</v>
+      </c>
+      <c r="F2344">
+        <v>3</v>
+      </c>
+      <c r="G2344">
+        <v>3</v>
+      </c>
+      <c r="H2344">
+        <v>20257.080600000001</v>
+      </c>
+      <c r="I2344">
+        <v>18442.078099999999</v>
+      </c>
+      <c r="J2344">
+        <v>14492.0725</v>
+      </c>
+      <c r="K2344">
+        <v>0</v>
+      </c>
+      <c r="L2344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2345" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2345" s="1">
+        <v>41529.740567129629</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2345">
+        <v>3</v>
+      </c>
+      <c r="E2345">
+        <v>2</v>
+      </c>
+      <c r="F2345">
+        <v>1</v>
+      </c>
+      <c r="G2345">
+        <v>1</v>
+      </c>
+      <c r="H2345">
+        <v>14242.0689</v>
+      </c>
+      <c r="I2345">
+        <v>10987.0643</v>
+      </c>
+      <c r="J2345">
+        <v>8752.0612000000001</v>
+      </c>
+      <c r="K2345">
+        <v>0</v>
+      </c>
+      <c r="L2345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2346" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2346" s="1">
+        <v>41529.740752314814</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2346">
+        <v>3</v>
+      </c>
+      <c r="E2346">
+        <v>2</v>
+      </c>
+      <c r="F2346">
+        <v>2</v>
+      </c>
+      <c r="G2346">
+        <v>2</v>
+      </c>
+      <c r="H2346">
+        <v>15663.1147</v>
+      </c>
+      <c r="I2346">
+        <v>13748.111999999999</v>
+      </c>
+      <c r="J2346">
+        <v>10953.108099999999</v>
+      </c>
+      <c r="K2346">
+        <v>0</v>
+      </c>
+      <c r="L2346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2347" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2347" s="1">
+        <v>41529.740925925929</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2347">
+        <v>3</v>
+      </c>
+      <c r="E2347">
+        <v>2</v>
+      </c>
+      <c r="F2347">
+        <v>3</v>
+      </c>
+      <c r="G2347">
+        <v>0</v>
+      </c>
+      <c r="H2347">
+        <v>14678.0766</v>
+      </c>
+      <c r="I2347">
+        <v>12423.073399999999</v>
+      </c>
+      <c r="J2347">
+        <v>11378.071900000001</v>
+      </c>
+      <c r="K2347">
+        <v>0</v>
+      </c>
+      <c r="L2347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2348" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2348" s="1">
+        <v>41529.741122685184</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2348">
+        <v>3</v>
+      </c>
+      <c r="E2348">
+        <v>3</v>
+      </c>
+      <c r="F2348">
+        <v>1</v>
+      </c>
+      <c r="G2348">
+        <v>0</v>
+      </c>
+      <c r="H2348">
+        <v>17497.0756</v>
+      </c>
+      <c r="I2348">
+        <v>15417.072700000001</v>
+      </c>
+      <c r="J2348">
+        <v>14237.071099999999</v>
+      </c>
+      <c r="K2348">
+        <v>0</v>
+      </c>
+      <c r="L2348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2349" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2349" s="1">
+        <v>41529.741238425922</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2349">
+        <v>3</v>
+      </c>
+      <c r="E2349">
+        <v>3</v>
+      </c>
+      <c r="F2349">
+        <v>2</v>
+      </c>
+      <c r="G2349">
+        <v>0</v>
+      </c>
+      <c r="H2349">
+        <v>10081.0597</v>
+      </c>
+      <c r="I2349">
+        <v>8096.0568999999996</v>
+      </c>
+      <c r="J2349">
+        <v>7091.0555000000004</v>
+      </c>
+      <c r="K2349">
+        <v>0</v>
+      </c>
+      <c r="L2349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2350" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2350" s="1">
+        <v>41529.741354166668</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2350">
+        <v>3</v>
+      </c>
+      <c r="E2350">
+        <v>3</v>
+      </c>
+      <c r="F2350">
+        <v>3</v>
+      </c>
+      <c r="G2350">
+        <v>0</v>
+      </c>
+      <c r="H2350">
+        <v>9746.0596999999998</v>
+      </c>
+      <c r="I2350">
+        <v>8041.0573000000004</v>
+      </c>
+      <c r="J2350">
+        <v>7091.0559999999996</v>
+      </c>
+      <c r="K2350">
+        <v>0</v>
+      </c>
+      <c r="L2350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2351" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2351" s="1">
+        <v>41529.741678240738</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2351">
+        <v>3</v>
+      </c>
+      <c r="E2351">
+        <v>4</v>
+      </c>
+      <c r="F2351">
+        <v>1</v>
+      </c>
+      <c r="G2351">
+        <v>2</v>
+      </c>
+      <c r="H2351">
+        <v>28031.157899999998</v>
+      </c>
+      <c r="I2351">
+        <v>26671.155999999999</v>
+      </c>
+      <c r="J2351">
+        <v>23531.151600000001</v>
+      </c>
+      <c r="K2351">
+        <v>2</v>
+      </c>
+      <c r="L2351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2352" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2352" s="1">
+        <v>41529.741805555554</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2352">
+        <v>3</v>
+      </c>
+      <c r="E2352">
+        <v>4</v>
+      </c>
+      <c r="F2352">
+        <v>2</v>
+      </c>
+      <c r="G2352">
+        <v>2</v>
+      </c>
+      <c r="H2352">
+        <v>11160.063599999999</v>
+      </c>
+      <c r="I2352">
+        <v>9325.0611000000008</v>
+      </c>
+      <c r="J2352">
+        <v>8060.0592999999999</v>
+      </c>
+      <c r="K2352">
+        <v>0</v>
+      </c>
+      <c r="L2352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2353" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2353" s="1">
+        <v>41529.742071759261</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2353">
+        <v>3</v>
+      </c>
+      <c r="E2353">
+        <v>4</v>
+      </c>
+      <c r="F2353">
+        <v>3</v>
+      </c>
+      <c r="G2353">
+        <v>0</v>
+      </c>
+      <c r="H2353">
+        <v>22979.157899999998</v>
+      </c>
+      <c r="I2353">
+        <v>20304.154200000001</v>
+      </c>
+      <c r="J2353">
+        <v>17149.149799999999</v>
+      </c>
+      <c r="K2353">
+        <v>1</v>
+      </c>
+      <c r="L2353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2354" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2354" s="1">
+        <v>41529.742210648146</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2354">
+        <v>3</v>
+      </c>
+      <c r="E2354">
+        <v>5</v>
+      </c>
+      <c r="F2354">
+        <v>1</v>
+      </c>
+      <c r="G2354">
+        <v>0</v>
+      </c>
+      <c r="H2354">
+        <v>11898.066199999999</v>
+      </c>
+      <c r="I2354">
+        <v>9803.0632000000005</v>
+      </c>
+      <c r="J2354">
+        <v>8343.0612000000001</v>
+      </c>
+      <c r="K2354">
+        <v>0</v>
+      </c>
+      <c r="L2354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2355" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2355" s="1">
+        <v>41529.742407407408</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2355">
+        <v>3</v>
+      </c>
+      <c r="E2355">
+        <v>5</v>
+      </c>
+      <c r="F2355">
+        <v>2</v>
+      </c>
+      <c r="G2355">
+        <v>3</v>
+      </c>
+      <c r="H2355">
+        <v>17228.066999999999</v>
+      </c>
+      <c r="I2355">
+        <v>13828.0622</v>
+      </c>
+      <c r="J2355">
+        <v>9668.0563999999995</v>
+      </c>
+      <c r="K2355">
+        <v>0</v>
+      </c>
+      <c r="L2355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2356" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2356" s="1">
+        <v>41529.742627314816</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2356">
+        <v>3</v>
+      </c>
+      <c r="E2356">
+        <v>5</v>
+      </c>
+      <c r="F2356">
+        <v>3</v>
+      </c>
+      <c r="G2356">
+        <v>1</v>
+      </c>
+      <c r="H2356">
+        <v>19011.073</v>
+      </c>
+      <c r="I2356">
+        <v>11431.062400000001</v>
+      </c>
+      <c r="J2356">
+        <v>8331.0580000000009</v>
+      </c>
+      <c r="K2356">
+        <v>0</v>
+      </c>
+      <c r="L2356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2357" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2357" s="1">
+        <v>41529.742800925924</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2357">
+        <v>3</v>
+      </c>
+      <c r="E2357">
+        <v>6</v>
+      </c>
+      <c r="F2357">
+        <v>1</v>
+      </c>
+      <c r="G2357">
+        <v>3</v>
+      </c>
+      <c r="H2357">
+        <v>14930.0209</v>
+      </c>
+      <c r="I2357">
+        <v>12060.016900000001</v>
+      </c>
+      <c r="J2357">
+        <v>8730.0121999999992</v>
+      </c>
+      <c r="K2357">
+        <v>0</v>
+      </c>
+      <c r="L2357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2358" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2358" s="1">
+        <v>41529.743009259262</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2358">
+        <v>3</v>
+      </c>
+      <c r="E2358">
+        <v>6</v>
+      </c>
+      <c r="F2358">
+        <v>2</v>
+      </c>
+      <c r="G2358">
+        <v>2</v>
+      </c>
+      <c r="H2358">
+        <v>17448.105200000002</v>
+      </c>
+      <c r="I2358">
+        <v>15108.1019</v>
+      </c>
+      <c r="J2358">
+        <v>9473.0939999999991</v>
+      </c>
+      <c r="K2358">
+        <v>0</v>
+      </c>
+      <c r="L2358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2359" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2359" s="1">
+        <v>41529.743171296293</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2359">
+        <v>3</v>
+      </c>
+      <c r="E2359">
+        <v>6</v>
+      </c>
+      <c r="F2359">
+        <v>3</v>
+      </c>
+      <c r="G2359">
+        <v>0</v>
+      </c>
+      <c r="H2359">
+        <v>13951.065699999999</v>
+      </c>
+      <c r="I2359">
+        <v>12056.063</v>
+      </c>
+      <c r="J2359">
+        <v>7696.0568999999996</v>
+      </c>
+      <c r="K2359">
+        <v>0</v>
+      </c>
+      <c r="L2359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2360" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2360" s="1">
+        <v>41529.743530092594</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2360">
+        <v>2</v>
+      </c>
+      <c r="E2360">
+        <v>1</v>
+      </c>
+      <c r="F2360">
+        <v>1</v>
+      </c>
+      <c r="G2360">
+        <v>1</v>
+      </c>
+      <c r="H2360">
+        <v>24202.088899999999</v>
+      </c>
+      <c r="I2360">
+        <v>20822.084200000001</v>
+      </c>
+      <c r="J2360">
+        <v>16902.078699999998</v>
+      </c>
+      <c r="K2360">
+        <v>0</v>
+      </c>
+      <c r="L2360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2361" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2361" s="1">
+        <v>41529.743692129632</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2361">
+        <v>2</v>
+      </c>
+      <c r="E2361">
+        <v>1</v>
+      </c>
+      <c r="F2361">
+        <v>2</v>
+      </c>
+      <c r="G2361">
+        <v>1</v>
+      </c>
+      <c r="H2361">
+        <v>14101.070299999999</v>
+      </c>
+      <c r="I2361">
+        <v>11521.066699999999</v>
+      </c>
+      <c r="J2361">
+        <v>8956.0630999999994</v>
+      </c>
+      <c r="K2361">
+        <v>0</v>
+      </c>
+      <c r="L2361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2362" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2362" s="1">
+        <v>41529.743888888886</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2362">
+        <v>2</v>
+      </c>
+      <c r="E2362">
+        <v>1</v>
+      </c>
+      <c r="F2362">
+        <v>3</v>
+      </c>
+      <c r="G2362">
+        <v>1</v>
+      </c>
+      <c r="H2362">
+        <v>16525.116600000001</v>
+      </c>
+      <c r="I2362">
+        <v>13345.1121</v>
+      </c>
+      <c r="J2362">
+        <v>10295.107900000001</v>
+      </c>
+      <c r="K2362">
+        <v>0</v>
+      </c>
+      <c r="L2362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2363" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2363" s="1">
+        <v>41529.744074074071</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2363">
+        <v>2</v>
+      </c>
+      <c r="E2363">
+        <v>2</v>
+      </c>
+      <c r="F2363">
+        <v>1</v>
+      </c>
+      <c r="G2363">
+        <v>3</v>
+      </c>
+      <c r="H2363">
+        <v>16627.073100000001</v>
+      </c>
+      <c r="I2363">
+        <v>14872.070599999999</v>
+      </c>
+      <c r="J2363">
+        <v>7292.06</v>
+      </c>
+      <c r="K2363">
+        <v>0</v>
+      </c>
+      <c r="L2363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2364" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2364" s="1">
+        <v>41529.744212962964</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2364">
+        <v>2</v>
+      </c>
+      <c r="E2364">
+        <v>2</v>
+      </c>
+      <c r="F2364">
+        <v>2</v>
+      </c>
+      <c r="G2364">
+        <v>3</v>
+      </c>
+      <c r="H2364">
+        <v>11780.0672</v>
+      </c>
+      <c r="I2364">
+        <v>9950.0647000000008</v>
+      </c>
+      <c r="J2364">
+        <v>9080.0633999999991</v>
+      </c>
+      <c r="K2364">
+        <v>0</v>
+      </c>
+      <c r="L2364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2365" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2365" s="1">
+        <v>41529.744328703702</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2365">
+        <v>2</v>
+      </c>
+      <c r="E2365">
+        <v>2</v>
+      </c>
+      <c r="F2365">
+        <v>3</v>
+      </c>
+      <c r="G2365">
+        <v>3</v>
+      </c>
+      <c r="H2365">
+        <v>10109.065500000001</v>
+      </c>
+      <c r="I2365">
+        <v>8259.0629000000008</v>
+      </c>
+      <c r="J2365">
+        <v>7099.0612000000001</v>
+      </c>
+      <c r="K2365">
+        <v>0</v>
+      </c>
+      <c r="L2365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2366" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2366" s="1">
+        <v>41529.744560185187</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2366">
+        <v>2</v>
+      </c>
+      <c r="E2366">
+        <v>3</v>
+      </c>
+      <c r="F2366">
+        <v>1</v>
+      </c>
+      <c r="G2366">
+        <v>3</v>
+      </c>
+      <c r="H2366">
+        <v>19442.0756</v>
+      </c>
+      <c r="I2366">
+        <v>17297.0726</v>
+      </c>
+      <c r="J2366">
+        <v>6412.0573999999997</v>
+      </c>
+      <c r="K2366">
+        <v>0</v>
+      </c>
+      <c r="L2366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2367" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2367" s="1">
+        <v>41529.744699074072</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2367">
+        <v>2</v>
+      </c>
+      <c r="E2367">
+        <v>3</v>
+      </c>
+      <c r="F2367">
+        <v>2</v>
+      </c>
+      <c r="G2367">
+        <v>0</v>
+      </c>
+      <c r="H2367">
+        <v>12091.0741</v>
+      </c>
+      <c r="I2367">
+        <v>9586.0705999999991</v>
+      </c>
+      <c r="J2367">
+        <v>8781.0694999999996</v>
+      </c>
+      <c r="K2367">
+        <v>0</v>
+      </c>
+      <c r="L2367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2368" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2368" s="1">
+        <v>41529.744826388887</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2368">
+        <v>2</v>
+      </c>
+      <c r="E2368">
+        <v>3</v>
+      </c>
+      <c r="F2368">
+        <v>3</v>
+      </c>
+      <c r="G2368">
+        <v>3</v>
+      </c>
+      <c r="H2368">
+        <v>11348.0627</v>
+      </c>
+      <c r="I2368">
+        <v>9733.0604000000003</v>
+      </c>
+      <c r="J2368">
+        <v>8868.0591999999997</v>
+      </c>
+      <c r="K2368">
+        <v>0</v>
+      </c>
+      <c r="L2368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2369" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2369" s="1">
+        <v>41529.74496527778</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2369">
+        <v>2</v>
+      </c>
+      <c r="E2369">
+        <v>4</v>
+      </c>
+      <c r="F2369">
+        <v>1</v>
+      </c>
+      <c r="G2369">
+        <v>0</v>
+      </c>
+      <c r="H2369">
+        <v>11381.063399999999</v>
+      </c>
+      <c r="I2369">
+        <v>9711.0611000000008</v>
+      </c>
+      <c r="J2369">
+        <v>8426.0593000000008</v>
+      </c>
+      <c r="K2369">
+        <v>0</v>
+      </c>
+      <c r="L2369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2370" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2370" s="1">
+        <v>41529.745104166665</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2370">
+        <v>2</v>
+      </c>
+      <c r="E2370">
+        <v>4</v>
+      </c>
+      <c r="F2370">
+        <v>2</v>
+      </c>
+      <c r="G2370">
+        <v>0</v>
+      </c>
+      <c r="H2370">
+        <v>12646.0607</v>
+      </c>
+      <c r="I2370">
+        <v>10956.058300000001</v>
+      </c>
+      <c r="J2370">
+        <v>8831.0553</v>
+      </c>
+      <c r="K2370">
+        <v>0</v>
+      </c>
+      <c r="L2370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2371" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2371" s="1">
+        <v>41529.745208333334</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2371">
+        <v>2</v>
+      </c>
+      <c r="E2371">
+        <v>4</v>
+      </c>
+      <c r="F2371">
+        <v>3</v>
+      </c>
+      <c r="G2371">
+        <v>0</v>
+      </c>
+      <c r="H2371">
+        <v>9088.0573000000004</v>
+      </c>
+      <c r="I2371">
+        <v>7143.0545000000002</v>
+      </c>
+      <c r="J2371">
+        <v>6403.0535</v>
+      </c>
+      <c r="K2371">
+        <v>0</v>
+      </c>
+      <c r="L2371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2372" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2372" s="1">
+        <v>41529.745347222219</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2372">
+        <v>2</v>
+      </c>
+      <c r="E2372">
+        <v>5</v>
+      </c>
+      <c r="F2372">
+        <v>1</v>
+      </c>
+      <c r="G2372">
+        <v>3</v>
+      </c>
+      <c r="H2372">
+        <v>11188.0504</v>
+      </c>
+      <c r="I2372">
+        <v>9628.0481999999993</v>
+      </c>
+      <c r="J2372">
+        <v>6878.0443999999998</v>
+      </c>
+      <c r="K2372">
+        <v>0</v>
+      </c>
+      <c r="L2372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2373" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2373" s="1">
+        <v>41529.745439814818</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2373">
+        <v>2</v>
+      </c>
+      <c r="E2373">
+        <v>5</v>
+      </c>
+      <c r="F2373">
+        <v>2</v>
+      </c>
+      <c r="G2373">
+        <v>3</v>
+      </c>
+      <c r="H2373">
+        <v>8728.0475999999999</v>
+      </c>
+      <c r="I2373">
+        <v>7153.0454</v>
+      </c>
+      <c r="J2373">
+        <v>6083.0438999999997</v>
+      </c>
+      <c r="K2373">
+        <v>0</v>
+      </c>
+      <c r="L2373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2374" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2374" s="1">
+        <v>41529.745567129627</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2374">
+        <v>2</v>
+      </c>
+      <c r="E2374">
+        <v>5</v>
+      </c>
+      <c r="F2374">
+        <v>3</v>
+      </c>
+      <c r="G2374">
+        <v>3</v>
+      </c>
+      <c r="H2374">
+        <v>10393.058199999999</v>
+      </c>
+      <c r="I2374">
+        <v>7243.0537999999997</v>
+      </c>
+      <c r="J2374">
+        <v>5668.0515999999998</v>
+      </c>
+      <c r="K2374">
+        <v>0</v>
+      </c>
+      <c r="L2374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2375" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2375" s="1">
+        <v>41529.745671296296</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2375">
+        <v>2</v>
+      </c>
+      <c r="E2375">
+        <v>6</v>
+      </c>
+      <c r="F2375">
+        <v>1</v>
+      </c>
+      <c r="G2375">
+        <v>0</v>
+      </c>
+      <c r="H2375">
+        <v>9136.0560999999998</v>
+      </c>
+      <c r="I2375">
+        <v>7576.0538999999999</v>
+      </c>
+      <c r="J2375">
+        <v>5891.0515999999998</v>
+      </c>
+      <c r="K2375">
+        <v>0</v>
+      </c>
+      <c r="L2375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2376" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2376" s="1">
+        <v>41529.745775462965</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2376">
+        <v>2</v>
+      </c>
+      <c r="E2376">
+        <v>6</v>
+      </c>
+      <c r="F2376">
+        <v>2</v>
+      </c>
+      <c r="G2376">
+        <v>0</v>
+      </c>
+      <c r="H2376">
+        <v>9727.0563999999995</v>
+      </c>
+      <c r="I2376">
+        <v>7802.0537000000004</v>
+      </c>
+      <c r="J2376">
+        <v>7287.0529999999999</v>
+      </c>
+      <c r="K2376">
+        <v>0</v>
+      </c>
+      <c r="L2376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2377" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2377" s="1">
+        <v>41529.745879629627</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2377">
+        <v>2</v>
+      </c>
+      <c r="E2377">
+        <v>6</v>
+      </c>
+      <c r="F2377">
+        <v>3</v>
+      </c>
+      <c r="G2377">
+        <v>0</v>
+      </c>
+      <c r="H2377">
+        <v>8741.0563999999995</v>
+      </c>
+      <c r="I2377">
+        <v>7041.0540000000001</v>
+      </c>
+      <c r="J2377">
+        <v>6126.0527000000002</v>
+      </c>
+      <c r="K2377">
+        <v>0</v>
+      </c>
+      <c r="L2377">
         <v>0</v>
       </c>
     </row>
